--- a/app/config/tables/business/forms/business/business.xlsx
+++ b/app/config/tables/business/forms/business/business.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="37935" windowHeight="19695" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="37935" windowHeight="19695" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="properties" sheetId="7" r:id="rId3"/>
-    <sheet name="settings" sheetId="5" r:id="rId4"/>
-    <sheet name="model" sheetId="6" r:id="rId5"/>
+    <sheet name="queries" sheetId="8" r:id="rId4"/>
+    <sheet name="settings" sheetId="5" r:id="rId5"/>
+    <sheet name="model" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="111">
   <si>
     <t>comments</t>
   </si>
@@ -138,9 +139,6 @@
     <t>village</t>
   </si>
   <si>
-    <t>villages</t>
-  </si>
-  <si>
     <t>service</t>
   </si>
   <si>
@@ -159,30 +157,6 @@
     <t>Manufacturing</t>
   </si>
   <si>
-    <t>village1</t>
-  </si>
-  <si>
-    <t>village2</t>
-  </si>
-  <si>
-    <t>village3</t>
-  </si>
-  <si>
-    <t>village4</t>
-  </si>
-  <si>
-    <t>Village 1</t>
-  </si>
-  <si>
-    <t>Village 2</t>
-  </si>
-  <si>
-    <t>Village 3</t>
-  </si>
-  <si>
-    <t>Village 4</t>
-  </si>
-  <si>
     <t>verification_date</t>
   </si>
   <si>
@@ -198,9 +172,6 @@
     <t>Has the VEO authorized this business?</t>
   </si>
   <si>
-    <t>village_veos</t>
-  </si>
-  <si>
     <t>True</t>
   </si>
   <si>
@@ -264,66 +235,9 @@
     <t>Enter the secondary phone number.</t>
   </si>
   <si>
-    <t>subvillages</t>
-  </si>
-  <si>
-    <t>subvillage1</t>
-  </si>
-  <si>
-    <t>subvillage2</t>
-  </si>
-  <si>
-    <t>subvillage3</t>
-  </si>
-  <si>
-    <t>subvillage4</t>
-  </si>
-  <si>
-    <t>Subvillage 1</t>
-  </si>
-  <si>
-    <t>Subvillage 2</t>
-  </si>
-  <si>
-    <t>Subvillage 3</t>
-  </si>
-  <si>
-    <t>Subvillage 4</t>
-  </si>
-  <si>
     <t>subvillage</t>
   </si>
   <si>
-    <t>veo1</t>
-  </si>
-  <si>
-    <t>VEO1</t>
-  </si>
-  <si>
-    <t>veo2</t>
-  </si>
-  <si>
-    <t>veo3</t>
-  </si>
-  <si>
-    <t>veo4</t>
-  </si>
-  <si>
-    <t>veo5</t>
-  </si>
-  <si>
-    <t>VEO2</t>
-  </si>
-  <si>
-    <t>VEO3</t>
-  </si>
-  <si>
-    <t>VEO4</t>
-  </si>
-  <si>
-    <t>VEO5</t>
-  </si>
-  <si>
     <t>verification_agent</t>
   </si>
   <si>
@@ -412,6 +326,51 @@
   </si>
   <si>
     <t>config/tables/business/html/business_detail.html</t>
+  </si>
+  <si>
+    <t>query_name</t>
+  </si>
+  <si>
+    <t>query_type</t>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
+    <t>villages_csv</t>
+  </si>
+  <si>
+    <t>subvillages_csv</t>
+  </si>
+  <si>
+    <t>_.chain(context).pluck('village_name').uniq().map(function(village){
+return {data_value: village, display: {title: {text: village} } };
+}).value()</t>
+  </si>
+  <si>
+    <t>_.map(context, function(place){
+return { village: place.village_name, data_value: place.subvillage_name, display: {title: {text: place.subvillage_name} } };
+})</t>
+  </si>
+  <si>
+    <t>veos_csv</t>
+  </si>
+  <si>
+    <t>_.map(context, function(place){
+return { village: place.village_name, data_value: place.veo, display: {title: {text: place.veo} } };
+})</t>
+  </si>
+  <si>
+    <t>uri</t>
+  </si>
+  <si>
+    <t>callback</t>
+  </si>
+  <si>
+    <t>"village.csv"</t>
+  </si>
+  <si>
+    <t>choice_item.village === data('village')</t>
   </si>
 </sst>
 </file>
@@ -444,14 +403,14 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="11"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -491,7 +450,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -509,6 +468,12 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -924,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -938,7 +903,8 @@
     <col min="7" max="8" width="53.5703125" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="1023" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="1023" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -987,10 +953,10 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -998,13 +964,13 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -1015,7 +981,7 @@
         <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -1026,7 +992,7 @@
         <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -1037,7 +1003,7 @@
         <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1048,7 +1014,7 @@
         <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -1056,35 +1022,35 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -1095,7 +1061,7 @@
         <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1106,35 +1072,38 @@
         <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="E13" t="s">
-        <v>35</v>
+      <c r="E13" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="F13" t="s">
         <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="E14" t="s">
-        <v>77</v>
+      <c r="E14" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="G14" t="s">
-        <v>112</v>
+        <v>83</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -1142,10 +1111,10 @@
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1153,85 +1122,88 @@
         <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="G17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>13</v>
       </c>
-      <c r="E20" t="s">
-        <v>55</v>
+      <c r="E20" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="F20" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="G20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D21" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="F21" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G22" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1247,10 +1219,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1274,224 +1246,132 @@
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" t="s">
-        <v>82</v>
-      </c>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" t="s">
-        <v>84</v>
-      </c>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" t="s">
-        <v>85</v>
-      </c>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" t="s">
-        <v>88</v>
-      </c>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" t="s">
-        <v>93</v>
-      </c>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" t="s">
-        <v>49</v>
-      </c>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="7"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1508,7 +1388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1516,13 +1396,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1533,19 +1413,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1554,6 +1434,89 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="54.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" customWidth="1"/>
+    <col min="8" max="8" width="43.140625" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="10" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="10" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="10" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -1609,7 +1572,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1617,7 +1580,7 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1631,12 +1594,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1658,7 +1621,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1666,7 +1629,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1706,23 +1669,23 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1754,7 +1717,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1762,7 +1725,7 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1770,15 +1733,15 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1786,7 +1749,7 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1794,7 +1757,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1802,15 +1765,15 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="F21" s="7"/>
     </row>
@@ -1819,7 +1782,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/business/forms/business/business.xlsx
+++ b/app/config/tables/business/forms/business/business.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clarice\eKichabi\app-designer\app\config\tables\business\forms\business\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="37935" windowHeight="19695" tabRatio="500"/>
+    <workbookView xWindow="6200" yWindow="1140" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
     <sheet name="settings" sheetId="5" r:id="rId5"/>
     <sheet name="model" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="109">
   <si>
     <t>comments</t>
   </si>
@@ -179,12 +174,6 @@
   </si>
   <si>
     <t>select_one_integer</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>integer</t>
@@ -376,7 +365,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -465,7 +454,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -475,6 +463,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -889,25 +878,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="8" width="53.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="7" max="8" width="53.5" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="1023" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="1023" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -948,32 +937,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="D2" t="s">
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="D4" t="s">
         <v>25</v>
       </c>
@@ -981,10 +970,10 @@
         <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="D5" t="s">
         <v>27</v>
       </c>
@@ -992,10 +981,10 @@
         <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="D6" t="s">
         <v>29</v>
       </c>
@@ -1003,10 +992,10 @@
         <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="D7" t="s">
         <v>23</v>
       </c>
@@ -1014,46 +1003,46 @@
         <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
         <v>58</v>
       </c>
-      <c r="F8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:13">
       <c r="D11" t="s">
         <v>23</v>
       </c>
@@ -1061,10 +1050,10 @@
         <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="D12" t="s">
         <v>23</v>
       </c>
@@ -1072,41 +1061,41 @@
         <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="D13" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F13" t="s">
         <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="36">
       <c r="D14" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G14" t="s">
-        <v>83</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="D15" t="s">
         <v>25</v>
       </c>
@@ -1114,35 +1103,35 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="D16" t="s">
         <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11">
       <c r="D17" t="s">
         <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11">
       <c r="D18" t="s">
         <v>25</v>
       </c>
@@ -1150,10 +1139,10 @@
         <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11">
       <c r="D19" t="s">
         <v>23</v>
       </c>
@@ -1161,49 +1150,49 @@
         <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="4:11" ht="38.25" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" ht="36">
       <c r="D20" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G20" t="s">
-        <v>89</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11">
       <c r="D21" s="7" t="s">
         <v>48</v>
       </c>
       <c r="E21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" t="s">
         <v>71</v>
-      </c>
-      <c r="F21" t="s">
-        <v>73</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:11">
       <c r="D22" t="s">
         <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1221,19 +1210,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" customWidth="1"/>
-    <col min="4" max="1024" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" customWidth="1"/>
+    <col min="4" max="1024" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="16.25" customHeight="1">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1244,9 +1233,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="18" customHeight="1">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
@@ -1255,9 +1244,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="16" customHeight="1">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -1266,9 +1255,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="17" customHeight="1">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -1277,105 +1266,105 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="16" customHeight="1">
       <c r="A6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>49</v>
+        <v>69</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="17" customHeight="1">
       <c r="A7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>50</v>
+        <v>69</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="19" customHeight="1"/>
+    <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
         <v>62</v>
       </c>
-      <c r="C10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1392,17 +1381,17 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
         <v>90</v>
-      </c>
-      <c r="B1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" t="s">
-        <v>92</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1411,25 +1400,30 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
         <v>93</v>
       </c>
-      <c r="B2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>95</v>
-      </c>
-      <c r="E2" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1441,78 +1435,83 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="54.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" customWidth="1"/>
-    <col min="8" max="8" width="43.140625" customWidth="1"/>
-    <col min="9" max="9" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="54.5" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" customWidth="1"/>
+    <col min="7" max="7" width="27.5" customWidth="1"/>
+    <col min="8" max="8" width="43.1640625" customWidth="1"/>
+    <col min="9" max="9" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="9" customFormat="1" ht="71.25" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="10" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="10" t="s">
+    </row>
+    <row r="3" spans="1:4" s="9" customFormat="1" ht="76.5" customHeight="1">
+      <c r="A3" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="B3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="9" customFormat="1" ht="76.5" customHeight="1">
+      <c r="A4" s="10" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="B4" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="10" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1524,15 +1523,15 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
-    <col min="4" max="1022" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="1022" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="16.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -1543,7 +1542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="16.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1551,7 +1550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="16.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1559,7 +1558,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="16.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1567,7 +1566,7 @@
         <v>20180703</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="16.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1575,12 +1574,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1602,37 +1601,37 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1640,7 +1639,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1648,7 +1647,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1656,7 +1655,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1664,31 +1663,31 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1696,7 +1695,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1704,7 +1703,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1712,15 +1711,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1728,23 +1727,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1752,7 +1751,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1760,32 +1759,37 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/app/config/tables/business/forms/business/business.xlsx
+++ b/app/config/tables/business/forms/business/business.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6200" yWindow="1140" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="6200" yWindow="1140" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="110">
   <si>
     <t>comments</t>
   </si>
@@ -234,9 +234,6 @@
   </si>
   <si>
     <t>authorization_veo</t>
-  </si>
-  <si>
-    <t>true_false_01</t>
   </si>
   <si>
     <t>sector_type_list</t>
@@ -360,6 +357,12 @@
   </si>
   <si>
     <t>choice_item.village === data('village')</t>
+  </si>
+  <si>
+    <t>true_false_unsure</t>
+  </si>
+  <si>
+    <t>Unsure</t>
   </si>
 </sst>
 </file>
@@ -431,9 +434,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -452,7 +457,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -463,14 +467,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -878,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -945,7 +952,7 @@
         <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -953,13 +960,13 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
         <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -970,7 +977,7 @@
         <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -981,7 +988,7 @@
         <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -992,7 +999,7 @@
         <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1003,7 +1010,7 @@
         <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1050,7 +1057,7 @@
         <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1061,38 +1068,38 @@
         <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>99</v>
+      <c r="E13" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="F13" t="s">
         <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="36">
       <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>100</v>
+      <c r="E14" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="F14" t="s">
         <v>65</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>108</v>
+        <v>80</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1103,7 +1110,7 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1114,7 +1121,7 @@
         <v>66</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="4:11">
@@ -1122,13 +1129,13 @@
         <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="F17" t="s">
         <v>67</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="4:11">
@@ -1139,7 +1146,7 @@
         <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="4:11">
@@ -1150,35 +1157,35 @@
         <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="4:11" ht="36">
       <c r="D20" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>103</v>
+      <c r="E20" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="F20" t="s">
         <v>68</v>
       </c>
       <c r="G20" t="s">
-        <v>87</v>
-      </c>
-      <c r="K20" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11">
+      <c r="D21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="21" spans="4:11">
-      <c r="D21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" t="s">
-        <v>69</v>
-      </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -1208,10 +1215,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1235,7 +1242,7 @@
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
@@ -1246,7 +1253,7 @@
     </row>
     <row r="3" spans="1:3" ht="16" customHeight="1">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -1257,7 +1264,7 @@
     </row>
     <row r="4" spans="1:3" ht="17" customHeight="1">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -1268,99 +1275,110 @@
     </row>
     <row r="6" spans="1:3" ht="16" customHeight="1">
       <c r="A6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="11">
+        <v>108</v>
+      </c>
+      <c r="B6" s="10">
         <v>0</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" customHeight="1">
       <c r="A7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="11">
+        <v>108</v>
+      </c>
+      <c r="B7" s="10">
         <v>1</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19" customHeight="1"/>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
-      <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    <row r="8" spans="1:3" ht="19" customHeight="1">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19" customHeight="1"/>
+    <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="A10" t="s">
         <v>56</v>
       </c>
       <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
         <v>60</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-    </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="7"/>
+      <c r="A28" s="6"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="7"/>
+      <c r="A29" s="6"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="7"/>
+      <c r="A30" s="6"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1385,13 +1403,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
         <v>88</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>89</v>
-      </c>
-      <c r="C1" t="s">
-        <v>90</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1402,19 +1420,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
         <v>91</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
         <v>92</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>94</v>
-      </c>
-      <c r="D2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1449,59 +1467,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="8" customFormat="1" ht="71.25" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" ht="71.25" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="D2" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="8" customFormat="1" ht="76.5" customHeight="1">
+      <c r="A3" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="B3" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="9" customFormat="1" ht="76.5" customHeight="1">
-      <c r="A3" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="10" t="s">
+    <row r="4" spans="1:4" s="8" customFormat="1" ht="76.5" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" s="9" customFormat="1" ht="76.5" customHeight="1">
-      <c r="A4" s="10" t="s">
+      <c r="B4" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1608,10 +1626,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1768,13 +1786,13 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">

--- a/app/config/tables/business/forms/business/business.xlsx
+++ b/app/config/tables/business/forms/business/business.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6200" yWindow="1140" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="15000" yWindow="4560" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="122">
   <si>
     <t>comments</t>
   </si>
@@ -104,63 +104,12 @@
     <t>business</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>enrollment_date</t>
-  </si>
-  <si>
-    <t>geopoint</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>phone_number</t>
   </si>
   <si>
-    <t>photo</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
     <t>village</t>
   </si>
   <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>merchandise</t>
-  </si>
-  <si>
-    <t>manufacturing</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Merchandise</t>
-  </si>
-  <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
-    <t>verification_date</t>
-  </si>
-  <si>
-    <t>authorization_date</t>
-  </si>
-  <si>
-    <t>authorization_otc</t>
-  </si>
-  <si>
     <t>Business</t>
   </si>
   <si>
@@ -209,12 +158,6 @@
     <t>Female</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -227,9 +170,6 @@
     <t>subvillage</t>
   </si>
   <si>
-    <t>verification_agent</t>
-  </si>
-  <si>
     <t>has_been_verified_by_agent</t>
   </si>
   <si>
@@ -248,43 +188,16 @@
     <t>Choose the sector of the business.</t>
   </si>
   <si>
-    <t>Enter the date of the enrollment.</t>
-  </si>
-  <si>
-    <t>Record the location of the business.</t>
-  </si>
-  <si>
-    <t>Take a photo of the business.</t>
-  </si>
-  <si>
-    <t>Enter the business owner's name.</t>
-  </si>
-  <si>
     <t>Enter the phone number for the business.</t>
   </si>
   <si>
-    <t>Enter the address.</t>
-  </si>
-  <si>
     <t>Choose the village.</t>
   </si>
   <si>
     <t>Choose the subvillage.</t>
   </si>
   <si>
-    <t>Enter the verification date.</t>
-  </si>
-  <si>
-    <t>Enter the name of the agent who verified the business.</t>
-  </si>
-  <si>
     <t>Has the agent verified this business?</t>
-  </si>
-  <si>
-    <t>Enter authorization date.</t>
-  </si>
-  <si>
-    <t>Enter authorization OTC.</t>
   </si>
   <si>
     <t>Enter the name of the authorizing VEO.</t>
@@ -363,13 +276,136 @@
   </si>
   <si>
     <t>Unsure</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>Trading and Wholesale</t>
+  </si>
+  <si>
+    <t>merchant</t>
+  </si>
+  <si>
+    <t>Merchant/Retail</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>hiring</t>
+  </si>
+  <si>
+    <t>Hiring and Labor</t>
+  </si>
+  <si>
+    <t>agri</t>
+  </si>
+  <si>
+    <t>Agri Processing</t>
+  </si>
+  <si>
+    <t>repairs</t>
+  </si>
+  <si>
+    <t>Repairs</t>
+  </si>
+  <si>
+    <t>Non-agri</t>
+  </si>
+  <si>
+    <t>Non-Agri Services</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
+    <t>airtel</t>
+  </si>
+  <si>
+    <t>Airtel</t>
+  </si>
+  <si>
+    <t>vodacom</t>
+  </si>
+  <si>
+    <t>Vodacom</t>
+  </si>
+  <si>
+    <t>tigo</t>
+  </si>
+  <si>
+    <t>Tigo</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>business_owner_age</t>
+  </si>
+  <si>
+    <t>What is the age of the business owner?</t>
+  </si>
+  <si>
+    <t>phone_number_network</t>
+  </si>
+  <si>
+    <t>Enter the network for the phone number.</t>
+  </si>
+  <si>
+    <t>secondary_phone_number_network</t>
+  </si>
+  <si>
+    <t>Enter the network for the secondary phone number.</t>
+  </si>
+  <si>
+    <t>network_list</t>
+  </si>
+  <si>
+    <t>verifier_id</t>
+  </si>
+  <si>
+    <t>Enter the id of the verifier who verified the business.</t>
+  </si>
+  <si>
+    <t>enroller_id</t>
+  </si>
+  <si>
+    <t>Enter the id of enroller.</t>
+  </si>
+  <si>
+    <t>ward</t>
+  </si>
+  <si>
+    <t>Choose the ward.</t>
+  </si>
+  <si>
+    <t>ward_csv</t>
+  </si>
+  <si>
+    <t>district_csv</t>
+  </si>
+  <si>
+    <t>Choose the district.</t>
+  </si>
+  <si>
+    <t>district</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -410,6 +446,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -434,7 +478,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -443,8 +487,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -469,15 +553,61 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="48">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -883,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -945,119 +1075,140 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" t="s">
-        <v>71</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="D3" t="s">
+      <c r="A3" s="1"/>
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" t="s">
-        <v>72</v>
-      </c>
+      <c r="E3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:13">
       <c r="D4" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="13" customHeight="1">
       <c r="D5" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>55</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="D6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="D7" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="D9" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="D10" t="s">
-        <v>49</v>
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="D11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1065,52 +1216,49 @@
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>98</v>
+      <c r="E13" t="s">
+        <v>111</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="G13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="36">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
-        <v>80</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="D15" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>111</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1118,88 +1266,66 @@
         <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="G16" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="4:11">
       <c r="D17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="G17" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="4:11">
       <c r="D18" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>79</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="4:11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" ht="15" customHeight="1">
       <c r="D19" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="4:11" ht="36">
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>102</v>
+        <v>57</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11">
+      <c r="D20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="4:11">
-      <c r="D21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" t="s">
-        <v>108</v>
-      </c>
-      <c r="F21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="4:11">
-      <c r="D22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1215,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1242,122 +1368,150 @@
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1">
       <c r="A2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" customHeight="1">
       <c r="A3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" customHeight="1">
       <c r="A4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16" customHeight="1">
+        <v>49</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17" customHeight="1">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17" customHeight="1">
       <c r="A6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="10">
-        <v>0</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" customHeight="1">
       <c r="A7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="10">
+        <v>49</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17" customHeight="1">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17" customHeight="1">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17" customHeight="1">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="16" customHeight="1">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" customHeight="1">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="10">
         <v>1</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="19" customHeight="1">
-      <c r="A8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8">
+      <c r="C13" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="19" customHeight="1">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14">
         <v>-1</v>
       </c>
-      <c r="C8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="19" customHeight="1"/>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
-      <c r="A10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="19" customHeight="1"/>
+    <row r="16" spans="1:3" ht="15" customHeight="1">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="6"/>
@@ -1365,20 +1519,93 @@
       <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="6"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="6"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="6"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="6"/>
+      <c r="A20" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:3" ht="17">
+      <c r="A25" s="6"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" spans="1:3" ht="17">
+      <c r="A26" s="6"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+    </row>
+    <row r="27" spans="1:3" ht="17">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+    </row>
+    <row r="28" spans="1:3" ht="17">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+    </row>
+    <row r="29" spans="1:3" ht="17">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+    </row>
+    <row r="30" spans="1:3" ht="17">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+    </row>
+    <row r="31" spans="1:3" ht="17">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+    </row>
+    <row r="32" spans="1:3" ht="17">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="6"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="6"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="6"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1403,13 +1630,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1420,19 +1647,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1447,10 +1674,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1468,58 +1695,86 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="8" customFormat="1" ht="71.25" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="8" customFormat="1" ht="76.5" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="8" customFormat="1" ht="76.5" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>103</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="8" customFormat="1" ht="71.25" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="8" customFormat="1" ht="76.5" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1844,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1597,7 +1852,7 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1613,19 +1868,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="6" max="6" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -1633,177 +1889,174 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>46</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
       <c r="B10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
       <c r="B15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
         <v>48</v>
       </c>
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>63</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/app/config/tables/business/forms/business/business.xlsx
+++ b/app/config/tables/business/forms/business/business.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15000" yWindow="4560" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="10920" yWindow="3460" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="queries" sheetId="8" r:id="rId4"/>
     <sheet name="settings" sheetId="5" r:id="rId5"/>
     <sheet name="model" sheetId="6" r:id="rId6"/>
+    <sheet name="prompt_types" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="149">
   <si>
     <t>comments</t>
   </si>
@@ -240,6 +241,219 @@
   </si>
   <si>
     <t>subvillages_csv</t>
+  </si>
+  <si>
+    <t>veos_csv</t>
+  </si>
+  <si>
+    <t>uri</t>
+  </si>
+  <si>
+    <t>callback</t>
+  </si>
+  <si>
+    <t>"village.csv"</t>
+  </si>
+  <si>
+    <t>true_false_unsure</t>
+  </si>
+  <si>
+    <t>Unsure</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>Trading and Wholesale</t>
+  </si>
+  <si>
+    <t>merchant</t>
+  </si>
+  <si>
+    <t>Merchant/Retail</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>hiring</t>
+  </si>
+  <si>
+    <t>Hiring and Labor</t>
+  </si>
+  <si>
+    <t>agri</t>
+  </si>
+  <si>
+    <t>Agri Processing</t>
+  </si>
+  <si>
+    <t>repairs</t>
+  </si>
+  <si>
+    <t>Repairs</t>
+  </si>
+  <si>
+    <t>Non-agri</t>
+  </si>
+  <si>
+    <t>Non-Agri Services</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
+    <t>airtel</t>
+  </si>
+  <si>
+    <t>Airtel</t>
+  </si>
+  <si>
+    <t>vodacom</t>
+  </si>
+  <si>
+    <t>Vodacom</t>
+  </si>
+  <si>
+    <t>tigo</t>
+  </si>
+  <si>
+    <t>Tigo</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>business_owner_age</t>
+  </si>
+  <si>
+    <t>What is the age of the business owner?</t>
+  </si>
+  <si>
+    <t>phone_number_network</t>
+  </si>
+  <si>
+    <t>Enter the network for the phone number.</t>
+  </si>
+  <si>
+    <t>secondary_phone_number_network</t>
+  </si>
+  <si>
+    <t>Enter the network for the secondary phone number.</t>
+  </si>
+  <si>
+    <t>network_list</t>
+  </si>
+  <si>
+    <t>verifier_id</t>
+  </si>
+  <si>
+    <t>Enter the id of the verifier who verified the business.</t>
+  </si>
+  <si>
+    <t>enroller_id</t>
+  </si>
+  <si>
+    <t>Enter the id of enroller.</t>
+  </si>
+  <si>
+    <t>ward</t>
+  </si>
+  <si>
+    <t>Choose the ward.</t>
+  </si>
+  <si>
+    <t>district_csv</t>
+  </si>
+  <si>
+    <t>Choose the district.</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>linked_table_id</t>
+  </si>
+  <si>
+    <t>linked_form_id</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>selectionArgs</t>
+  </si>
+  <si>
+    <t>fieldName</t>
+  </si>
+  <si>
+    <t>newRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>openRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>columnValue</t>
+  </si>
+  <si>
+    <t>district_group_by</t>
+  </si>
+  <si>
+    <t>linked_table</t>
+  </si>
+  <si>
+    <t>geo_unit</t>
+  </si>
+  <si>
+    <t>1=1</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>DISTINCT(district)</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>villages_group_by</t>
+  </si>
+  <si>
+    <t>district=?</t>
+  </si>
+  <si>
+    <t>[data('district')]</t>
+  </si>
+  <si>
+    <t>DISTINCT(village)</t>
+  </si>
+  <si>
+    <t>select_one_group_by</t>
+  </si>
+  <si>
+    <t>ward_group_by</t>
+  </si>
+  <si>
+    <t>DISTINCT(ward)</t>
+  </si>
+  <si>
+    <t>authorizer_id</t>
+  </si>
+  <si>
+    <t>prompt_type_name</t>
+  </si>
+  <si>
+    <t>Enter the id of authorizer.</t>
   </si>
   <si>
     <t>_.chain(context).pluck('village_name').uniq().map(function(village){
@@ -252,160 +466,26 @@
 })</t>
   </si>
   <si>
-    <t>veos_csv</t>
-  </si>
-  <si>
-    <t>_.map(context, function(place){
-return { village: place.village_name, data_value: place.veo, display: {title: {text: place.veo} } };
-})</t>
-  </si>
-  <si>
-    <t>uri</t>
-  </si>
-  <si>
-    <t>callback</t>
-  </si>
-  <si>
-    <t>"village.csv"</t>
-  </si>
-  <si>
-    <t>choice_item.village === data('village')</t>
-  </si>
-  <si>
-    <t>true_false_unsure</t>
-  </si>
-  <si>
-    <t>Unsure</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>Trading and Wholesale</t>
-  </si>
-  <si>
-    <t>merchant</t>
-  </si>
-  <si>
-    <t>Merchant/Retail</t>
-  </si>
-  <si>
-    <t>transport</t>
-  </si>
-  <si>
-    <t>Transport</t>
-  </si>
-  <si>
-    <t>hiring</t>
-  </si>
-  <si>
-    <t>Hiring and Labor</t>
-  </si>
-  <si>
-    <t>agri</t>
-  </si>
-  <si>
-    <t>Agri Processing</t>
-  </si>
-  <si>
-    <t>repairs</t>
-  </si>
-  <si>
-    <t>Repairs</t>
-  </si>
-  <si>
-    <t>Non-agri</t>
-  </si>
-  <si>
-    <t>Non-Agri Services</t>
-  </si>
-  <si>
-    <t>financial</t>
-  </si>
-  <si>
-    <t>Financial Services</t>
-  </si>
-  <si>
-    <t>airtel</t>
-  </si>
-  <si>
-    <t>Airtel</t>
-  </si>
-  <si>
-    <t>vodacom</t>
-  </si>
-  <si>
-    <t>Vodacom</t>
-  </si>
-  <si>
-    <t>tigo</t>
-  </si>
-  <si>
-    <t>Tigo</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>business_owner_age</t>
-  </si>
-  <si>
-    <t>What is the age of the business owner?</t>
-  </si>
-  <si>
-    <t>phone_number_network</t>
-  </si>
-  <si>
-    <t>Enter the network for the phone number.</t>
-  </si>
-  <si>
-    <t>secondary_phone_number_network</t>
-  </si>
-  <si>
-    <t>Enter the network for the secondary phone number.</t>
-  </si>
-  <si>
-    <t>network_list</t>
-  </si>
-  <si>
-    <t>verifier_id</t>
-  </si>
-  <si>
-    <t>Enter the id of the verifier who verified the business.</t>
-  </si>
-  <si>
-    <t>enroller_id</t>
-  </si>
-  <si>
-    <t>Enter the id of enroller.</t>
-  </si>
-  <si>
-    <t>ward</t>
-  </si>
-  <si>
-    <t>Choose the ward.</t>
-  </si>
-  <si>
-    <t>ward_csv</t>
-  </si>
-  <si>
-    <t>district_csv</t>
-  </si>
-  <si>
-    <t>Choose the district.</t>
-  </si>
-  <si>
-    <t>district</t>
+    <t>subvillages_list</t>
+  </si>
+  <si>
+    <t>veos_list</t>
+  </si>
+  <si>
+    <t>veo</t>
+  </si>
+  <si>
+    <t>DISTINCT(subvillage)</t>
+  </si>
+  <si>
+    <t>DISTINCT(veo)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -454,6 +534,11 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Menlo"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -478,7 +563,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="48">
+  <cellStyleXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -527,8 +612,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -559,8 +656,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="48">
+  <cellStyles count="60">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -585,6 +700,12 @@
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -608,6 +729,12 @@
     <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1013,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1029,7 +1156,7 @@
     <col min="7" max="8" width="53.5" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="31.83203125" customWidth="1"/>
     <col min="12" max="1023" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1076,44 +1203,44 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1"/>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>119</v>
+      <c r="D2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" t="s">
+        <v>125</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H2" s="2"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1"/>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
+      <c r="D3" t="s">
+        <v>136</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H3" s="2"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:13">
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>69</v>
+        <v>136</v>
+      </c>
+      <c r="E4" t="s">
+        <v>132</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
@@ -1124,10 +1251,10 @@
     </row>
     <row r="5" spans="1:13" ht="13" customHeight="1">
       <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>70</v>
+        <v>136</v>
+      </c>
+      <c r="E5" t="s">
+        <v>144</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1135,9 +1262,7 @@
       <c r="G5" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="9" t="s">
-        <v>78</v>
-      </c>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:13">
       <c r="D6" t="s">
@@ -1180,10 +1305,10 @@
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1227,13 +1352,13 @@
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1252,13 +1377,13 @@
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1266,10 +1391,10 @@
         <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="4:11">
@@ -1277,10 +1402,10 @@
         <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="4:11">
@@ -1288,7 +1413,7 @@
         <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s">
         <v>47</v>
@@ -1299,10 +1424,10 @@
     </row>
     <row r="19" spans="4:11" ht="15" customHeight="1">
       <c r="D19" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="F19" t="s">
         <v>48</v>
@@ -1310,22 +1435,31 @@
       <c r="G19" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="9" t="s">
-        <v>78</v>
-      </c>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" spans="4:11">
       <c r="D20" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s">
         <v>50</v>
       </c>
       <c r="G20" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11">
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1371,10 +1505,10 @@
         <v>49</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" customHeight="1">
@@ -1382,10 +1516,10 @@
         <v>49</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" customHeight="1">
@@ -1393,10 +1527,10 @@
         <v>49</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" customHeight="1">
@@ -1404,10 +1538,10 @@
         <v>49</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" customHeight="1">
@@ -1415,10 +1549,10 @@
         <v>49</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" customHeight="1">
@@ -1426,10 +1560,10 @@
         <v>49</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" customHeight="1">
@@ -1437,10 +1571,10 @@
         <v>49</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" customHeight="1">
@@ -1448,10 +1582,10 @@
         <v>49</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" customHeight="1">
@@ -1459,7 +1593,7 @@
     </row>
     <row r="12" spans="1:3" ht="16" customHeight="1">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B12" s="10">
         <v>0</v>
@@ -1470,7 +1604,7 @@
     </row>
     <row r="13" spans="1:3" ht="17" customHeight="1">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B13" s="10">
         <v>1</v>
@@ -1481,13 +1615,13 @@
     </row>
     <row r="14" spans="1:3" ht="19" customHeight="1">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B14">
         <v>-1</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19" customHeight="1"/>
@@ -1496,7 +1630,7 @@
         <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
         <v>42</v>
@@ -1507,7 +1641,7 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
         <v>43</v>
@@ -1520,35 +1654,35 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1674,10 +1808,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1693,7 +1827,7 @@
     <col min="9" max="9" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:12" ht="75">
       <c r="A1" s="8" t="s">
         <v>66</v>
       </c>
@@ -1701,83 +1835,447 @@
         <v>67</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" ht="71.25" customHeight="1">
-      <c r="A2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="18" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" ht="76.5" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="B8" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="8" customFormat="1" ht="76.5" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="C8" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="C11" s="18" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" s="8" customFormat="1" ht="71.25" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="8" customFormat="1" ht="76.5" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>72</v>
+      <c r="D11" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="1:12" ht="15">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15">
+      <c r="A15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>131</v>
+      </c>
+      <c r="L15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15">
+      <c r="A16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" t="s">
+        <v>131</v>
+      </c>
+      <c r="L16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15">
+      <c r="A17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I17" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" t="s">
+        <v>131</v>
+      </c>
+      <c r="L17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15">
+      <c r="A18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I18" t="s">
+        <v>148</v>
+      </c>
+      <c r="J18" t="s">
+        <v>131</v>
+      </c>
+      <c r="K18" t="s">
+        <v>131</v>
+      </c>
+      <c r="L18" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="K11:K13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <extLst>
@@ -1871,7 +2369,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1894,7 +2392,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -1905,7 +2403,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1958,7 +2456,7 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1990,7 +2488,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2006,7 +2504,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2014,7 +2512,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2022,7 +2520,7 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2052,7 +2550,12 @@
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="6"/>
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>139</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2063,4 +2566,44 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A6:B7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:2">
+      <c r="A6" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="13">
+      <c r="A7" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/app/config/tables/business/forms/business/business.xlsx
+++ b/app/config/tables/business/forms/business/business.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eKichabi\app-designer\app\config\tables\business\forms\business\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10920" yWindow="3460" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="10920" yWindow="3463" windowWidth="25603" windowHeight="16063" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="204">
   <si>
     <t>comments</t>
   </si>
@@ -138,24 +143,15 @@
     <t>business_age</t>
   </si>
   <si>
-    <t>How old is this business?</t>
-  </si>
-  <si>
     <t>gender</t>
   </si>
   <si>
-    <t>What is the gender of the business owner?</t>
-  </si>
-  <si>
     <t>male_female</t>
   </si>
   <si>
     <t>firm_size</t>
   </si>
   <si>
-    <t>What is the size of this firm?</t>
-  </si>
-  <si>
     <t>Female</t>
   </si>
   <si>
@@ -165,9 +161,6 @@
     <t>secondary_phone_number</t>
   </si>
   <si>
-    <t>Enter the secondary phone number.</t>
-  </si>
-  <si>
     <t>subvillage</t>
   </si>
   <si>
@@ -189,18 +182,12 @@
     <t>Choose the sector of the business.</t>
   </si>
   <si>
-    <t>Enter the phone number for the business.</t>
-  </si>
-  <si>
     <t>Choose the village.</t>
   </si>
   <si>
     <t>Choose the subvillage.</t>
   </si>
   <si>
-    <t>Has the agent verified this business?</t>
-  </si>
-  <si>
     <t>Enter the name of the authorizing VEO.</t>
   </si>
   <si>
@@ -237,75 +224,27 @@
     <t>csv</t>
   </si>
   <si>
-    <t>villages_csv</t>
-  </si>
-  <si>
-    <t>subvillages_csv</t>
-  </si>
-  <si>
-    <t>veos_csv</t>
-  </si>
-  <si>
     <t>uri</t>
   </si>
   <si>
     <t>callback</t>
   </si>
   <si>
-    <t>"village.csv"</t>
-  </si>
-  <si>
     <t>true_false_unsure</t>
   </si>
   <si>
     <t>Unsure</t>
   </si>
   <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>Trading and Wholesale</t>
-  </si>
-  <si>
-    <t>merchant</t>
-  </si>
-  <si>
     <t>Merchant/Retail</t>
   </si>
   <si>
-    <t>transport</t>
-  </si>
-  <si>
     <t>Transport</t>
   </si>
   <si>
-    <t>hiring</t>
-  </si>
-  <si>
     <t>Hiring and Labor</t>
   </si>
   <si>
-    <t>agri</t>
-  </si>
-  <si>
-    <t>Agri Processing</t>
-  </si>
-  <si>
-    <t>repairs</t>
-  </si>
-  <si>
-    <t>Repairs</t>
-  </si>
-  <si>
-    <t>Non-agri</t>
-  </si>
-  <si>
-    <t>Non-Agri Services</t>
-  </si>
-  <si>
-    <t>financial</t>
-  </si>
-  <si>
     <t>Financial Services</t>
   </si>
   <si>
@@ -336,15 +275,9 @@
     <t>business_owner_age</t>
   </si>
   <si>
-    <t>What is the age of the business owner?</t>
-  </si>
-  <si>
     <t>phone_number_network</t>
   </si>
   <si>
-    <t>Enter the network for the phone number.</t>
-  </si>
-  <si>
     <t>secondary_phone_number_network</t>
   </si>
   <si>
@@ -357,9 +290,6 @@
     <t>verifier_id</t>
   </si>
   <si>
-    <t>Enter the id of the verifier who verified the business.</t>
-  </si>
-  <si>
     <t>enroller_id</t>
   </si>
   <si>
@@ -372,9 +302,6 @@
     <t>Choose the ward.</t>
   </si>
   <si>
-    <t>district_csv</t>
-  </si>
-  <si>
     <t>Choose the district.</t>
   </si>
   <si>
@@ -456,36 +383,277 @@
     <t>Enter the id of authorizer.</t>
   </si>
   <si>
-    <t>_.chain(context).pluck('village_name').uniq().map(function(village){
-return {data_value: village, display: {title: {text: village} } };
-}).value()</t>
-  </si>
-  <si>
-    <t>_.map(context, function(place){
-return { village: place.village_name, data_value: place.subvillage_name, display: {title: {text: place.subvillage_name} } };
+    <t>subvillages_list</t>
+  </si>
+  <si>
+    <t>veos_list</t>
+  </si>
+  <si>
+    <t>veo</t>
+  </si>
+  <si>
+    <t>DISTINCT(subvillage)</t>
+  </si>
+  <si>
+    <t>DISTINCT(veo)</t>
+  </si>
+  <si>
+    <t>subsector_type</t>
+  </si>
+  <si>
+    <t>Choose the subsector of the business</t>
+  </si>
+  <si>
+    <t>maize</t>
+  </si>
+  <si>
+    <t>mahindi</t>
+  </si>
+  <si>
+    <t>beans</t>
+  </si>
+  <si>
+    <t>maharage</t>
+  </si>
+  <si>
+    <t>field peas</t>
+  </si>
+  <si>
+    <t>mikunde</t>
+  </si>
+  <si>
+    <t>cow peas</t>
+  </si>
+  <si>
+    <t>njegere</t>
+  </si>
+  <si>
+    <t>green gram</t>
+  </si>
+  <si>
+    <t>choroko</t>
+  </si>
+  <si>
+    <t>groundnuts</t>
+  </si>
+  <si>
+    <t>karanga</t>
+  </si>
+  <si>
+    <t>sunflower</t>
+  </si>
+  <si>
+    <t>alizeti</t>
+  </si>
+  <si>
+    <t>sesame</t>
+  </si>
+  <si>
+    <t>ufuta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grapes </t>
+  </si>
+  <si>
+    <t>zabibu</t>
+  </si>
+  <si>
+    <t>greens</t>
+  </si>
+  <si>
+    <t>mboga za majani</t>
+  </si>
+  <si>
+    <t>fruits</t>
+  </si>
+  <si>
+    <t>matunda</t>
+  </si>
+  <si>
+    <t>vegetables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">viungo </t>
+  </si>
+  <si>
+    <t>cereals/legumes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nafaka </t>
+  </si>
+  <si>
+    <t>cash crops</t>
+  </si>
+  <si>
+    <t>mazao ya biashara</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>ndizi</t>
+  </si>
+  <si>
+    <t>sugarcane</t>
+  </si>
+  <si>
+    <t>miwa</t>
+  </si>
+  <si>
+    <t>Other crop</t>
+  </si>
+  <si>
+    <t>mazao nyingine</t>
+  </si>
+  <si>
+    <t>cow</t>
+  </si>
+  <si>
+    <t>Ngo'mbe</t>
+  </si>
+  <si>
+    <t>donkey</t>
+  </si>
+  <si>
+    <t>Punda</t>
+  </si>
+  <si>
+    <t>goat</t>
+  </si>
+  <si>
+    <t>mbuzi</t>
+  </si>
+  <si>
+    <t>sheep</t>
+  </si>
+  <si>
+    <t>kondoo</t>
+  </si>
+  <si>
+    <t>pig</t>
+  </si>
+  <si>
+    <t>nguruwe</t>
+  </si>
+  <si>
+    <t>fowl</t>
+  </si>
+  <si>
+    <t>Ndege (Kuku/Bata)</t>
+  </si>
+  <si>
+    <t>rabbits</t>
+  </si>
+  <si>
+    <t>sungura</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>maziwa</t>
+  </si>
+  <si>
+    <t>eggs</t>
+  </si>
+  <si>
+    <t>mayai</t>
+  </si>
+  <si>
+    <t>butchered meat</t>
+  </si>
+  <si>
+    <t>Nyama iliyochinjwa</t>
+  </si>
+  <si>
+    <t>Other livestock</t>
+  </si>
+  <si>
+    <t>mifugo nyingine</t>
+  </si>
+  <si>
+    <t>display.title.text.sw</t>
+  </si>
+  <si>
+    <t>Trading/Sales</t>
+  </si>
+  <si>
+    <t>Wafanyabiashara wa Jumla</t>
+  </si>
+  <si>
+    <t>Wafanyabiashara wa Rejareja</t>
+  </si>
+  <si>
+    <t>Usafirishaji</t>
+  </si>
+  <si>
+    <t>Kukodi au Kibarua</t>
+  </si>
+  <si>
+    <t>Agricultural Processing</t>
+  </si>
+  <si>
+    <t>Kuongezea thamani bidhaa za kilimo</t>
+  </si>
+  <si>
+    <t>Repairs/technicians</t>
+  </si>
+  <si>
+    <t>Fundi</t>
+  </si>
+  <si>
+    <t>Non-agricultural Services</t>
+  </si>
+  <si>
+    <t>Sekta isiyo ya kilimo</t>
+  </si>
+  <si>
+    <t>Sekta ya Kifedha</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>subsector_type_list</t>
+  </si>
+  <si>
+    <t>(data(sector_type) === 1 || data(sector_type) === 2)</t>
+  </si>
+  <si>
+    <t>crop_type_list</t>
+  </si>
+  <si>
+    <t>Do you specialize in a specifc crop?</t>
+  </si>
+  <si>
+    <t>crop_type</t>
+  </si>
+  <si>
+    <t>Enter the id of the coordinator who verified the business.</t>
+  </si>
+  <si>
+    <t>Has the coordinator verified this business?</t>
+  </si>
+  <si>
+    <t>_.map(context, function(subsector){
+return { sector: subsector.sector_number, data_value:subsector.subsector_number, display: {title: {text:{"default":subsector.subsector_txt, "sw":subsector.subsector_txt_sw} } }};
 })</t>
   </si>
   <si>
-    <t>subvillages_list</t>
-  </si>
-  <si>
-    <t>veos_list</t>
-  </si>
-  <si>
-    <t>veo</t>
-  </si>
-  <si>
-    <t>DISTINCT(subvillage)</t>
-  </si>
-  <si>
-    <t>DISTINCT(veo)</t>
+    <t>choice_item.sector === data(sector_type)</t>
+  </si>
+  <si>
+    <t>end if</t>
+  </si>
+  <si>
+    <t>subsector.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -527,10 +695,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
@@ -540,7 +704,7 @@
       <name val="Menlo"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -551,6 +715,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFBDD7EE"/>
         <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -625,7 +801,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -653,9 +829,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -665,7 +838,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -674,6 +847,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="60">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -1140,24 +1315,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.69140625" customWidth="1"/>
+    <col min="2" max="2" width="11.3046875" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="20.4609375" customWidth="1"/>
+    <col min="5" max="5" width="25.15234375" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="8" width="53.5" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="7" max="8" width="53.4609375" customWidth="1"/>
+    <col min="9" max="9" width="14.3046875" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="31.83203125" customWidth="1"/>
-    <col min="12" max="1023" width="11.33203125" customWidth="1"/>
+    <col min="11" max="11" width="31.84375" customWidth="1"/>
+    <col min="12" max="1023" width="11.3046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1204,16 +1380,16 @@
     <row r="2" spans="1:13">
       <c r="A2" s="1"/>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="H2" s="2"/>
       <c r="L2" s="4"/>
@@ -1221,46 +1397,46 @@
     <row r="3" spans="1:13">
       <c r="A3" s="1"/>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="H3" s="2"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:13">
       <c r="D4" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="13" customHeight="1">
       <c r="D5" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K5" s="9"/>
     </row>
@@ -1272,93 +1448,90 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="12" customHeight="1">
       <c r="D7" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" t="s">
-        <v>41</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="20" customFormat="1">
+      <c r="D8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="19" customFormat="1">
+      <c r="B9" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="19" customFormat="1">
+      <c r="D10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="19" customFormat="1">
+      <c r="B11" s="19" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="D12" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>83</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1366,100 +1539,64 @@
         <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="D15" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1">
       <c r="D16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="4:7">
+      <c r="D17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7">
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="F16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="4:11">
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" t="s">
-        <v>108</v>
-      </c>
-      <c r="G17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="4:11">
-      <c r="D18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" t="s">
-        <v>75</v>
-      </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="G18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="4:11" ht="15" customHeight="1">
-      <c r="D19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="F19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" t="s">
-        <v>57</v>
-      </c>
-      <c r="K19" s="9"/>
-    </row>
-    <row r="20" spans="4:11">
-      <c r="D20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="4:11">
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" t="s">
-        <v>139</v>
-      </c>
-      <c r="G21" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1475,21 +1612,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="E52" sqref="A1:E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" customWidth="1"/>
-    <col min="4" max="1024" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.69140625" customWidth="1"/>
+    <col min="2" max="2" width="25.15234375" customWidth="1"/>
+    <col min="3" max="3" width="23.765625" customWidth="1"/>
+    <col min="4" max="4" width="18.3828125" customWidth="1"/>
+    <col min="5" max="1024" width="8.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.25" customHeight="1">
+    <row r="1" spans="1:4" ht="16.3" customHeight="1">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1499,247 +1637,620 @@
       <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1">
+      <c r="D1" s="18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1">
       <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" customHeight="1">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="12">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.05" customHeight="1">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="12">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.05" customHeight="1">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="12">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.05" customHeight="1">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="12">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.05" customHeight="1">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="12">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17.05" customHeight="1">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="12">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17.05" customHeight="1">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="12">
+        <v>8</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16" customHeight="1">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17.05" customHeight="1">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="10">
+        <v>1</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="19" customHeight="1">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="19" customHeight="1"/>
+    <row r="15" spans="1:4" ht="15" customHeight="1">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="16" customHeight="1">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17" customHeight="1">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="17" customHeight="1">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17" customHeight="1">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="17" customHeight="1">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="17" customHeight="1">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="17" customHeight="1">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17" customHeight="1">
-      <c r="C10" s="3"/>
-    </row>
-    <row r="12" spans="1:3" ht="16" customHeight="1">
-      <c r="A12" t="s">
+      <c r="B19" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="10">
-        <v>0</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17" customHeight="1">
-      <c r="A13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="10">
-        <v>1</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="19" customHeight="1">
-      <c r="A14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14">
-        <v>-1</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="C21" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="19" customHeight="1"/>
-    <row r="16" spans="1:3" ht="15" customHeight="1">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+    <row r="22" spans="1:4">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:3" ht="17">
-      <c r="A25" s="6"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-    </row>
-    <row r="26" spans="1:3" ht="17">
-      <c r="A26" s="6"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-    </row>
-    <row r="27" spans="1:3" ht="17">
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-    </row>
-    <row r="28" spans="1:3" ht="17">
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-    </row>
-    <row r="29" spans="1:3" ht="17">
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-    </row>
-    <row r="30" spans="1:3" ht="17">
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-    </row>
-    <row r="31" spans="1:3" ht="17">
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-    </row>
-    <row r="32" spans="1:3" ht="17">
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="6"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="6"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="6"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="6"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>195</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>195</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>195</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>195</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>195</v>
+      </c>
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>195</v>
+      </c>
+      <c r="B35">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>195</v>
+      </c>
+      <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>195</v>
+      </c>
+      <c r="B37">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>195</v>
+      </c>
+      <c r="B38">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>195</v>
+      </c>
+      <c r="B39">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>195</v>
+      </c>
+      <c r="B40">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>195</v>
+      </c>
+      <c r="B42">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>157</v>
+      </c>
+      <c r="D42" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>195</v>
+      </c>
+      <c r="B43">
+        <v>19</v>
+      </c>
+      <c r="C43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>195</v>
+      </c>
+      <c r="B44">
+        <v>20</v>
+      </c>
+      <c r="C44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>195</v>
+      </c>
+      <c r="B45">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>163</v>
+      </c>
+      <c r="D45" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>195</v>
+      </c>
+      <c r="B46">
+        <v>22</v>
+      </c>
+      <c r="C46" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>195</v>
+      </c>
+      <c r="B47">
+        <v>23</v>
+      </c>
+      <c r="C47" t="s">
+        <v>167</v>
+      </c>
+      <c r="D47" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>195</v>
+      </c>
+      <c r="B48">
+        <v>24</v>
+      </c>
+      <c r="C48" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>195</v>
+      </c>
+      <c r="B49">
+        <v>25</v>
+      </c>
+      <c r="C49" t="s">
+        <v>171</v>
+      </c>
+      <c r="D49" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>195</v>
+      </c>
+      <c r="B50">
+        <v>26</v>
+      </c>
+      <c r="C50" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>195</v>
+      </c>
+      <c r="B51">
+        <v>27</v>
+      </c>
+      <c r="C51" t="s">
+        <v>175</v>
+      </c>
+      <c r="D51" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52">
+        <v>28</v>
+      </c>
+      <c r="C52" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52" t="s">
+        <v>178</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1757,20 +2268,23 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45"/>
+  <cols>
+    <col min="5" max="5" width="14.61328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1781,19 +2295,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1808,474 +2322,238 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="54.5" customWidth="1"/>
-    <col min="5" max="5" width="27.83203125" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" customWidth="1"/>
-    <col min="7" max="7" width="27.5" customWidth="1"/>
-    <col min="8" max="8" width="43.1640625" customWidth="1"/>
-    <col min="9" max="9" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.15234375" customWidth="1"/>
+    <col min="3" max="3" width="13.921875" customWidth="1"/>
+    <col min="4" max="4" width="80.69140625" customWidth="1"/>
+    <col min="5" max="5" width="27.84375" customWidth="1"/>
+    <col min="6" max="6" width="35.69140625" customWidth="1"/>
+    <col min="7" max="7" width="27.4609375" customWidth="1"/>
+    <col min="8" max="8" width="43.15234375" customWidth="1"/>
+    <col min="9" max="9" width="26.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="75">
+    <row r="1" spans="1:12" ht="79.3">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.9">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.9">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.9">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.9">
+      <c r="A5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" t="s">
+        <v>119</v>
+      </c>
+      <c r="J5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" t="s">
+        <v>105</v>
+      </c>
+      <c r="L5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.9">
+      <c r="A6" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" t="s">
+        <v>120</v>
+      </c>
+      <c r="J6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" t="s">
+        <v>105</v>
+      </c>
+      <c r="L6" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="K1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-    </row>
-    <row r="14" spans="1:12" ht="15">
-      <c r="A14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14" t="s">
-        <v>127</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="I14" t="s">
-        <v>130</v>
-      </c>
-      <c r="J14" t="s">
-        <v>131</v>
-      </c>
-      <c r="K14" t="s">
-        <v>131</v>
-      </c>
-      <c r="L14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15">
-      <c r="A15" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" t="s">
-        <v>127</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="I15" t="s">
-        <v>138</v>
-      </c>
-      <c r="J15" t="s">
-        <v>131</v>
-      </c>
-      <c r="K15" t="s">
-        <v>131</v>
-      </c>
-      <c r="L15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15">
-      <c r="A16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B16" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16" t="s">
-        <v>127</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="I16" t="s">
-        <v>135</v>
-      </c>
-      <c r="J16" t="s">
-        <v>131</v>
-      </c>
-      <c r="K16" t="s">
-        <v>131</v>
-      </c>
-      <c r="L16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15">
-      <c r="A17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" t="s">
-        <v>127</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="I17" t="s">
-        <v>147</v>
-      </c>
-      <c r="J17" t="s">
-        <v>131</v>
-      </c>
-      <c r="K17" t="s">
-        <v>131</v>
-      </c>
-      <c r="L17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15">
-      <c r="A18" t="s">
-        <v>145</v>
-      </c>
-      <c r="B18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="I18" t="s">
-        <v>148</v>
-      </c>
-      <c r="J18" t="s">
-        <v>131</v>
-      </c>
-      <c r="K18" t="s">
-        <v>131</v>
-      </c>
-      <c r="L18" t="s">
-        <v>146</v>
+    </row>
+    <row r="8" spans="1:12" ht="84.9" customHeight="1">
+      <c r="A8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="K11:K13"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <extLst>
@@ -2294,12 +2572,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
-    <col min="4" max="1022" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.3046875" customWidth="1"/>
+    <col min="4" max="1022" width="11.3046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.75" customHeight="1">
@@ -2366,16 +2644,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:B21"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="1" max="1" width="26.15234375" customWidth="1"/>
+    <col min="2" max="2" width="29.4609375" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2392,7 +2670,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -2403,7 +2681,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -2423,7 +2701,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G5" s="6"/>
     </row>
@@ -2437,7 +2715,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -2445,50 +2723,50 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2496,7 +2774,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2504,7 +2782,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2512,49 +2790,65 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="6"/>
+        <v>84</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="6"/>
+        <v>43</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>139</v>
+      <c r="B23" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2576,26 +2870,26 @@
       <selection activeCell="A6" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="12.45"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.69140625" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:2">
-      <c r="A6" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="13">
-      <c r="A7" s="17" t="s">
-        <v>136</v>
+    <row r="7" spans="1:2">
+      <c r="A7" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/business/forms/business/business.xlsx
+++ b/app/config/tables/business/forms/business/business.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10920" yWindow="3463" windowWidth="25603" windowHeight="16063" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="10920" yWindow="3463" windowWidth="17880" windowHeight="7903" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -617,9 +617,6 @@
     <t>subsector_type_list</t>
   </si>
   <si>
-    <t>(data(sector_type) === 1 || data(sector_type) === 2)</t>
-  </si>
-  <si>
     <t>crop_type_list</t>
   </si>
   <si>
@@ -635,18 +632,23 @@
     <t>Has the coordinator verified this business?</t>
   </si>
   <si>
+    <t>end if</t>
+  </si>
+  <si>
+    <t>"subsector.csv"</t>
+  </si>
+  <si>
+    <t>(data('sector_type') === 1 || data('sector_type') === 2)</t>
+  </si>
+  <si>
+    <t>choice_item.sector_number == data('sector_type')</t>
+  </si>
+  <si>
     <t>_.map(context, function(subsector){
-return { sector: subsector.sector_number, data_value:subsector.subsector_number, display: {title: {text:{"default":subsector.subsector_txt, "sw":subsector.subsector_txt_sw} } }};
+subsector.data_value = subsector.subsector_number
+subsector.display = {title: {text:subsector.subsector_txt } };
+return subsector;
 })</t>
-  </si>
-  <si>
-    <t>choice_item.sector === data(sector_type)</t>
-  </si>
-  <si>
-    <t>end if</t>
-  </si>
-  <si>
-    <t>subsector.csv</t>
   </si>
 </sst>
 </file>
@@ -1317,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45"/>
@@ -1329,7 +1331,8 @@
     <col min="4" max="4" width="20.4609375" customWidth="1"/>
     <col min="5" max="5" width="25.15234375" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="8" width="53.4609375" customWidth="1"/>
+    <col min="7" max="7" width="53.4609375" customWidth="1"/>
+    <col min="8" max="8" width="16.921875" customWidth="1"/>
     <col min="9" max="9" width="14.3046875" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="31.84375" customWidth="1"/>
@@ -1479,7 +1482,7 @@
         <v>122</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1">
@@ -1487,7 +1490,7 @@
         <v>192</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="19" customFormat="1">
@@ -1495,18 +1498,18 @@
         <v>31</v>
       </c>
       <c r="E10" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="19" t="s">
         <v>195</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="19" customFormat="1">
       <c r="B11" s="19" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1542,7 +1545,7 @@
         <v>84</v>
       </c>
       <c r="G14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1556,7 +1559,7 @@
         <v>43</v>
       </c>
       <c r="G15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1">
@@ -1615,7 +1618,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="E52" sqref="A1:E52"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45"/>
@@ -1862,7 +1865,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1876,7 +1879,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -1890,7 +1893,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -1904,7 +1907,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -1918,7 +1921,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -1932,7 +1935,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B30">
         <v>6</v>
@@ -1946,7 +1949,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B31">
         <v>7</v>
@@ -1960,7 +1963,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B33">
         <v>9</v>
@@ -1988,7 +1991,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B34">
         <v>10</v>
@@ -2002,7 +2005,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B35">
         <v>11</v>
@@ -2016,7 +2019,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B36">
         <v>12</v>
@@ -2030,7 +2033,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B37">
         <v>13</v>
@@ -2044,7 +2047,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B38">
         <v>14</v>
@@ -2058,7 +2061,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B39">
         <v>15</v>
@@ -2072,7 +2075,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B40">
         <v>16</v>
@@ -2086,7 +2089,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B41">
         <v>17</v>
@@ -2100,7 +2103,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B42">
         <v>18</v>
@@ -2114,7 +2117,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B43">
         <v>19</v>
@@ -2128,7 +2131,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B44">
         <v>20</v>
@@ -2142,7 +2145,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B45">
         <v>21</v>
@@ -2156,7 +2159,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B46">
         <v>22</v>
@@ -2170,7 +2173,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B47">
         <v>23</v>
@@ -2184,7 +2187,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B48">
         <v>24</v>
@@ -2198,7 +2201,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B49">
         <v>25</v>
@@ -2212,7 +2215,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B50">
         <v>26</v>
@@ -2226,7 +2229,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B51">
         <v>27</v>
@@ -2240,7 +2243,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B52">
         <v>28</v>
@@ -2324,8 +2327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45"/>
@@ -2547,10 +2550,10 @@
         <v>62</v>
       </c>
       <c r="C8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>203</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2734,7 +2737,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:8">

--- a/app/config/tables/business/forms/business/business.xlsx
+++ b/app/config/tables/business/forms/business/business.xlsx
@@ -21,19 +21,11 @@
     <sheet name="prompt_types" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="224">
   <si>
     <t>comments</t>
   </si>
@@ -650,12 +642,72 @@
 return subsector;
 })</t>
   </si>
+  <si>
+    <t>Business Survey</t>
+  </si>
+  <si>
+    <t>Dodoso la biashara</t>
+  </si>
+  <si>
+    <t>Chagua Kata</t>
+  </si>
+  <si>
+    <t>Chagua Kijiji</t>
+  </si>
+  <si>
+    <t>Chagua kitongoji/Mtaa</t>
+  </si>
+  <si>
+    <t>Andika jina la biashara</t>
+  </si>
+  <si>
+    <t>Chagua sekta ya Biashara</t>
+  </si>
+  <si>
+    <t>display.prompt.text.sw</t>
+  </si>
+  <si>
+    <t>Andika mtandao wa simu wa namba ya pili ya biashara</t>
+  </si>
+  <si>
+    <t>Andika namba ya utambulisho ya mwandikishaji</t>
+  </si>
+  <si>
+    <t>Andika namba ya utambulisho ya mhakiki/msimamizi wa biashara</t>
+  </si>
+  <si>
+    <t>Je mwandikishaji ndiye aliyehakiki biashara?</t>
+  </si>
+  <si>
+    <t>Je ni mtendaji ndiye aliyehakiki biashara?</t>
+  </si>
+  <si>
+    <t>halotel</t>
+  </si>
+  <si>
+    <t>Halotel</t>
+  </si>
+  <si>
+    <t>Mwanamke</t>
+  </si>
+  <si>
+    <t>Mwanaume</t>
+  </si>
+  <si>
+    <t>Kweli</t>
+  </si>
+  <si>
+    <t>Sio kweli</t>
+  </si>
+  <si>
+    <t>Sina uhakika</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -705,6 +757,31 @@
       <sz val="9"/>
       <name val="Menlo"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -741,7 +818,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="60">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -802,8 +879,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -851,8 +929,59 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="60" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="60" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="60" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="60" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="60" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="60" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="60" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="60" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="60" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="60" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="60" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="60" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="60" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="60" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="60" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="60">
+  <cellStyles count="61">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -913,6 +1042,7 @@
     <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="60"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1317,10 +1447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD11"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45"/>
@@ -1331,15 +1461,16 @@
     <col min="4" max="4" width="20.4609375" customWidth="1"/>
     <col min="5" max="5" width="25.15234375" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="7" width="53.4609375" customWidth="1"/>
-    <col min="8" max="8" width="16.921875" customWidth="1"/>
-    <col min="9" max="9" width="14.3046875" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="31.84375" customWidth="1"/>
-    <col min="12" max="1023" width="11.3046875" customWidth="1"/>
+    <col min="7" max="7" width="46.4609375" customWidth="1"/>
+    <col min="8" max="8" width="52.23046875" customWidth="1"/>
+    <col min="9" max="9" width="16.921875" customWidth="1"/>
+    <col min="10" max="10" width="14.3046875" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="31.84375" customWidth="1"/>
+    <col min="13" max="1024" width="11.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1361,26 +1492,29 @@
       <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="1"/>
       <c r="D2" t="s">
         <v>110</v>
@@ -1394,10 +1528,13 @@
       <c r="G2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="H2" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.9">
       <c r="A3" s="1"/>
       <c r="D3" t="s">
         <v>110</v>
@@ -1411,10 +1548,13 @@
       <c r="G3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="H3" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.9">
       <c r="D4" t="s">
         <v>110</v>
       </c>
@@ -1427,8 +1567,11 @@
       <c r="G4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="13" customHeight="1">
+      <c r="H4" s="24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="13" customHeight="1">
       <c r="D5" t="s">
         <v>110</v>
       </c>
@@ -1441,9 +1584,12 @@
       <c r="G5" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="H5" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.9">
       <c r="D6" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1599,11 @@
       <c r="G6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="12" customHeight="1">
+      <c r="H6" s="26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="12" customHeight="1">
       <c r="D7" t="s">
         <v>31</v>
       </c>
@@ -1467,8 +1616,11 @@
       <c r="G7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" s="20" customFormat="1">
+      <c r="H7" s="27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="20" customFormat="1">
       <c r="D8" s="20" t="s">
         <v>31</v>
       </c>
@@ -1481,11 +1633,14 @@
       <c r="G8" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="H8" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="L8" s="20" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="19" customFormat="1">
+    <row r="9" spans="1:14" s="19" customFormat="1">
       <c r="B9" s="19" t="s">
         <v>192</v>
       </c>
@@ -1493,7 +1648,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="19" customFormat="1">
+    <row r="10" spans="1:14" s="19" customFormat="1">
       <c r="D10" s="19" t="s">
         <v>31</v>
       </c>
@@ -1506,13 +1661,16 @@
       <c r="G10" s="19" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" s="19" customFormat="1">
+      <c r="H10" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="19" customFormat="1">
       <c r="B11" s="19" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14" ht="15.9">
       <c r="D12" t="s">
         <v>13</v>
       </c>
@@ -1525,8 +1683,11 @@
       <c r="G12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="H12" s="31" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.9">
       <c r="D13" t="s">
         <v>23</v>
       </c>
@@ -1536,8 +1697,11 @@
       <c r="G13" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="H13" s="32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="D14" t="s">
         <v>23</v>
       </c>
@@ -1547,8 +1711,11 @@
       <c r="G14" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="H14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.9">
       <c r="D15" t="s">
         <v>31</v>
       </c>
@@ -1561,8 +1728,11 @@
       <c r="G15" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1">
+      <c r="H15" s="30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1">
       <c r="D16" t="s">
         <v>110</v>
       </c>
@@ -1575,9 +1745,12 @@
       <c r="G16" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="4:7">
+      <c r="H16" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="4:8" ht="15.9">
       <c r="D17" s="6" t="s">
         <v>31</v>
       </c>
@@ -1590,8 +1763,11 @@
       <c r="G17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="4:7">
+      <c r="H17" s="35" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" ht="31.75">
       <c r="D18" t="s">
         <v>23</v>
       </c>
@@ -1601,15 +1777,13 @@
       <c r="G18" t="s">
         <v>115</v>
       </c>
+      <c r="H18" s="36" t="s">
+        <v>214</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1618,7 +1792,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45"/>
@@ -1766,6 +1940,9 @@
       <c r="C11" s="11" t="s">
         <v>30</v>
       </c>
+      <c r="D11" s="37" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="17.05" customHeight="1">
       <c r="A12" t="s">
@@ -1777,6 +1954,9 @@
       <c r="C12" s="11" t="s">
         <v>29</v>
       </c>
+      <c r="D12" s="39" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="19" customHeight="1">
       <c r="A13" t="s">
@@ -1787,6 +1967,9 @@
       </c>
       <c r="C13" t="s">
         <v>66</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19" customHeight="1"/>
@@ -1800,8 +1983,11 @@
       <c r="C15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="D15" s="36" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.9">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1810,6 +1996,9 @@
       </c>
       <c r="C16" t="s">
         <v>40</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1821,10 +2010,10 @@
       <c r="A19" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="34" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1832,10 +2021,10 @@
       <c r="A20" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="34" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1843,17 +2032,23 @@
       <c r="A21" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="34" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="A22" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="6"/>
@@ -2258,11 +2453,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2569,10 +2759,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45"/>
@@ -2580,10 +2770,11 @@
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="28.3046875" customWidth="1"/>
-    <col min="4" max="1022" width="11.3046875" customWidth="1"/>
+    <col min="4" max="4" width="38.765625" customWidth="1"/>
+    <col min="5" max="1022" width="11.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.75" customHeight="1">
+    <row r="1" spans="1:4" ht="16.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -2593,16 +2784,25 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.75" customHeight="1">
+      <c r="D1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.75" customHeight="1">
+      <c r="C2" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -2610,7 +2810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.75" customHeight="1">
+    <row r="4" spans="1:4" ht="16.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2618,7 +2818,7 @@
         <v>20180703</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.75" customHeight="1">
+    <row r="5" spans="1:4" ht="16.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -2626,7 +2826,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2637,11 +2837,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 

--- a/app/config/tables/business/forms/business/business.xlsx
+++ b/app/config/tables/business/forms/business/business.xlsx
@@ -20,12 +20,12 @@
     <sheet name="model" sheetId="6" r:id="rId6"/>
     <sheet name="prompt_types" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="227">
   <si>
     <t>comments</t>
   </si>
@@ -396,174 +396,24 @@
     <t>Choose the subsector of the business</t>
   </si>
   <si>
-    <t>maize</t>
-  </si>
-  <si>
-    <t>mahindi</t>
-  </si>
-  <si>
-    <t>beans</t>
-  </si>
-  <si>
-    <t>maharage</t>
-  </si>
-  <si>
-    <t>field peas</t>
-  </si>
-  <si>
-    <t>mikunde</t>
-  </si>
-  <si>
-    <t>cow peas</t>
-  </si>
-  <si>
-    <t>njegere</t>
-  </si>
-  <si>
-    <t>green gram</t>
-  </si>
-  <si>
-    <t>choroko</t>
-  </si>
-  <si>
-    <t>groundnuts</t>
-  </si>
-  <si>
-    <t>karanga</t>
-  </si>
-  <si>
-    <t>sunflower</t>
-  </si>
-  <si>
-    <t>alizeti</t>
-  </si>
-  <si>
-    <t>sesame</t>
-  </si>
-  <si>
-    <t>ufuta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grapes </t>
-  </si>
-  <si>
-    <t>zabibu</t>
-  </si>
-  <si>
-    <t>greens</t>
-  </si>
-  <si>
-    <t>mboga za majani</t>
-  </si>
-  <si>
-    <t>fruits</t>
-  </si>
-  <si>
-    <t>matunda</t>
-  </si>
-  <si>
-    <t>vegetables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">viungo </t>
-  </si>
-  <si>
-    <t>cereals/legumes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nafaka </t>
-  </si>
-  <si>
-    <t>cash crops</t>
-  </si>
-  <si>
-    <t>mazao ya biashara</t>
-  </si>
-  <si>
-    <t>banana</t>
-  </si>
-  <si>
-    <t>ndizi</t>
-  </si>
-  <si>
-    <t>sugarcane</t>
-  </si>
-  <si>
-    <t>miwa</t>
-  </si>
-  <si>
     <t>Other crop</t>
   </si>
   <si>
-    <t>mazao nyingine</t>
-  </si>
-  <si>
-    <t>cow</t>
-  </si>
-  <si>
     <t>Ngo'mbe</t>
   </si>
   <si>
-    <t>donkey</t>
-  </si>
-  <si>
     <t>Punda</t>
   </si>
   <si>
-    <t>goat</t>
-  </si>
-  <si>
-    <t>mbuzi</t>
-  </si>
-  <si>
-    <t>sheep</t>
-  </si>
-  <si>
-    <t>kondoo</t>
-  </si>
-  <si>
-    <t>pig</t>
-  </si>
-  <si>
-    <t>nguruwe</t>
-  </si>
-  <si>
-    <t>fowl</t>
-  </si>
-  <si>
     <t>Ndege (Kuku/Bata)</t>
   </si>
   <si>
-    <t>rabbits</t>
-  </si>
-  <si>
-    <t>sungura</t>
-  </si>
-  <si>
-    <t>milk</t>
-  </si>
-  <si>
-    <t>maziwa</t>
-  </si>
-  <si>
-    <t>eggs</t>
-  </si>
-  <si>
-    <t>mayai</t>
-  </si>
-  <si>
-    <t>butchered meat</t>
-  </si>
-  <si>
     <t>Nyama iliyochinjwa</t>
   </si>
   <si>
     <t>Other livestock</t>
   </si>
   <si>
-    <t>mifugo nyingine</t>
-  </si>
-  <si>
     <t>display.title.text.sw</t>
   </si>
   <si>
@@ -628,9 +478,6 @@
   </si>
   <si>
     <t>"subsector.csv"</t>
-  </si>
-  <si>
-    <t>(data('sector_type') === 1 || data('sector_type') === 2)</t>
   </si>
   <si>
     <t>choice_item.sector_number == data('sector_type')</t>
@@ -701,6 +548,168 @@
   </si>
   <si>
     <t>Sina uhakika</t>
+  </si>
+  <si>
+    <t>Maize</t>
+  </si>
+  <si>
+    <t>Mahindi</t>
+  </si>
+  <si>
+    <t>Beans/legumes</t>
+  </si>
+  <si>
+    <t>Jamii maharage</t>
+  </si>
+  <si>
+    <t>Groundnuts</t>
+  </si>
+  <si>
+    <t>Karanga</t>
+  </si>
+  <si>
+    <t>Sunflower</t>
+  </si>
+  <si>
+    <t>Alizeti</t>
+  </si>
+  <si>
+    <t>Sesame</t>
+  </si>
+  <si>
+    <t>Ufuta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grapes </t>
+  </si>
+  <si>
+    <t>Zabibu</t>
+  </si>
+  <si>
+    <t>Fruits</t>
+  </si>
+  <si>
+    <t>Matunda</t>
+  </si>
+  <si>
+    <t>Vegetables</t>
+  </si>
+  <si>
+    <t>Viungo au mboga</t>
+  </si>
+  <si>
+    <t>Cereals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nafaka </t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>Ndizi</t>
+  </si>
+  <si>
+    <t>Sugarcane</t>
+  </si>
+  <si>
+    <t>Miwa</t>
+  </si>
+  <si>
+    <t>Charcoal</t>
+  </si>
+  <si>
+    <t>Mkaa</t>
+  </si>
+  <si>
+    <t>Forestry</t>
+  </si>
+  <si>
+    <t>Mazao ya misitu</t>
+  </si>
+  <si>
+    <t>Mazao nyingine</t>
+  </si>
+  <si>
+    <t>Cow</t>
+  </si>
+  <si>
+    <t>Donkey</t>
+  </si>
+  <si>
+    <t>Goat</t>
+  </si>
+  <si>
+    <t>Mbuzi</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>Kondoo</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>Nguruwe</t>
+  </si>
+  <si>
+    <t>Fowl</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Maziwa</t>
+  </si>
+  <si>
+    <t>Eggs</t>
+  </si>
+  <si>
+    <t>Mayai</t>
+  </si>
+  <si>
+    <t>Butchered meat</t>
+  </si>
+  <si>
+    <t>Fish/aquaculture</t>
+  </si>
+  <si>
+    <t>Ufugaji wa samaki</t>
+  </si>
+  <si>
+    <t>Mifugo nyingine</t>
+  </si>
+  <si>
+    <t>consent</t>
+  </si>
+  <si>
+    <t>business_owner_name</t>
+  </si>
+  <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Do you consent to participate?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the business owners name? </t>
+  </si>
+  <si>
+    <t>(data('sector_type') === 1 || data('sector_type') === 2 || data('sector_type') === 5)</t>
   </si>
 </sst>
 </file>
@@ -1447,10 +1456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45"/>
@@ -1493,7 +1502,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -1516,269 +1525,303 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1"/>
-      <c r="D2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>90</v>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>89</v>
+        <v>224</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>89</v>
+        <v>224</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.9">
+      <c r="M2" s="18"/>
+    </row>
+    <row r="3" spans="1:14" ht="12" customHeight="1">
       <c r="A3" s="1"/>
       <c r="D3" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>111</v>
+      <c r="E3" t="s">
+        <v>99</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>206</v>
+        <v>89</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>89</v>
       </c>
       <c r="I3" s="2"/>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="15.9">
+      <c r="A4" s="1"/>
       <c r="D4" t="s">
         <v>110</v>
       </c>
-      <c r="E4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="13" customHeight="1">
+      <c r="E4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.9">
       <c r="D5" t="s">
         <v>110</v>
       </c>
       <c r="E5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="13" customHeight="1">
+      <c r="D6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" t="s">
         <v>116</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
         <v>42</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G6" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.9">
-      <c r="D6" t="s">
+      <c r="H6" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.9">
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>33</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="12" customHeight="1">
-      <c r="D7" t="s">
+      <c r="H7" s="26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.9">
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="12" customHeight="1">
+      <c r="D9" t="s">
         <v>31</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E9" t="s">
         <v>45</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F9" t="s">
         <v>34</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G9" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="27" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="20" customFormat="1">
-      <c r="D8" s="20" t="s">
+      <c r="H9" s="27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="20" customFormat="1">
+      <c r="D10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="F8" s="20" t="s">
+      <c r="E10" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G10" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H10" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="L8" s="20" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="19" customFormat="1">
-      <c r="B9" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="19" customFormat="1">
-      <c r="D10" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>195</v>
+      <c r="L10" s="20" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="19" customFormat="1">
       <c r="B11" s="19" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.9">
-      <c r="D12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="19" customFormat="1">
+      <c r="D12" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="19" customFormat="1">
+      <c r="B13" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.9">
+      <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E14" t="s">
         <v>83</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F14" t="s">
         <v>81</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G14" t="s">
         <v>82</v>
       </c>
-      <c r="H12" s="31" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.9">
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" t="s">
-        <v>197</v>
-      </c>
-      <c r="H14" t="s">
-        <v>197</v>
+      <c r="H14" s="31" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.9">
       <c r="D15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s">
-        <v>198</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1">
+        <v>86</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="D16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="4:8" ht="15.9">
-      <c r="D17" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" ht="15.9">
+      <c r="D17" t="s">
         <v>31</v>
       </c>
       <c r="E17" t="s">
         <v>65</v>
       </c>
       <c r="F17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" t="s">
+        <v>148</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" ht="15" customHeight="1">
+      <c r="D18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="4:12" ht="15.9">
+      <c r="D19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" t="s">
         <v>46</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G19" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="35" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8" ht="31.75">
-      <c r="D18" t="s">
+      <c r="H19" s="35" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" ht="31.75">
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F20" t="s">
         <v>113</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G20" t="s">
         <v>115</v>
       </c>
-      <c r="H18" s="36" t="s">
-        <v>214</v>
+      <c r="H20" s="36" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1835,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D19" sqref="D18:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45"/>
@@ -1815,7 +1858,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
@@ -1826,10 +1869,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" customHeight="1">
@@ -1843,7 +1886,7 @@
         <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.05" customHeight="1">
@@ -1857,7 +1900,7 @@
         <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.05" customHeight="1">
@@ -1871,7 +1914,7 @@
         <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.05" customHeight="1">
@@ -1882,10 +1925,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.05" customHeight="1">
@@ -1896,10 +1939,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.05" customHeight="1">
@@ -1910,10 +1953,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="D8" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.05" customHeight="1">
@@ -1927,7 +1970,7 @@
         <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" customHeight="1">
@@ -1941,7 +1984,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.05" customHeight="1">
@@ -1955,7 +1998,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="19" customHeight="1">
@@ -1969,7 +2012,7 @@
         <v>66</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19" customHeight="1"/>
@@ -1983,8 +2026,8 @@
       <c r="C15" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="36" t="s">
-        <v>219</v>
+      <c r="D15" s="39" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.9">
@@ -1997,457 +2040,440 @@
       <c r="C16" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="19" customHeight="1"/>
+    <row r="18" spans="1:4" ht="15" customHeight="1">
+      <c r="A18" t="s">
+        <v>219</v>
+      </c>
+      <c r="B18" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="12" t="s">
+      <c r="C18" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" s="36"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.9">
+      <c r="A19" t="s">
+        <v>219</v>
+      </c>
+      <c r="B19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C19" t="s">
+        <v>223</v>
+      </c>
+      <c r="D19" s="36"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B22" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C22" s="34" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="12" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B23" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C23" s="34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="12" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B24" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C24" s="34" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="6" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="6"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>194</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" t="s">
-        <v>124</v>
+      <c r="B25" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>194</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" t="s">
-        <v>126</v>
-      </c>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>194</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" t="s">
-        <v>128</v>
-      </c>
+      <c r="A27" s="6"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="D28" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="D30" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="B31">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="D31" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="D32" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="D33" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="D34" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="B35">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="D35" t="s">
-        <v>144</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="B36">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="D36" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="B37">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="D37" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>193</v>
+      </c>
+      <c r="D38" t="s">
         <v>194</v>
-      </c>
-      <c r="B38">
-        <v>14</v>
-      </c>
-      <c r="C38" t="s">
-        <v>149</v>
-      </c>
-      <c r="D38" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="B39">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="D39" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="B40">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="D40" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="B41">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="D41" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="B42">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="D42" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="B43">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="D43" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="B44">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="D44" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="B45">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="D45" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="B46">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="D46" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="B47">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="D47" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="B48">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="D48" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="B49">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C49" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="D49" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="B50">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="D50" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="B51">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C51" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="D51" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="B52">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C52" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="D52" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2734,16 +2760,16 @@
     </row>
     <row r="8" spans="1:12" ht="84.9" customHeight="1">
       <c r="A8" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>203</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2785,7 +2811,7 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.75" customHeight="1">
@@ -2796,10 +2822,10 @@
         <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.75" customHeight="1">
@@ -2842,10 +2868,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45"/>
@@ -2864,22 +2890,19 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="B2" s="7" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -2889,34 +2912,37 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="6"/>
+      <c r="B4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2924,7 +2950,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2932,55 +2958,55 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2988,7 +3014,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2996,7 +3022,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3004,48 +3030,64 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="6"/>
+        <v>84</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="6"/>
+        <v>43</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>113</v>
       </c>
     </row>

--- a/app/config/tables/business/forms/business/business.xlsx
+++ b/app/config/tables/business/forms/business/business.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eKichabi\app-designer\app\config\tables\business\forms\business\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10920" yWindow="3463" windowWidth="17880" windowHeight="7903" tabRatio="500"/>
+    <workbookView xWindow="580" yWindow="0" windowWidth="33640" windowHeight="20720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -20,12 +15,17 @@
     <sheet name="model" sheetId="6" r:id="rId6"/>
     <sheet name="prompt_types" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="310">
   <si>
     <t>comments</t>
   </si>
@@ -138,9 +138,6 @@
     <t>gender</t>
   </si>
   <si>
-    <t>male_female</t>
-  </si>
-  <si>
     <t>firm_size</t>
   </si>
   <si>
@@ -156,9 +153,6 @@
     <t>subvillage</t>
   </si>
   <si>
-    <t>has_been_verified_by_agent</t>
-  </si>
-  <si>
     <t>authorization_veo</t>
   </si>
   <si>
@@ -177,9 +171,6 @@
     <t>Choose the village.</t>
   </si>
   <si>
-    <t>Choose the subvillage.</t>
-  </si>
-  <si>
     <t>Enter the name of the authorizing VEO.</t>
   </si>
   <si>
@@ -357,9 +348,6 @@
     <t>DISTINCT(village)</t>
   </si>
   <si>
-    <t>select_one_group_by</t>
-  </si>
-  <si>
     <t>ward_group_by</t>
   </si>
   <si>
@@ -396,9 +384,6 @@
     <t>Choose the subsector of the business</t>
   </si>
   <si>
-    <t>Other crop</t>
-  </si>
-  <si>
     <t>Ngo'mbe</t>
   </si>
   <si>
@@ -411,9 +396,6 @@
     <t>Nyama iliyochinjwa</t>
   </si>
   <si>
-    <t>Other livestock</t>
-  </si>
-  <si>
     <t>display.title.text.sw</t>
   </si>
   <si>
@@ -478,9 +460,6 @@
   </si>
   <si>
     <t>"subsector.csv"</t>
-  </si>
-  <si>
-    <t>choice_item.sector_number == data('sector_type')</t>
   </si>
   <si>
     <t>_.map(context, function(subsector){
@@ -496,15 +475,9 @@
     <t>Dodoso la biashara</t>
   </si>
   <si>
-    <t>Chagua Kata</t>
-  </si>
-  <si>
     <t>Chagua Kijiji</t>
   </si>
   <si>
-    <t>Chagua kitongoji/Mtaa</t>
-  </si>
-  <si>
     <t>Andika jina la biashara</t>
   </si>
   <si>
@@ -550,138 +523,6 @@
     <t>Sina uhakika</t>
   </si>
   <si>
-    <t>Maize</t>
-  </si>
-  <si>
-    <t>Mahindi</t>
-  </si>
-  <si>
-    <t>Beans/legumes</t>
-  </si>
-  <si>
-    <t>Jamii maharage</t>
-  </si>
-  <si>
-    <t>Groundnuts</t>
-  </si>
-  <si>
-    <t>Karanga</t>
-  </si>
-  <si>
-    <t>Sunflower</t>
-  </si>
-  <si>
-    <t>Alizeti</t>
-  </si>
-  <si>
-    <t>Sesame</t>
-  </si>
-  <si>
-    <t>Ufuta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grapes </t>
-  </si>
-  <si>
-    <t>Zabibu</t>
-  </si>
-  <si>
-    <t>Fruits</t>
-  </si>
-  <si>
-    <t>Matunda</t>
-  </si>
-  <si>
-    <t>Vegetables</t>
-  </si>
-  <si>
-    <t>Viungo au mboga</t>
-  </si>
-  <si>
-    <t>Cereals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nafaka </t>
-  </si>
-  <si>
-    <t>Banana</t>
-  </si>
-  <si>
-    <t>Ndizi</t>
-  </si>
-  <si>
-    <t>Sugarcane</t>
-  </si>
-  <si>
-    <t>Miwa</t>
-  </si>
-  <si>
-    <t>Charcoal</t>
-  </si>
-  <si>
-    <t>Mkaa</t>
-  </si>
-  <si>
-    <t>Forestry</t>
-  </si>
-  <si>
-    <t>Mazao ya misitu</t>
-  </si>
-  <si>
-    <t>Mazao nyingine</t>
-  </si>
-  <si>
-    <t>Cow</t>
-  </si>
-  <si>
-    <t>Donkey</t>
-  </si>
-  <si>
-    <t>Goat</t>
-  </si>
-  <si>
-    <t>Mbuzi</t>
-  </si>
-  <si>
-    <t>Sheep</t>
-  </si>
-  <si>
-    <t>Kondoo</t>
-  </si>
-  <si>
-    <t>Pig</t>
-  </si>
-  <si>
-    <t>Nguruwe</t>
-  </si>
-  <si>
-    <t>Fowl</t>
-  </si>
-  <si>
-    <t>Milk</t>
-  </si>
-  <si>
-    <t>Maziwa</t>
-  </si>
-  <si>
-    <t>Eggs</t>
-  </si>
-  <si>
-    <t>Mayai</t>
-  </si>
-  <si>
-    <t>Butchered meat</t>
-  </si>
-  <si>
-    <t>Fish/aquaculture</t>
-  </si>
-  <si>
-    <t>Ufugaji wa samaki</t>
-  </si>
-  <si>
-    <t>Mifugo nyingine</t>
-  </si>
-  <si>
     <t>consent</t>
   </si>
   <si>
@@ -710,13 +551,421 @@
   </si>
   <si>
     <t>(data('sector_type') === 1 || data('sector_type') === 2 || data('sector_type') === 5)</t>
+  </si>
+  <si>
+    <t>select_one_unique</t>
+  </si>
+  <si>
+    <t>select_one_with_other</t>
+  </si>
+  <si>
+    <t>select_multiple</t>
+  </si>
+  <si>
+    <t>other_crop</t>
+  </si>
+  <si>
+    <t>acknowledge</t>
+  </si>
+  <si>
+    <t>decline_business_owner_age</t>
+  </si>
+  <si>
+    <t>decline_gender</t>
+  </si>
+  <si>
+    <t>has_secondary_phone_number</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>authorization_date</t>
+  </si>
+  <si>
+    <t>verification_date</t>
+  </si>
+  <si>
+    <t>enrollment_date</t>
+  </si>
+  <si>
+    <t>trading_sales</t>
+  </si>
+  <si>
+    <t>merchant_retail</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>hiring_and_labor</t>
+  </si>
+  <si>
+    <t>agricultural_processing</t>
+  </si>
+  <si>
+    <t>repairs_technicians</t>
+  </si>
+  <si>
+    <t>non_agricultural_services</t>
+  </si>
+  <si>
+    <t>financial_services</t>
+  </si>
+  <si>
+    <t>sw:Yes</t>
+  </si>
+  <si>
+    <t>sw:No</t>
+  </si>
+  <si>
+    <t>maize</t>
+  </si>
+  <si>
+    <t>mahindi</t>
+  </si>
+  <si>
+    <t>beans</t>
+  </si>
+  <si>
+    <t>maharage</t>
+  </si>
+  <si>
+    <t>field_peas</t>
+  </si>
+  <si>
+    <t>field peas</t>
+  </si>
+  <si>
+    <t>mikunde</t>
+  </si>
+  <si>
+    <t>cow_peas</t>
+  </si>
+  <si>
+    <t>cow peas</t>
+  </si>
+  <si>
+    <t>njegere</t>
+  </si>
+  <si>
+    <t>green_gram</t>
+  </si>
+  <si>
+    <t>green gram</t>
+  </si>
+  <si>
+    <t>choroko</t>
+  </si>
+  <si>
+    <t>groundnuts</t>
+  </si>
+  <si>
+    <t>karanga</t>
+  </si>
+  <si>
+    <t>sunflower</t>
+  </si>
+  <si>
+    <t>alizeti</t>
+  </si>
+  <si>
+    <t>sesame</t>
+  </si>
+  <si>
+    <t>ufuta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grapes </t>
+  </si>
+  <si>
+    <t>zabibu</t>
+  </si>
+  <si>
+    <t>greens</t>
+  </si>
+  <si>
+    <t>mboga za majani</t>
+  </si>
+  <si>
+    <t>fruits</t>
+  </si>
+  <si>
+    <t>matunda</t>
+  </si>
+  <si>
+    <t>vegetables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">viungo </t>
+  </si>
+  <si>
+    <t>cereals_legumes</t>
+  </si>
+  <si>
+    <t>cereals/legumes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nafaka </t>
+  </si>
+  <si>
+    <t>cash crops</t>
+  </si>
+  <si>
+    <t>mazao ya biashara</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>ndizi</t>
+  </si>
+  <si>
+    <t>sugarcane</t>
+  </si>
+  <si>
+    <t>miwa</t>
+  </si>
+  <si>
+    <t>cow</t>
+  </si>
+  <si>
+    <t>donkey</t>
+  </si>
+  <si>
+    <t>goat</t>
+  </si>
+  <si>
+    <t>mbuzi</t>
+  </si>
+  <si>
+    <t>sheep</t>
+  </si>
+  <si>
+    <t>kondoo</t>
+  </si>
+  <si>
+    <t>pig</t>
+  </si>
+  <si>
+    <t>nguruwe</t>
+  </si>
+  <si>
+    <t>fowl</t>
+  </si>
+  <si>
+    <t>rabbits</t>
+  </si>
+  <si>
+    <t>sungura</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>maziwa</t>
+  </si>
+  <si>
+    <t>eggs</t>
+  </si>
+  <si>
+    <t>mayai</t>
+  </si>
+  <si>
+    <t>butchered_meat</t>
+  </si>
+  <si>
+    <t>butchered meat</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>sw:Other</t>
+  </si>
+  <si>
+    <t>sw:Do you consent to participate?</t>
+  </si>
+  <si>
+    <t>(data('consent') === 'yes')</t>
+  </si>
+  <si>
+    <t>sw:Choose the district.</t>
+  </si>
+  <si>
+    <t>sw:Choose the ward.</t>
+  </si>
+  <si>
+    <t>sw:Choose the subsector of the business</t>
+  </si>
+  <si>
+    <t>sw:Do you specialize in a specifc crop?</t>
+  </si>
+  <si>
+    <t>(selected('crop_type', 'other'))</t>
+  </si>
+  <si>
+    <t>What is the other crop?</t>
+  </si>
+  <si>
+    <t>sw:What is the other crop?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sw:What is the business owners name? </t>
+  </si>
+  <si>
+    <t>begin screen</t>
+  </si>
+  <si>
+    <t>What is the age of the business owner?</t>
+  </si>
+  <si>
+    <t>Umri wa mmiliki wa baiashara(Miaka)</t>
+  </si>
+  <si>
+    <t>Prefer not to answer.</t>
+  </si>
+  <si>
+    <t>sw:Prefer not to answer.</t>
+  </si>
+  <si>
+    <t>end screen</t>
+  </si>
+  <si>
+    <t>What is the gender of the business owner?</t>
+  </si>
+  <si>
+    <t>Jinsia ya mmiliki wa biashara</t>
+  </si>
+  <si>
+    <t>What is the size of the firm (number of paid employees, including the owner)?</t>
+  </si>
+  <si>
+    <t>sw:What is the size of the firm (number of paid employees, including the owner)?</t>
+  </si>
+  <si>
+    <t>Enter the phone number for the business.</t>
+  </si>
+  <si>
+    <t>Andika namba ya simu  ya biashara</t>
+  </si>
+  <si>
+    <t>Enter the network for the phone number.</t>
+  </si>
+  <si>
+    <t>sw:Enter the network for the phone number.</t>
+  </si>
+  <si>
+    <t>Is there a secondary phone number for the business?</t>
+  </si>
+  <si>
+    <t>sw:Is there a secondary phone number for the business?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if </t>
+  </si>
+  <si>
+    <t>selected('has_secondary_phone_number', 'yes')</t>
+  </si>
+  <si>
+    <t>Enter the secondary phone number.</t>
+  </si>
+  <si>
+    <t>Andika namba ya pili ya simu ya biashara</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>decline_note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank you for your time.  </t>
+  </si>
+  <si>
+    <t>Choose the subvillage</t>
+  </si>
+  <si>
+    <t>sw:Choose the subvillage</t>
+  </si>
+  <si>
+    <t>subvillage_list</t>
+  </si>
+  <si>
+    <t>Subvillage12</t>
+  </si>
+  <si>
+    <t>Subvillage11</t>
+  </si>
+  <si>
+    <t>Subvillage31</t>
+  </si>
+  <si>
+    <t>Subvillage41</t>
+  </si>
+  <si>
+    <t>sw:Subvillage12</t>
+  </si>
+  <si>
+    <t>sw:Subvillage11</t>
+  </si>
+  <si>
+    <t>sw:Subvillage31</t>
+  </si>
+  <si>
+    <t>sw:Subvillage41</t>
+  </si>
+  <si>
+    <t>Enter the authorization date</t>
+  </si>
+  <si>
+    <t>sw:Enter the authorization date</t>
+  </si>
+  <si>
+    <t>Enter the verification date</t>
+  </si>
+  <si>
+    <t>sw:Enter the verification date</t>
+  </si>
+  <si>
+    <t>Enter the enrollment date</t>
+  </si>
+  <si>
+    <t>sw:Enter the enrollment date</t>
+  </si>
+  <si>
+    <t>has_been_verified_by_coordinator</t>
+  </si>
+  <si>
+    <t>Enter the age of the business.</t>
+  </si>
+  <si>
+    <t>sw:Enter the age of the business.</t>
+  </si>
+  <si>
+    <t>male_female_no</t>
+  </si>
+  <si>
+    <t>no_answer</t>
+  </si>
+  <si>
+    <t>Prefer not to answer</t>
+  </si>
+  <si>
+    <t>sw:Prefer not to answer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -788,8 +1037,8 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -813,7 +1062,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,7 +1076,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -889,8 +1138,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -936,10 +1203,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="60" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="60" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="60" applyAlignment="1">
@@ -954,43 +1223,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="60" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="60" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="60" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="60" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="60" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="60" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="60" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="60" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="60" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="60" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="60" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="60" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="60" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="60" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="79">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -1021,6 +1281,15 @@
     <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1050,6 +1319,15 @@
     <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="60"/>
   </cellStyles>
@@ -1456,27 +1734,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.69140625" customWidth="1"/>
-    <col min="2" max="2" width="11.3046875" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="20.4609375" customWidth="1"/>
-    <col min="5" max="5" width="25.15234375" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="7" width="46.4609375" customWidth="1"/>
-    <col min="8" max="8" width="52.23046875" customWidth="1"/>
-    <col min="9" max="9" width="16.921875" customWidth="1"/>
-    <col min="10" max="10" width="14.3046875" customWidth="1"/>
+    <col min="7" max="7" width="46.5" customWidth="1"/>
+    <col min="8" max="8" width="52.1640625" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="31.84375" customWidth="1"/>
-    <col min="13" max="1024" width="11.3046875" customWidth="1"/>
+    <col min="12" max="12" width="31.83203125" customWidth="1"/>
+    <col min="13" max="1024" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1502,7 +1780,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -1523,331 +1801,853 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1"/>
-      <c r="D2" s="2" t="s">
+    <row r="2" spans="1:14" s="29" customFormat="1">
+      <c r="A2" s="28"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>217</v>
+      <c r="E2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="M2" s="18"/>
-    </row>
-    <row r="3" spans="1:14" ht="12" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="D3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.9">
-      <c r="A4" s="1"/>
-      <c r="D4" t="s">
-        <v>110</v>
+        <v>171</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="M2" s="32"/>
+    </row>
+    <row r="3" spans="1:14" s="29" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="28"/>
+      <c r="B3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="M3" s="32"/>
+    </row>
+    <row r="4" spans="1:14" s="29" customFormat="1">
+      <c r="A4" s="28"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>87</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="M4" s="32"/>
+    </row>
+    <row r="5" spans="1:14" s="29" customFormat="1">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" s="29" customFormat="1" ht="13" customHeight="1">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="33"/>
+    </row>
+    <row r="7" spans="1:14" s="29" customFormat="1" ht="13" customHeight="1">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="33"/>
+    </row>
+    <row r="8" spans="1:14" s="29" customFormat="1">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" s="29" customFormat="1">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" s="29" customFormat="1" ht="12" customHeight="1">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+    </row>
+    <row r="11" spans="1:14" s="29" customFormat="1">
+      <c r="B11" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+    </row>
+    <row r="12" spans="1:14" s="29" customFormat="1">
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+    </row>
+    <row r="13" spans="1:14" s="29" customFormat="1">
+      <c r="B13" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+    </row>
+    <row r="14" spans="1:14" s="29" customFormat="1">
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+    </row>
+    <row r="15" spans="1:14" s="29" customFormat="1">
+      <c r="B15" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+    </row>
+    <row r="16" spans="1:14" s="29" customFormat="1">
+      <c r="B16" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="2:11" ht="24">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="H25" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="H31" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="B37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="39" spans="2:12" ht="15">
+      <c r="D39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" t="s">
+        <v>83</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="D40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" t="s">
+        <v>81</v>
+      </c>
+      <c r="G40" t="s">
+        <v>141</v>
+      </c>
+      <c r="H40" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" ht="15">
+      <c r="D41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" t="s">
+        <v>303</v>
+      </c>
+      <c r="G41" t="s">
+        <v>142</v>
+      </c>
+      <c r="H41" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.9">
-      <c r="D5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="24" t="s">
+    </row>
+    <row r="42" spans="2:12" ht="15" customHeight="1">
+      <c r="D42" t="s">
+        <v>174</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" t="s">
+        <v>48</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="L42" s="9"/>
+    </row>
+    <row r="43" spans="2:12" ht="15">
+      <c r="D43" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G43" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" s="25" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="13" customHeight="1">
-      <c r="D6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.9">
-      <c r="D7" t="s">
+    <row r="44" spans="2:12" ht="30">
+      <c r="D44" t="s">
         <v>23</v>
       </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.9">
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G8" t="s">
-        <v>225</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="12" customHeight="1">
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="20" customFormat="1">
-      <c r="D10" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="19" customFormat="1">
-      <c r="B11" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="19" customFormat="1">
-      <c r="D12" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="19" customFormat="1">
-      <c r="B13" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.9">
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.9">
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" t="s">
-        <v>86</v>
-      </c>
-      <c r="H15" s="32" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" t="s">
-        <v>147</v>
-      </c>
-      <c r="H16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="4:12" ht="15.9">
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" t="s">
-        <v>148</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="4:12" ht="15" customHeight="1">
-      <c r="D18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="4:12" ht="15.9">
-      <c r="D19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="35" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="4:12" ht="31.75">
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="36" t="s">
-        <v>163</v>
+      <c r="F44" t="s">
+        <v>109</v>
+      </c>
+      <c r="G44" t="s">
+        <v>111</v>
+      </c>
+      <c r="H44" s="26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12">
+      <c r="D45" t="s">
+        <v>182</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G45" t="s">
+        <v>297</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12">
+      <c r="D46" t="s">
+        <v>182</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G46" t="s">
+        <v>299</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12">
+      <c r="D47" t="s">
+        <v>182</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G47" t="s">
+        <v>301</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8">
+      <c r="D49" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G49" t="s">
+        <v>304</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D19" sqref="D18:D19"/>
+    <sheetView topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.69140625" customWidth="1"/>
-    <col min="2" max="2" width="25.15234375" customWidth="1"/>
-    <col min="3" max="3" width="23.765625" customWidth="1"/>
-    <col min="4" max="4" width="18.3828125" customWidth="1"/>
-    <col min="5" max="1024" width="8.69140625" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="1024" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.3" customHeight="1">
+    <row r="1" spans="1:4" ht="16.25" customHeight="1">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1858,124 +2658,124 @@
         <v>6</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
       <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="12">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>186</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" customHeight="1">
       <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="12">
-        <v>2</v>
+        <v>43</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" customHeight="1">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" customHeight="1">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" customHeight="1">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" customHeight="1">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" customHeight="1">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" customHeight="1">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17.05" customHeight="1">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="12">
-        <v>3</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17.05" customHeight="1">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="12">
-        <v>4</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17.05" customHeight="1">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="12">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D9" t="s">
         <v>135</v>
-      </c>
-      <c r="D6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.05" customHeight="1">
-      <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="12">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17.05" customHeight="1">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="12">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17.05" customHeight="1">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="12">
-        <v>8</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" customHeight="1">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B11" s="10">
         <v>0</v>
@@ -1983,13 +2783,13 @@
       <c r="C11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="37" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17.05" customHeight="1">
+      <c r="D11" s="27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" customHeight="1">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B12" s="10">
         <v>1</v>
@@ -1997,488 +2797,594 @@
       <c r="C12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="39" t="s">
-        <v>170</v>
+      <c r="D12" s="17" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="19" customHeight="1">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B13">
         <v>-1</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>172</v>
+        <v>63</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19" customHeight="1"/>
     <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>306</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>306</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D16" s="17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>306</v>
+      </c>
+      <c r="B17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C17" t="s">
+        <v>308</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="19" customHeight="1"/>
+    <row r="19" spans="1:4" ht="15" customHeight="1">
+      <c r="A19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.9">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="39" t="s">
+      <c r="D19" s="19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="19" customHeight="1"/>
-    <row r="18" spans="1:4" ht="15" customHeight="1">
-      <c r="A18" t="s">
-        <v>219</v>
-      </c>
-      <c r="B18" t="s">
-        <v>220</v>
-      </c>
-      <c r="C18" t="s">
-        <v>221</v>
-      </c>
-      <c r="D18" s="36"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.9">
-      <c r="A19" t="s">
-        <v>219</v>
-      </c>
-      <c r="B19" t="s">
-        <v>222</v>
-      </c>
-      <c r="C19" t="s">
-        <v>223</v>
-      </c>
-      <c r="D19" s="36"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="C20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>72</v>
+        <v>80</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>74</v>
+        <v>80</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>76</v>
+        <v>80</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="6"/>
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>144</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
+        <v>138</v>
+      </c>
+      <c r="B28" t="s">
+        <v>196</v>
       </c>
       <c r="C28" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="D28" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>144</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
+        <v>138</v>
+      </c>
+      <c r="B29" t="s">
+        <v>198</v>
       </c>
       <c r="C29" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="D29" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>144</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
+        <v>138</v>
+      </c>
+      <c r="B30" t="s">
+        <v>200</v>
       </c>
       <c r="C30" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="D30" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>144</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
+        <v>138</v>
+      </c>
+      <c r="B31" t="s">
+        <v>203</v>
       </c>
       <c r="C31" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="D31" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>144</v>
-      </c>
-      <c r="B32">
-        <v>5</v>
+        <v>138</v>
+      </c>
+      <c r="B32" t="s">
+        <v>206</v>
       </c>
       <c r="C32" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="D32" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>144</v>
-      </c>
-      <c r="B33">
-        <v>6</v>
+        <v>138</v>
+      </c>
+      <c r="B33" t="s">
+        <v>209</v>
       </c>
       <c r="C33" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="D33" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>144</v>
-      </c>
-      <c r="B34">
-        <v>7</v>
+        <v>138</v>
+      </c>
+      <c r="B34" t="s">
+        <v>211</v>
       </c>
       <c r="C34" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="D34" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>144</v>
-      </c>
-      <c r="B35">
-        <v>8</v>
+        <v>138</v>
+      </c>
+      <c r="B35" t="s">
+        <v>213</v>
       </c>
       <c r="C35" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="D35" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>144</v>
-      </c>
-      <c r="B36">
-        <v>9</v>
+        <v>138</v>
+      </c>
+      <c r="B36" t="s">
+        <v>215</v>
       </c>
       <c r="C36" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="D36" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>144</v>
-      </c>
-      <c r="B37">
-        <v>10</v>
+        <v>138</v>
+      </c>
+      <c r="B37" t="s">
+        <v>217</v>
       </c>
       <c r="C37" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="D37" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>144</v>
-      </c>
-      <c r="B38">
-        <v>11</v>
+        <v>138</v>
+      </c>
+      <c r="B38" t="s">
+        <v>219</v>
       </c>
       <c r="C38" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D38" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>144</v>
-      </c>
-      <c r="B39">
-        <v>12</v>
+        <v>138</v>
+      </c>
+      <c r="B39" t="s">
+        <v>221</v>
       </c>
       <c r="C39" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="D39" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>144</v>
-      </c>
-      <c r="B40">
-        <v>13</v>
+        <v>138</v>
+      </c>
+      <c r="B40" t="s">
+        <v>223</v>
       </c>
       <c r="C40" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="D40" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>144</v>
-      </c>
-      <c r="B41">
-        <v>14</v>
+        <v>138</v>
+      </c>
+      <c r="B41" t="s">
+        <v>226</v>
       </c>
       <c r="C41" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="D41" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>144</v>
-      </c>
-      <c r="B42">
-        <v>15</v>
+        <v>138</v>
+      </c>
+      <c r="B42" t="s">
+        <v>228</v>
       </c>
       <c r="C42" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="D42" t="s">
-        <v>124</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>144</v>
-      </c>
-      <c r="B43">
-        <v>16</v>
+        <v>138</v>
+      </c>
+      <c r="B43" t="s">
+        <v>230</v>
       </c>
       <c r="C43" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="D43" t="s">
-        <v>125</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>144</v>
-      </c>
-      <c r="B44">
-        <v>17</v>
+        <v>138</v>
+      </c>
+      <c r="B44" t="s">
+        <v>232</v>
       </c>
       <c r="C44" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="D44" t="s">
-        <v>203</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>144</v>
-      </c>
-      <c r="B45">
-        <v>18</v>
+        <v>138</v>
+      </c>
+      <c r="B45" t="s">
+        <v>233</v>
       </c>
       <c r="C45" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="D45" t="s">
-        <v>205</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>144</v>
-      </c>
-      <c r="B46">
-        <v>19</v>
+        <v>138</v>
+      </c>
+      <c r="B46" t="s">
+        <v>234</v>
       </c>
       <c r="C46" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="D46" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>144</v>
-      </c>
-      <c r="B47">
-        <v>20</v>
+        <v>138</v>
+      </c>
+      <c r="B47" t="s">
+        <v>236</v>
       </c>
       <c r="C47" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="D47" t="s">
-        <v>126</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>144</v>
-      </c>
-      <c r="B48">
-        <v>21</v>
+        <v>138</v>
+      </c>
+      <c r="B48" t="s">
+        <v>238</v>
       </c>
       <c r="C48" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="D48" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>144</v>
-      </c>
-      <c r="B49">
-        <v>22</v>
+        <v>138</v>
+      </c>
+      <c r="B49" t="s">
+        <v>240</v>
       </c>
       <c r="C49" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="D49" t="s">
-        <v>212</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>144</v>
-      </c>
-      <c r="B50">
-        <v>23</v>
+        <v>138</v>
+      </c>
+      <c r="B50" t="s">
+        <v>241</v>
       </c>
       <c r="C50" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="D50" t="s">
-        <v>127</v>
+        <v>242</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>144</v>
-      </c>
-      <c r="B51">
-        <v>24</v>
+        <v>138</v>
+      </c>
+      <c r="B51" t="s">
+        <v>243</v>
       </c>
       <c r="C51" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="D51" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>144</v>
-      </c>
-      <c r="B52">
-        <v>25</v>
+        <v>138</v>
+      </c>
+      <c r="B52" t="s">
+        <v>245</v>
       </c>
       <c r="C52" t="s">
-        <v>128</v>
+        <v>245</v>
       </c>
       <c r="D52" t="s">
-        <v>216</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" t="s">
+        <v>247</v>
+      </c>
+      <c r="C53" t="s">
+        <v>248</v>
+      </c>
+      <c r="D53" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" t="s">
+        <v>249</v>
+      </c>
+      <c r="C54" t="s">
+        <v>250</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>288</v>
+      </c>
+      <c r="B59" t="s">
+        <v>289</v>
+      </c>
+      <c r="C59" t="s">
+        <v>289</v>
+      </c>
+      <c r="D59" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>288</v>
+      </c>
+      <c r="B60" t="s">
+        <v>290</v>
+      </c>
+      <c r="C60" t="s">
+        <v>290</v>
+      </c>
+      <c r="D60" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>288</v>
+      </c>
+      <c r="B61" t="s">
+        <v>291</v>
+      </c>
+      <c r="C61" t="s">
+        <v>291</v>
+      </c>
+      <c r="D61" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>288</v>
+      </c>
+      <c r="B62" t="s">
+        <v>292</v>
+      </c>
+      <c r="C62" t="s">
+        <v>292</v>
+      </c>
+      <c r="D62" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2490,20 +3396,20 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="5" max="5" width="14.61328125" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2514,19 +3420,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
         <v>55</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
         <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2547,229 +3453,229 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="23.15234375" customWidth="1"/>
-    <col min="3" max="3" width="13.921875" customWidth="1"/>
-    <col min="4" max="4" width="80.69140625" customWidth="1"/>
-    <col min="5" max="5" width="27.84375" customWidth="1"/>
-    <col min="6" max="6" width="35.69140625" customWidth="1"/>
-    <col min="7" max="7" width="27.4609375" customWidth="1"/>
-    <col min="8" max="8" width="43.15234375" customWidth="1"/>
-    <col min="9" max="9" width="26.15234375" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="80.6640625" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" customWidth="1"/>
+    <col min="7" max="7" width="27.5" customWidth="1"/>
+    <col min="8" max="8" width="43.1640625" customWidth="1"/>
+    <col min="9" max="9" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="79.3">
+    <row r="1" spans="1:12" ht="75">
       <c r="A1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="E1" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="K1" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="13" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="15">
+      <c r="A2" t="s">
         <v>96</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B2" t="s">
         <v>97</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="E2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.9">
-      <c r="A2" t="s">
+      <c r="F2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H2" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>101</v>
       </c>
-      <c r="F2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" s="14" t="s">
+      <c r="J2" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="K2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15">
+      <c r="A4" t="s">
         <v>103</v>
       </c>
-      <c r="I2" t="s">
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="J2" t="s">
+      <c r="H4" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="K2" t="s">
-        <v>105</v>
-      </c>
-      <c r="L2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.9">
-      <c r="A3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="I3" t="s">
-        <v>112</v>
-      </c>
-      <c r="J3" t="s">
-        <v>105</v>
-      </c>
-      <c r="K3" t="s">
-        <v>105</v>
-      </c>
-      <c r="L3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.9">
-      <c r="A4" t="s">
+      <c r="I4" t="s">
         <v>106</v>
       </c>
-      <c r="B4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="I4" t="s">
-        <v>109</v>
-      </c>
       <c r="J4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.9">
+    <row r="5" spans="1:12" ht="15">
       <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" t="s">
         <v>116</v>
       </c>
-      <c r="B5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="I5" t="s">
-        <v>119</v>
-      </c>
-      <c r="J5" t="s">
-        <v>105</v>
-      </c>
-      <c r="K5" t="s">
-        <v>105</v>
-      </c>
-      <c r="L5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.9">
-      <c r="A6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="I6" t="s">
-        <v>120</v>
-      </c>
       <c r="J6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="84.9" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="85" customHeight="1">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2791,13 +3697,13 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="28.3046875" customWidth="1"/>
-    <col min="4" max="4" width="38.765625" customWidth="1"/>
-    <col min="5" max="1022" width="11.3046875" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="38.83203125" customWidth="1"/>
+    <col min="5" max="1022" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.75" customHeight="1">
@@ -2811,7 +3717,7 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.75" customHeight="1">
@@ -2822,10 +3728,10 @@
         <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>154</v>
+        <v>146</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.75" customHeight="1">
@@ -2863,21 +3769,26 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26.15234375" customWidth="1"/>
-    <col min="2" max="2" width="29.4609375" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2890,19 +3801,19 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="7" t="s">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>217</v>
+      <c r="B2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>90</v>
+        <v>174</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -2910,10 +3821,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>87</v>
+        <v>174</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -2921,7 +3832,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -2933,7 +3844,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="6"/>
     </row>
@@ -2947,7 +3858,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
@@ -2955,26 +3866,26 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2982,47 +3893,47 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>218</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3030,23 +3941,23 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3054,41 +3965,97 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>113</v>
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>182</v>
+      </c>
+      <c r="B31" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3107,29 +4074,29 @@
   <dimension ref="A6:B7"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="12.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22.69140625" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:2">
       <c r="A6" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" ht="13">
       <c r="A7" s="16" t="s">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/business/forms/business/business.xlsx
+++ b/app/config/tables/business/forms/business/business.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="0" windowWidth="33640" windowHeight="20720" tabRatio="500"/>
+    <workbookView xWindow="3180" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="304">
   <si>
     <t>comments</t>
   </si>
@@ -303,9 +303,6 @@
     <t>selectionArgs</t>
   </si>
   <si>
-    <t>fieldName</t>
-  </si>
-  <si>
     <t>newRowInitialElementKeyToValueMap</t>
   </si>
   <si>
@@ -330,9 +327,6 @@
     <t>[]</t>
   </si>
   <si>
-    <t>DISTINCT(district)</t>
-  </si>
-  <si>
     <t>{}</t>
   </si>
   <si>
@@ -345,15 +339,9 @@
     <t>[data('district')]</t>
   </si>
   <si>
-    <t>DISTINCT(village)</t>
-  </si>
-  <si>
     <t>ward_group_by</t>
   </si>
   <si>
-    <t>DISTINCT(ward)</t>
-  </si>
-  <si>
     <t>authorizer_id</t>
   </si>
   <si>
@@ -370,12 +358,6 @@
   </si>
   <si>
     <t>veo</t>
-  </si>
-  <si>
-    <t>DISTINCT(subvillage)</t>
-  </si>
-  <si>
-    <t>DISTINCT(veo)</t>
   </si>
   <si>
     <t>subsector_type</t>
@@ -1736,7 +1718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -1780,7 +1762,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -1809,16 +1791,16 @@
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -1828,10 +1810,10 @@
     <row r="3" spans="1:14" s="29" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="28"/>
       <c r="B3" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1848,10 +1830,10 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>87</v>
@@ -1860,7 +1842,7 @@
         <v>86</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -1871,10 +1853,10 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>84</v>
@@ -1883,7 +1865,7 @@
         <v>85</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1893,10 +1875,10 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>26</v>
@@ -1905,7 +1887,7 @@
         <v>47</v>
       </c>
       <c r="H6" s="35" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1919,16 +1901,16 @@
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -1949,7 +1931,7 @@
         <v>45</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -1959,7 +1941,7 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="30" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>43</v>
@@ -1971,7 +1953,7 @@
         <v>46</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -1981,19 +1963,19 @@
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="I10" s="30"/>
       <c r="J10" s="30"/>
@@ -2001,10 +1983,10 @@
     </row>
     <row r="11" spans="1:14" s="29" customFormat="1">
       <c r="B11" s="36" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
@@ -2019,19 +2001,19 @@
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
       <c r="D12" s="36" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="I12" s="36"/>
       <c r="J12" s="36"/>
@@ -2039,10 +2021,10 @@
     </row>
     <row r="13" spans="1:14" s="29" customFormat="1">
       <c r="B13" s="36" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="36"/>
@@ -2061,13 +2043,13 @@
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="36" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="I14" s="36"/>
       <c r="J14" s="36"/>
@@ -2075,7 +2057,7 @@
     </row>
     <row r="15" spans="1:14" s="29" customFormat="1">
       <c r="B15" s="36" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
@@ -2089,7 +2071,7 @@
     </row>
     <row r="16" spans="1:14" s="29" customFormat="1">
       <c r="B16" s="36" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
@@ -2109,13 +2091,13 @@
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -2123,7 +2105,7 @@
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="30" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2146,10 +2128,10 @@
         <v>76</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -2159,17 +2141,17 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -2177,7 +2159,7 @@
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2196,16 +2178,16 @@
         <v>13</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -2222,10 +2204,10 @@
         <v>37</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H23" s="34" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -2233,7 +2215,7 @@
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -2256,10 +2238,10 @@
         <v>25</v>
       </c>
       <c r="G25" s="37" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="I25" s="37"/>
       <c r="J25" s="37"/>
@@ -2269,7 +2251,7 @@
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>80</v>
@@ -2278,10 +2260,10 @@
         <v>77</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -2289,7 +2271,7 @@
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -2303,7 +2285,7 @@
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2322,16 +2304,16 @@
         <v>13</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -2339,10 +2321,10 @@
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -2364,10 +2346,10 @@
         <v>40</v>
       </c>
       <c r="G31" s="37" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H31" s="38" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="I31" s="37"/>
       <c r="J31" s="37"/>
@@ -2377,7 +2359,7 @@
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>80</v>
@@ -2389,7 +2371,7 @@
         <v>79</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -2397,7 +2379,7 @@
     </row>
     <row r="33" spans="2:12">
       <c r="B33" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -2411,7 +2393,7 @@
     </row>
     <row r="34" spans="2:12">
       <c r="B34" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -2425,7 +2407,7 @@
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -2441,14 +2423,14 @@
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -2457,7 +2439,7 @@
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2480,7 +2462,7 @@
         <v>83</v>
       </c>
       <c r="H39" s="23" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="2:12">
@@ -2491,10 +2473,10 @@
         <v>81</v>
       </c>
       <c r="G40" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H40" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="2:12" ht="15">
@@ -2505,21 +2487,21 @@
         <v>62</v>
       </c>
       <c r="F41" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G41" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="2:12" ht="15" customHeight="1">
       <c r="D42" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F42" t="s">
         <v>42</v>
@@ -2528,7 +2510,7 @@
         <v>48</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L42" s="9"/>
     </row>
@@ -2546,7 +2528,7 @@
         <v>28</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="2:12" ht="30">
@@ -2554,55 +2536,55 @@
         <v>23</v>
       </c>
       <c r="F44" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G44" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H44" s="26" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="2:12">
       <c r="D45" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G45" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H45" s="19" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="2:12">
       <c r="D46" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G46" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" spans="2:12">
       <c r="D47" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G47" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="49" spans="4:8">
@@ -2613,10 +2595,10 @@
         <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="H49" s="19" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -2658,7 +2640,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
@@ -2666,13 +2648,13 @@
         <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" customHeight="1">
@@ -2680,13 +2662,13 @@
         <v>43</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" customHeight="1">
@@ -2694,13 +2676,13 @@
         <v>43</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" customHeight="1">
@@ -2708,13 +2690,13 @@
         <v>43</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" customHeight="1">
@@ -2722,13 +2704,13 @@
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" customHeight="1">
@@ -2736,13 +2718,13 @@
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" customHeight="1">
@@ -2750,13 +2732,13 @@
         <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" customHeight="1">
@@ -2764,13 +2746,13 @@
         <v>43</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" customHeight="1">
@@ -2784,7 +2766,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" customHeight="1">
@@ -2798,7 +2780,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="19" customHeight="1">
@@ -2812,13 +2794,13 @@
         <v>63</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19" customHeight="1"/>
     <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="A15" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B15" t="s">
         <v>74</v>
@@ -2827,12 +2809,12 @@
         <v>38</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B16" t="s">
         <v>75</v>
@@ -2841,50 +2823,50 @@
         <v>39</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B17" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C17" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19" customHeight="1"/>
     <row r="19" spans="1:4" ht="15" customHeight="1">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C19" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2934,447 +2916,447 @@
         <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C25" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D25" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B28" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C28" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D28" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B29" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C29" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D29" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B30" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C30" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D30" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B31" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C31" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D31" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B32" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C32" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D32" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B33" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C33" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D33" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B34" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C34" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D34" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B35" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C35" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D35" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B36" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C36" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D36" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B37" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C37" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D37" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B38" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C38" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D38" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B39" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C39" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D39" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B40" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C40" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D40" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B41" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C41" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D41" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B42" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C42" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D42" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B43" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C43" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D43" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B44" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C44" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D44" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B45" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C45" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D45" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B46" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C46" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D46" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B47" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C47" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D47" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B48" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C48" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D48" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B49" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C49" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D49" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D50" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B51" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C51" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D51" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B52" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C52" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D52" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B53" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C53" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D53" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B54" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C54" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B59" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C59" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D59" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
+        <v>282</v>
+      </c>
+      <c r="B60" t="s">
+        <v>284</v>
+      </c>
+      <c r="C60" t="s">
+        <v>284</v>
+      </c>
+      <c r="D60" t="s">
         <v>288</v>
-      </c>
-      <c r="B60" t="s">
-        <v>290</v>
-      </c>
-      <c r="C60" t="s">
-        <v>290</v>
-      </c>
-      <c r="D60" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B61" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C61" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D61" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B62" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C62" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D62" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -3447,10 +3429,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3463,10 +3445,9 @@
     <col min="6" max="6" width="35.6640625" customWidth="1"/>
     <col min="7" max="7" width="27.5" customWidth="1"/>
     <col min="8" max="8" width="43.1640625" customWidth="1"/>
-    <col min="9" max="9" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="75">
+    <row r="1" spans="1:11" ht="75">
       <c r="A1" s="8" t="s">
         <v>57</v>
       </c>
@@ -3494,188 +3475,170 @@
       <c r="I1" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" t="s">
         <v>93</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="13" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="15">
+      <c r="A2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="15">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>96</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>97</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="I2" t="s">
         <v>100</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15">
+      <c r="A4" t="s">
         <v>101</v>
       </c>
-      <c r="J2" t="s">
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="K2" t="s">
+      <c r="H4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="L2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15">
-      <c r="A3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="H5" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
         <v>97</v>
       </c>
-      <c r="E3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="I3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="F6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="K3" t="s">
-        <v>102</v>
-      </c>
-      <c r="L3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15">
-      <c r="A4" t="s">
+      <c r="H6" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="I4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J4" t="s">
-        <v>102</v>
-      </c>
-      <c r="K4" t="s">
-        <v>102</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15">
-      <c r="A5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="I5" t="s">
-        <v>115</v>
-      </c>
-      <c r="J5" t="s">
-        <v>102</v>
-      </c>
-      <c r="K5" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15">
-      <c r="A6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>105</v>
-      </c>
       <c r="I6" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="J6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K6" t="s">
-        <v>102</v>
-      </c>
-      <c r="L6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="85" customHeight="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="85" customHeight="1">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3717,7 +3680,7 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.75" customHeight="1">
@@ -3728,10 +3691,10 @@
         <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.75" customHeight="1">
@@ -3805,12 +3768,12 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s">
         <v>87</v>
@@ -3821,7 +3784,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -3832,7 +3795,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -3858,7 +3821,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
@@ -3866,18 +3829,18 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3885,7 +3848,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3893,7 +3856,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3906,10 +3869,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3922,10 +3885,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3946,7 +3909,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s">
         <v>77</v>
@@ -3957,7 +3920,7 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3970,7 +3933,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B22" t="s">
         <v>78</v>
@@ -3999,7 +3962,7 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4023,31 +3986,31 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B29" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B30" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4085,7 +4048,7 @@
   <sheetData>
     <row r="6" spans="1:2">
       <c r="A6" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>3</v>
@@ -4093,7 +4056,7 @@
     </row>
     <row r="7" spans="1:2" ht="13">
       <c r="A7" s="16" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>

--- a/app/config/tables/business/forms/business/business.xlsx
+++ b/app/config/tables/business/forms/business/business.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="4100" yWindow="260" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="329">
   <si>
     <t>comments</t>
   </si>
@@ -132,9 +132,6 @@
     <t>sector_type</t>
   </si>
   <si>
-    <t>business_age</t>
-  </si>
-  <si>
     <t>gender</t>
   </si>
   <si>
@@ -594,111 +591,27 @@
     <t>maize</t>
   </si>
   <si>
-    <t>mahindi</t>
-  </si>
-  <si>
-    <t>beans</t>
-  </si>
-  <si>
-    <t>maharage</t>
-  </si>
-  <si>
-    <t>field_peas</t>
-  </si>
-  <si>
-    <t>field peas</t>
-  </si>
-  <si>
-    <t>mikunde</t>
-  </si>
-  <si>
-    <t>cow_peas</t>
-  </si>
-  <si>
-    <t>cow peas</t>
-  </si>
-  <si>
-    <t>njegere</t>
-  </si>
-  <si>
-    <t>green_gram</t>
-  </si>
-  <si>
-    <t>green gram</t>
-  </si>
-  <si>
-    <t>choroko</t>
-  </si>
-  <si>
     <t>groundnuts</t>
   </si>
   <si>
-    <t>karanga</t>
-  </si>
-  <si>
     <t>sunflower</t>
   </si>
   <si>
-    <t>alizeti</t>
-  </si>
-  <si>
     <t>sesame</t>
   </si>
   <si>
-    <t>ufuta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grapes </t>
-  </si>
-  <si>
-    <t>zabibu</t>
-  </si>
-  <si>
-    <t>greens</t>
-  </si>
-  <si>
-    <t>mboga za majani</t>
-  </si>
-  <si>
     <t>fruits</t>
   </si>
   <si>
-    <t>matunda</t>
-  </si>
-  <si>
     <t>vegetables</t>
   </si>
   <si>
-    <t xml:space="preserve">viungo </t>
-  </si>
-  <si>
-    <t>cereals_legumes</t>
-  </si>
-  <si>
-    <t>cereals/legumes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nafaka </t>
-  </si>
-  <si>
-    <t>cash crops</t>
-  </si>
-  <si>
-    <t>mazao ya biashara</t>
-  </si>
-  <si>
     <t>banana</t>
   </si>
   <si>
-    <t>ndizi</t>
-  </si>
-  <si>
     <t>sugarcane</t>
   </si>
   <si>
-    <t>miwa</t>
-  </si>
-  <si>
     <t>cow</t>
   </si>
   <si>
@@ -708,57 +621,24 @@
     <t>goat</t>
   </si>
   <si>
-    <t>mbuzi</t>
-  </si>
-  <si>
     <t>sheep</t>
   </si>
   <si>
-    <t>kondoo</t>
-  </si>
-  <si>
     <t>pig</t>
   </si>
   <si>
-    <t>nguruwe</t>
-  </si>
-  <si>
     <t>fowl</t>
   </si>
   <si>
-    <t>rabbits</t>
-  </si>
-  <si>
-    <t>sungura</t>
-  </si>
-  <si>
     <t>milk</t>
   </si>
   <si>
-    <t>maziwa</t>
-  </si>
-  <si>
     <t>eggs</t>
   </si>
   <si>
-    <t>mayai</t>
-  </si>
-  <si>
     <t>butchered_meat</t>
   </si>
   <si>
-    <t>butchered meat</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>sw:Other</t>
-  </si>
-  <si>
     <t>sw:Do you consent to participate?</t>
   </si>
   <si>
@@ -913,12 +793,6 @@
   </si>
   <si>
     <t>has_been_verified_by_coordinator</t>
-  </si>
-  <si>
-    <t>Enter the age of the business.</t>
-  </si>
-  <si>
-    <t>sw:Enter the age of the business.</t>
   </si>
   <si>
     <t>male_female_no</t>
@@ -975,12 +849,180 @@
   <si>
     <t>choice_item.sector_value === data('sector_type')</t>
   </si>
+  <si>
+    <t>Maize</t>
+  </si>
+  <si>
+    <t>Mahindi</t>
+  </si>
+  <si>
+    <t>beans_legumes</t>
+  </si>
+  <si>
+    <t>Beans/legumes</t>
+  </si>
+  <si>
+    <t>Jamii maharage</t>
+  </si>
+  <si>
+    <t>Groundnuts</t>
+  </si>
+  <si>
+    <t>Karanga</t>
+  </si>
+  <si>
+    <t>Sunflower</t>
+  </si>
+  <si>
+    <t>Alizeti</t>
+  </si>
+  <si>
+    <t>Sesame</t>
+  </si>
+  <si>
+    <t>Ufuta</t>
+  </si>
+  <si>
+    <t>grapes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grapes </t>
+  </si>
+  <si>
+    <t>Zabibu</t>
+  </si>
+  <si>
+    <t>Fruits</t>
+  </si>
+  <si>
+    <t>Matunda</t>
+  </si>
+  <si>
+    <t>Vegetables</t>
+  </si>
+  <si>
+    <t>Viungo au mboga</t>
+  </si>
+  <si>
+    <t>cereals</t>
+  </si>
+  <si>
+    <t>Cereals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nafaka </t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>Ndizi</t>
+  </si>
+  <si>
+    <t>Sugarcane</t>
+  </si>
+  <si>
+    <t>Miwa</t>
+  </si>
+  <si>
+    <t>charcoal</t>
+  </si>
+  <si>
+    <t>Charcoal</t>
+  </si>
+  <si>
+    <t>Mkaa</t>
+  </si>
+  <si>
+    <t>forestry</t>
+  </si>
+  <si>
+    <t>Forestry</t>
+  </si>
+  <si>
+    <t>Mazao ya misitu</t>
+  </si>
+  <si>
+    <t>Cow</t>
+  </si>
+  <si>
+    <t>Donkey</t>
+  </si>
+  <si>
+    <t>Goat</t>
+  </si>
+  <si>
+    <t>Mbuzi</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>Kondoo</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>Nguruwe</t>
+  </si>
+  <si>
+    <t>Fowl</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Maziwa</t>
+  </si>
+  <si>
+    <t>Eggs</t>
+  </si>
+  <si>
+    <t>Mayai</t>
+  </si>
+  <si>
+    <t>Butchered meat</t>
+  </si>
+  <si>
+    <t>fish_aquaculture</t>
+  </si>
+  <si>
+    <t>Fish/aquaculture</t>
+  </si>
+  <si>
+    <t>Ufugaji wa samaki</t>
+  </si>
+  <si>
+    <t>What year did this firm begin?</t>
+  </si>
+  <si>
+    <t>sw:What year did this firm begin</t>
+  </si>
+  <si>
+    <t>year_business_started</t>
+  </si>
+  <si>
+    <t>Other crop</t>
+  </si>
+  <si>
+    <t>Mazao nyingine</t>
+  </si>
+  <si>
+    <t>other_livestock</t>
+  </si>
+  <si>
+    <t>Other livestock</t>
+  </si>
+  <si>
+    <t>Mifugo nyingine</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1055,8 +1097,18 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1078,6 +1130,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1180,7 +1238,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1272,6 +1330,11 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="60" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="87">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -1765,10 +1828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="A21" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1811,7 +1874,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -1840,16 +1903,16 @@
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -1859,10 +1922,10 @@
     <row r="3" spans="1:14" s="29" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="28"/>
       <c r="B3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1879,19 +1942,19 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -1903,19 +1966,19 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1926,19 +1989,19 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="H6" s="34" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1948,19 +2011,19 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -1974,16 +2037,16 @@
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -2001,10 +2064,10 @@
         <v>33</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -2014,19 +2077,19 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -2036,33 +2099,33 @@
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F11" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="G11" s="30" t="s">
-        <v>112</v>
-      </c>
       <c r="H11" s="31" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
       <c r="K11" s="30"/>
       <c r="L11" s="32" t="s">
-        <v>314</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="29" customFormat="1">
       <c r="B12" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
@@ -2077,19 +2140,19 @@
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
       <c r="D13" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E13" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="F13" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>133</v>
-      </c>
       <c r="H13" s="21" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
@@ -2097,10 +2160,10 @@
     </row>
     <row r="14" spans="1:14" s="29" customFormat="1">
       <c r="B14" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="36"/>
@@ -2119,13 +2182,13 @@
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
@@ -2133,7 +2196,7 @@
     </row>
     <row r="16" spans="1:14" s="29" customFormat="1">
       <c r="B16" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
@@ -2145,9 +2208,9 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
     </row>
-    <row r="17" spans="2:11" s="29" customFormat="1">
+    <row r="17" spans="1:17" s="29" customFormat="1">
       <c r="B17" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
@@ -2159,209 +2222,214 @@
       <c r="J17" s="36"/>
       <c r="K17" s="36"/>
     </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
+    <row r="18" spans="1:17" s="30" customFormat="1" ht="13">
+      <c r="A18" s="39"/>
+      <c r="D18" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>322</v>
+      </c>
+      <c r="N18" s="18"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="34"/>
+      <c r="F19" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>213</v>
+      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="3"/>
+    <row r="20" spans="1:17">
+      <c r="B20" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="H20" s="35" t="s">
-        <v>256</v>
-      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="34"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="1:17">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>171</v>
+        <v>32</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="H21" s="31" t="s">
-        <v>258</v>
+        <v>215</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>216</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="3" t="s">
-        <v>259</v>
-      </c>
+    <row r="22" spans="1:17">
+      <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>170</v>
+      </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="31"/>
+      <c r="F22" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>218</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="3"/>
+    <row r="23" spans="1:17">
+      <c r="B23" s="3" t="s">
+        <v>219</v>
+      </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="H23" s="35" t="s">
-        <v>261</v>
-      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="31"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="2:11" ht="24">
+    <row r="24" spans="1:17">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>256</v>
+      </c>
       <c r="F24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="35" t="s">
-        <v>262</v>
-      </c>
-      <c r="H24" s="34" t="s">
-        <v>263</v>
+        <v>35</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>221</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="2:11">
-      <c r="B25" s="3" t="s">
-        <v>254</v>
-      </c>
+    <row r="25" spans="1:17" ht="24">
+      <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="34"/>
+      <c r="F25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>223</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37" t="s">
+    <row r="26" spans="1:17">
+      <c r="B26" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37" t="s">
+      <c r="E27" s="37"/>
+      <c r="F27" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="37" t="s">
-        <v>264</v>
-      </c>
-      <c r="H26" s="38" t="s">
-        <v>265</v>
-      </c>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
+      <c r="G27" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="H27" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
     </row>
-    <row r="27" spans="2:11">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="B28" s="3" t="s">
-        <v>259</v>
-      </c>
+    <row r="28" spans="1:17">
+      <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="19"/>
+      <c r="D28" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>227</v>
+      </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="1:17">
       <c r="B29" s="3" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -2373,103 +2441,103 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="3"/>
+    <row r="30" spans="1:17">
+      <c r="B30" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>269</v>
-      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="19"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="2:11">
-      <c r="B31" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="19"/>
+    <row r="31" spans="1:17">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="2:11">
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="H32" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
+    <row r="32" spans="1:17">
+      <c r="B32" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H33" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="H33" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="3" t="s">
-        <v>137</v>
-      </c>
+      <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="35"/>
+      <c r="D34" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" s="35" t="s">
+        <v>144</v>
+      </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="3" t="s">
-        <v>259</v>
+        <v>136</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -2483,65 +2551,65 @@
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="3" t="s">
-        <v>274</v>
+        <v>219</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="H36" s="35"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="3"/>
+      <c r="B37" s="3" t="s">
+        <v>234</v>
+      </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="3" t="s">
-        <v>275</v>
-      </c>
+      <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>277</v>
-      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="3" t="s">
-        <v>137</v>
-      </c>
+      <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>235</v>
+      </c>
       <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
+      <c r="F38" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>237</v>
+      </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="40" spans="2:12" ht="15">
-      <c r="D40" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" t="s">
-        <v>82</v>
-      </c>
-      <c r="G40" t="s">
-        <v>83</v>
-      </c>
-      <c r="H40" s="23" t="s">
-        <v>146</v>
-      </c>
+    <row r="39" spans="2:12">
+      <c r="B39" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
     </row>
-    <row r="41" spans="2:12">
+    <row r="41" spans="2:12" ht="15">
       <c r="D41" t="s">
         <v>23</v>
       </c>
@@ -2549,132 +2617,132 @@
         <v>81</v>
       </c>
       <c r="G41" t="s">
+        <v>82</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="D42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" t="s">
+        <v>134</v>
+      </c>
+      <c r="H42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" ht="15">
+      <c r="D43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" t="s">
+        <v>255</v>
+      </c>
+      <c r="G43" t="s">
         <v>135</v>
       </c>
-      <c r="H41" t="s">
-        <v>135</v>
+      <c r="H43" s="22" t="s">
+        <v>147</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="15">
-      <c r="D42" t="s">
+    <row r="44" spans="2:12" ht="15" customHeight="1">
+      <c r="D44" t="s">
+        <v>166</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="L44" s="9"/>
+    </row>
+    <row r="45" spans="2:12" ht="15">
+      <c r="D45" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E42" t="s">
-        <v>62</v>
-      </c>
-      <c r="F42" t="s">
-        <v>295</v>
-      </c>
-      <c r="G42" t="s">
-        <v>136</v>
-      </c>
-      <c r="H42" s="22" t="s">
+      <c r="E45" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" t="s">
+        <v>43</v>
+      </c>
+      <c r="G45" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" s="25" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="15" customHeight="1">
-      <c r="D43" t="s">
-        <v>167</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F43" t="s">
-        <v>42</v>
-      </c>
-      <c r="G43" t="s">
-        <v>48</v>
-      </c>
-      <c r="H43" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="L43" s="9"/>
-    </row>
-    <row r="44" spans="2:12" ht="15">
-      <c r="D44" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E44" t="s">
-        <v>62</v>
-      </c>
-      <c r="F44" t="s">
-        <v>44</v>
-      </c>
-      <c r="G44" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" s="25" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" ht="30">
-      <c r="D45" t="s">
+    <row r="46" spans="2:12" ht="30">
+      <c r="D46" t="s">
         <v>23</v>
       </c>
-      <c r="F45" t="s">
-        <v>105</v>
-      </c>
-      <c r="G45" t="s">
-        <v>107</v>
-      </c>
-      <c r="H45" s="26" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12">
-      <c r="D46" t="s">
-        <v>174</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>175</v>
+      <c r="F46" t="s">
+        <v>104</v>
       </c>
       <c r="G46" t="s">
-        <v>289</v>
-      </c>
-      <c r="H46" s="19" t="s">
-        <v>290</v>
+        <v>106</v>
+      </c>
+      <c r="H46" s="26" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="2:12">
       <c r="D47" t="s">
+        <v>173</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="G47" t="s">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="2:12">
       <c r="D48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G48" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>294</v>
+        <v>252</v>
       </c>
     </row>
-    <row r="50" spans="4:8">
-      <c r="D50" t="s">
-        <v>32</v>
-      </c>
-      <c r="F50" t="s">
-        <v>35</v>
-      </c>
-      <c r="G50" t="s">
-        <v>296</v>
-      </c>
-      <c r="H50" s="19" t="s">
-        <v>297</v>
+    <row r="49" spans="4:8">
+      <c r="D49" t="s">
+        <v>173</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G49" t="s">
+        <v>253</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -2690,10 +2758,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A18" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2716,124 +2784,124 @@
         <v>6</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" t="s">
         <v>118</v>
-      </c>
-      <c r="D2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" customHeight="1">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" customHeight="1">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" customHeight="1">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" customHeight="1">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
         <v>123</v>
-      </c>
-      <c r="D6" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" customHeight="1">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" t="s">
         <v>125</v>
-      </c>
-      <c r="D7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" customHeight="1">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" t="s">
         <v>127</v>
-      </c>
-      <c r="D8" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" customHeight="1">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" customHeight="1">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="10">
         <v>0</v>
@@ -2842,12 +2910,12 @@
         <v>30</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" customHeight="1">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="10">
         <v>1</v>
@@ -2856,583 +2924,555 @@
         <v>29</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="19" customHeight="1">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13">
         <v>-1</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19" customHeight="1"/>
     <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="A15" t="s">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="B17" t="s">
-        <v>299</v>
+        <v>257</v>
       </c>
       <c r="C17" t="s">
-        <v>300</v>
+        <v>258</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>301</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19" customHeight="1"/>
     <row r="19" spans="1:4" ht="15" customHeight="1">
       <c r="A19" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" t="s">
         <v>159</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>160</v>
       </c>
-      <c r="C19" t="s">
-        <v>161</v>
-      </c>
       <c r="D19" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" t="s">
         <v>162</v>
       </c>
-      <c r="C20" t="s">
-        <v>163</v>
-      </c>
       <c r="D20" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>69</v>
-      </c>
       <c r="D22" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>71</v>
-      </c>
       <c r="D23" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>73</v>
-      </c>
       <c r="D24" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" t="s">
         <v>150</v>
       </c>
-      <c r="C25" t="s">
-        <v>151</v>
-      </c>
       <c r="D25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C28" t="s">
-        <v>188</v>
+        <v>273</v>
       </c>
       <c r="D28" t="s">
-        <v>189</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B29" t="s">
-        <v>190</v>
+        <v>275</v>
       </c>
       <c r="C29" t="s">
-        <v>190</v>
+        <v>276</v>
       </c>
       <c r="D29" t="s">
-        <v>191</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B30" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C30" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="D30" t="s">
-        <v>194</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B31" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C31" t="s">
-        <v>196</v>
+        <v>280</v>
       </c>
       <c r="D31" t="s">
-        <v>197</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B32" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C32" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
       <c r="D32" t="s">
-        <v>200</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B33" t="s">
-        <v>201</v>
+        <v>284</v>
       </c>
       <c r="C33" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
       <c r="D33" t="s">
-        <v>202</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B34" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C34" t="s">
-        <v>203</v>
+        <v>287</v>
       </c>
       <c r="D34" t="s">
-        <v>204</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B35" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C35" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="D35" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B36" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="C36" t="s">
-        <v>207</v>
+        <v>292</v>
       </c>
       <c r="D36" t="s">
-        <v>208</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B37" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C37" t="s">
-        <v>209</v>
+        <v>294</v>
       </c>
       <c r="D37" t="s">
-        <v>210</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B38" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="C38" t="s">
-        <v>211</v>
+        <v>296</v>
       </c>
       <c r="D38" t="s">
-        <v>212</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B39" t="s">
-        <v>213</v>
+        <v>298</v>
       </c>
       <c r="C39" t="s">
-        <v>213</v>
+        <v>299</v>
       </c>
       <c r="D39" t="s">
-        <v>214</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B40" t="s">
-        <v>215</v>
+        <v>301</v>
       </c>
       <c r="C40" t="s">
-        <v>216</v>
+        <v>302</v>
       </c>
       <c r="D40" t="s">
-        <v>217</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B41" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="C41" t="s">
-        <v>218</v>
+        <v>324</v>
       </c>
       <c r="D41" t="s">
-        <v>219</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B42" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="C42" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="D42" t="s">
-        <v>221</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B43" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="C43" t="s">
-        <v>222</v>
+        <v>305</v>
       </c>
       <c r="D43" t="s">
-        <v>223</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B44" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="C44" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B45" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="C45" t="s">
-        <v>225</v>
+        <v>308</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B46" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="C46" t="s">
-        <v>226</v>
+        <v>310</v>
       </c>
       <c r="D46" t="s">
-        <v>227</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B47" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="C47" t="s">
-        <v>228</v>
+        <v>312</v>
       </c>
       <c r="D47" t="s">
-        <v>229</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B48" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="C48" t="s">
-        <v>230</v>
+        <v>313</v>
       </c>
       <c r="D48" t="s">
-        <v>231</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B49" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="C49" t="s">
-        <v>232</v>
+        <v>315</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>316</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B50" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="C50" t="s">
-        <v>233</v>
+        <v>317</v>
       </c>
       <c r="D50" t="s">
-        <v>234</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B51" t="s">
-        <v>235</v>
+        <v>318</v>
       </c>
       <c r="C51" t="s">
-        <v>235</v>
+        <v>319</v>
       </c>
       <c r="D51" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B52" t="s">
-        <v>237</v>
+        <v>326</v>
       </c>
       <c r="C52" t="s">
-        <v>237</v>
+        <v>327</v>
       </c>
       <c r="D52" t="s">
-        <v>238</v>
+        <v>328</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>132</v>
-      </c>
-      <c r="B53" t="s">
-        <v>239</v>
-      </c>
-      <c r="C53" t="s">
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
         <v>240</v>
       </c>
-      <c r="D53" t="s">
-        <v>116</v>
+      <c r="B56" t="s">
+        <v>241</v>
+      </c>
+      <c r="C56" t="s">
+        <v>241</v>
+      </c>
+      <c r="D56" t="s">
+        <v>245</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>132</v>
-      </c>
-      <c r="B54" t="s">
-        <v>241</v>
-      </c>
-      <c r="C54" t="s">
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>240</v>
+      </c>
+      <c r="B57" t="s">
         <v>242</v>
       </c>
-      <c r="D54" s="19" t="s">
+      <c r="C57" t="s">
+        <v>242</v>
+      </c>
+      <c r="D57" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>240</v>
+      </c>
+      <c r="B58" t="s">
         <v>243</v>
+      </c>
+      <c r="C58" t="s">
+        <v>243</v>
+      </c>
+      <c r="D58" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="B59" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="C59" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="D59" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>280</v>
-      </c>
-      <c r="B60" t="s">
-        <v>282</v>
-      </c>
-      <c r="C60" t="s">
-        <v>282</v>
-      </c>
-      <c r="D60" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>280</v>
-      </c>
-      <c r="B61" t="s">
-        <v>283</v>
-      </c>
-      <c r="C61" t="s">
-        <v>283</v>
-      </c>
-      <c r="D61" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>280</v>
-      </c>
-      <c r="B62" t="s">
-        <v>284</v>
-      </c>
-      <c r="C62" t="s">
-        <v>284</v>
-      </c>
-      <c r="D62" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -3461,13 +3501,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" t="s">
-        <v>51</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -3478,19 +3518,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>55</v>
-      </c>
-      <c r="D2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3507,7 +3547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -3525,150 +3565,150 @@
   <sheetData>
     <row r="1" spans="1:11" ht="75">
       <c r="A1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="C1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>61</v>
-      </c>
       <c r="E1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" t="s">
         <v>92</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="13" t="s">
         <v>93</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
         <v>96</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="I2" t="s">
         <v>99</v>
       </c>
-      <c r="I2" t="s">
-        <v>100</v>
-      </c>
       <c r="J2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K2" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
         <v>95</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>96</v>
       </c>
-      <c r="E3" t="s">
-        <v>97</v>
-      </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="I3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
         <v>96</v>
       </c>
-      <c r="E4" t="s">
-        <v>97</v>
-      </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G4" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="H4" s="18" t="s">
-        <v>103</v>
-      </c>
       <c r="I4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" t="s">
         <v>96</v>
       </c>
-      <c r="E5" t="s">
-        <v>97</v>
-      </c>
       <c r="F5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
       <c r="I5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s">
         <v>26</v>
@@ -3676,74 +3716,74 @@
     </row>
     <row r="6" spans="1:11" ht="15">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" t="s">
         <v>96</v>
       </c>
-      <c r="E6" t="s">
-        <v>97</v>
-      </c>
       <c r="F6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="I6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15">
       <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="I7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" t="s">
         <v>109</v>
-      </c>
-      <c r="B7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="I7" t="s">
-        <v>100</v>
-      </c>
-      <c r="J7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="85" customHeight="1">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -3785,7 +3825,7 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.75" customHeight="1">
@@ -3796,10 +3836,10 @@
         <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>139</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.75" customHeight="1">
@@ -3849,8 +3889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="A31:B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3873,15 +3913,15 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -3889,10 +3929,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -3900,7 +3940,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -3912,7 +3952,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" s="6"/>
     </row>
@@ -3926,7 +3966,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
@@ -3934,18 +3974,18 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3953,7 +3993,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3961,7 +4001,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3969,15 +4009,15 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" t="s">
         <v>171</v>
-      </c>
-      <c r="B14" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3985,7 +4025,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3993,7 +4033,7 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:16384">
@@ -4006,10 +4046,10 @@
     </row>
     <row r="18" spans="1:16384">
       <c r="A18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:16384">
@@ -4017,7 +4057,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:16384">
@@ -4025,15 +4065,15 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:16384">
       <c r="A21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:16384">
@@ -4041,7 +4081,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G22" s="6"/>
     </row>
@@ -4050,7 +4090,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F23" s="6"/>
     </row>
@@ -4059,7 +4099,7 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:16384">
@@ -4067,7 +4107,7 @@
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:16384">
@@ -4075,7 +4115,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:16384">
@@ -4083,31 +4123,31 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:16384">
       <c r="A28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" t="s">
         <v>174</v>
-      </c>
-      <c r="B28" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:16384">
       <c r="A29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:16384">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:16384">
@@ -4115,7 +4155,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -20505,7 +20545,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -20535,7 +20575,7 @@
   <sheetData>
     <row r="6" spans="1:2">
       <c r="A6" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>3</v>
@@ -20543,10 +20583,10 @@
     </row>
     <row r="7" spans="1:2" ht="13">
       <c r="A7" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/business/forms/business/business.xlsx
+++ b/app/config/tables/business/forms/business/business.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="260" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="4100" yWindow="260" windowWidth="32220" windowHeight="16060" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="329">
   <si>
     <t>comments</t>
   </si>
@@ -1830,8 +1830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2656,11 +2656,9 @@
     </row>
     <row r="44" spans="2:12" ht="15" customHeight="1">
       <c r="D44" t="s">
-        <v>166</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>108</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E44" s="6"/>
       <c r="F44" t="s">
         <v>41</v>
       </c>
@@ -3890,7 +3888,7 @@
   <dimension ref="A1:XFD33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -4104,7 +4102,7 @@
     </row>
     <row r="25" spans="1:16384">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>41</v>

--- a/app/config/tables/business/forms/business/business.xlsx
+++ b/app/config/tables/business/forms/business/business.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="260" windowWidth="32220" windowHeight="16060" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="4100" yWindow="260" windowWidth="32220" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -111,15 +111,6 @@
     <t>Business</t>
   </si>
   <si>
-    <t>Has the VEO authorized this business?</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>select_one_integer</t>
   </si>
   <si>
@@ -156,9 +147,6 @@
     <t>sector_type_list</t>
   </si>
   <si>
-    <t>has_been_authorized_by_veo</t>
-  </si>
-  <si>
     <t>Enter the name of the business.</t>
   </si>
   <si>
@@ -210,9 +198,6 @@
     <t>callback</t>
   </si>
   <si>
-    <t>true_false_unsure</t>
-  </si>
-  <si>
     <t>Unsure</t>
   </si>
   <si>
@@ -432,9 +417,6 @@
     <t>Enter the id of the coordinator who verified the business.</t>
   </si>
   <si>
-    <t>Has the coordinator verified this business?</t>
-  </si>
-  <si>
     <t>end if</t>
   </si>
   <si>
@@ -486,12 +468,6 @@
     <t>Mwanaume</t>
   </si>
   <si>
-    <t>Kweli</t>
-  </si>
-  <si>
-    <t>Sio kweli</t>
-  </si>
-  <si>
     <t>Sina uhakika</t>
   </si>
   <si>
@@ -790,9 +766,6 @@
   </si>
   <si>
     <t>sw:Enter the enrollment date</t>
-  </si>
-  <si>
-    <t>has_been_verified_by_coordinator</t>
   </si>
   <si>
     <t>male_female_no</t>
@@ -1016,6 +989,33 @@
   </si>
   <si>
     <t>Mifugo nyingine</t>
+  </si>
+  <si>
+    <t>has_been_authorized_by_veo_as</t>
+  </si>
+  <si>
+    <t>has_been_verified_by_coordinator_as</t>
+  </si>
+  <si>
+    <t>valid_invalid_unsure</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>Sio halali</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Halali</t>
+  </si>
+  <si>
+    <t>Coordinator verified this business as:</t>
+  </si>
+  <si>
+    <t>VEO authorized this business as:</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1149,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="87">
+  <cellStyleXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1211,6 +1211,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1336,7 +1344,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="87">
+  <cellStyles count="95">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -1380,6 +1388,10 @@
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1422,6 +1434,10 @@
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="60"/>
   </cellStyles>
@@ -1830,8 +1846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1874,7 +1890,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -1903,16 +1919,16 @@
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -1922,10 +1938,10 @@
     <row r="3" spans="1:14" s="29" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="28"/>
       <c r="B3" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1942,19 +1958,19 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -1966,19 +1982,19 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1989,19 +2005,19 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -2011,19 +2027,19 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -2037,16 +2053,16 @@
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -2061,13 +2077,13 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -2077,19 +2093,19 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="30" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -2099,33 +2115,33 @@
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
       <c r="K11" s="30"/>
       <c r="L11" s="32" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="29" customFormat="1">
       <c r="B12" s="36" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
@@ -2140,19 +2156,19 @@
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
       <c r="D13" s="36" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
@@ -2160,10 +2176,10 @@
     </row>
     <row r="14" spans="1:14" s="29" customFormat="1">
       <c r="B14" s="36" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="36"/>
@@ -2182,13 +2198,13 @@
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="36" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
@@ -2196,7 +2212,7 @@
     </row>
     <row r="16" spans="1:14" s="29" customFormat="1">
       <c r="B16" s="36" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
@@ -2210,7 +2226,7 @@
     </row>
     <row r="17" spans="1:17" s="29" customFormat="1">
       <c r="B17" s="36" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
@@ -2225,16 +2241,16 @@
     <row r="18" spans="1:17" s="30" customFormat="1" ht="13">
       <c r="A18" s="39"/>
       <c r="D18" s="30" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="H18" s="41" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="N18" s="18"/>
       <c r="O18" s="32"/>
@@ -2249,13 +2265,13 @@
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H19" s="34" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -2263,7 +2279,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="B20" s="30" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -2279,17 +2295,17 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -2299,17 +2315,17 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -2317,7 +2333,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="B23" s="3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -2336,16 +2352,16 @@
         <v>13</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -2355,17 +2371,17 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="H25" s="34" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -2373,7 +2389,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="B26" s="3" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -2396,10 +2412,10 @@
         <v>25</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H27" s="38" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I27" s="37"/>
       <c r="J27" s="37"/>
@@ -2409,19 +2425,19 @@
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -2429,7 +2445,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="B29" s="3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -2443,7 +2459,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="B30" s="3" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -2462,16 +2478,16 @@
         <v>13</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -2479,10 +2495,10 @@
     </row>
     <row r="32" spans="1:17">
       <c r="B32" s="3" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -2501,13 +2517,13 @@
       </c>
       <c r="E33" s="37"/>
       <c r="F33" s="37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G33" s="37" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H33" s="38" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="I33" s="37"/>
       <c r="J33" s="37"/>
@@ -2517,19 +2533,19 @@
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H34" s="35" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -2537,7 +2553,7 @@
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -2551,7 +2567,7 @@
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2565,7 +2581,7 @@
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="3" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2581,14 +2597,14 @@
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -2597,7 +2613,7 @@
     </row>
     <row r="39" spans="2:12">
       <c r="B39" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -2614,13 +2630,13 @@
         <v>23</v>
       </c>
       <c r="F41" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H41" s="23" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="2:12">
@@ -2628,30 +2644,30 @@
         <v>23</v>
       </c>
       <c r="F42" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H42" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="2:12" ht="15">
       <c r="D43" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E43" t="s">
-        <v>61</v>
+        <v>322</v>
       </c>
       <c r="F43" t="s">
-        <v>255</v>
+        <v>321</v>
       </c>
       <c r="G43" t="s">
-        <v>135</v>
+        <v>327</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="2:12" ht="15" customHeight="1">
@@ -2660,31 +2676,31 @@
       </c>
       <c r="E44" s="6"/>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H44" s="24" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="L44" s="9"/>
     </row>
     <row r="45" spans="2:12" ht="15">
       <c r="D45" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E45" t="s">
-        <v>61</v>
+        <v>322</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>320</v>
       </c>
       <c r="G45" t="s">
-        <v>28</v>
+        <v>328</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="2:12" ht="30">
@@ -2692,55 +2708,55 @@
         <v>23</v>
       </c>
       <c r="F46" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G46" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H46" s="26" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="2:12">
       <c r="D47" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G47" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="2:12">
       <c r="D48" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G48" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="4:8">
       <c r="D49" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G49" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="H49" s="19" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2758,8 +2774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2782,695 +2798,695 @@
         <v>6</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" customHeight="1">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" customHeight="1">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" customHeight="1">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" customHeight="1">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" customHeight="1">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" customHeight="1">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" customHeight="1">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" customHeight="1">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>322</v>
       </c>
       <c r="B11" s="10">
         <v>0</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>30</v>
+        <v>323</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>154</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" customHeight="1">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>322</v>
       </c>
       <c r="B12" s="10">
         <v>1</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>29</v>
+        <v>325</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>153</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="19" customHeight="1">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>322</v>
       </c>
       <c r="B13">
         <v>-1</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19" customHeight="1"/>
     <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="A15" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B17" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C17" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19" customHeight="1"/>
     <row r="19" spans="1:4" ht="15" customHeight="1">
       <c r="A19" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C19" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C20" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C25" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D25" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C28" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D28" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B29" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C29" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D29" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B30" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C30" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D30" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B31" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C31" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D31" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B32" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C32" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D32" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B33" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C33" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D33" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B34" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C34" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D34" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C35" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D35" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B36" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C36" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D36" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B37" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C37" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D37" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B38" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C38" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D38" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B39" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C39" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D39" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B40" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C40" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D40" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B41" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C41" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="D41" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B42" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C42" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C43" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B44" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C44" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D44" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B45" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C45" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D45" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B46" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C46" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D46" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B47" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C47" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B48" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C48" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D48" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B49" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C49" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D49" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B50" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C50" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D50" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B51" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C51" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D51" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B52" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C52" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D52" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B56" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C56" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D56" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B57" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C57" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D57" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B58" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C58" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D58" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
+        <v>232</v>
+      </c>
+      <c r="B59" t="s">
+        <v>236</v>
+      </c>
+      <c r="C59" t="s">
+        <v>236</v>
+      </c>
+      <c r="D59" t="s">
         <v>240</v>
-      </c>
-      <c r="B59" t="s">
-        <v>244</v>
-      </c>
-      <c r="C59" t="s">
-        <v>244</v>
-      </c>
-      <c r="D59" t="s">
-        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -3499,13 +3515,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -3516,19 +3532,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
         <v>51</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3563,150 +3579,150 @@
   <sheetData>
     <row r="1" spans="1:11" ht="75">
       <c r="A1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>60</v>
-      </c>
       <c r="E1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>88</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="I3" t="s">
         <v>94</v>
       </c>
-      <c r="B3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="I3" t="s">
-        <v>99</v>
-      </c>
       <c r="J3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>101</v>
-      </c>
       <c r="H4" s="18" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="I5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K5" t="s">
         <v>26</v>
@@ -3714,74 +3730,74 @@
     </row>
     <row r="6" spans="1:11" ht="15">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="I6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="I7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="85" customHeight="1">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3823,7 +3839,7 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.75" customHeight="1">
@@ -3834,10 +3850,10 @@
         <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.75" customHeight="1">
@@ -3869,7 +3885,7 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3887,8 +3903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3911,15 +3927,15 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -3927,10 +3943,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -3938,7 +3954,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -3950,7 +3966,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G6" s="6"/>
     </row>
@@ -3959,31 +3975,31 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3991,7 +4007,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3999,23 +4015,23 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4023,15 +4039,15 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:16384">
@@ -4044,10 +4060,10 @@
     </row>
     <row r="18" spans="1:16384">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:16384">
@@ -4055,7 +4071,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:16384">
@@ -4063,15 +4079,15 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:16384">
       <c r="A21" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:16384">
@@ -4079,7 +4095,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G22" s="6"/>
     </row>
@@ -4088,16 +4104,16 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:16384">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>255</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:16384">
@@ -4105,15 +4121,15 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:16384">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:16384">
@@ -4121,31 +4137,31 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:16384">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B28" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:16384">
       <c r="A29" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B29" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:16384">
       <c r="A30" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B30" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:16384">
@@ -4153,7 +4169,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -20540,10 +20556,10 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -20573,7 +20589,7 @@
   <sheetData>
     <row r="6" spans="1:2">
       <c r="A6" s="15" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>3</v>
@@ -20581,10 +20597,10 @@
     </row>
     <row r="7" spans="1:2" ht="13">
       <c r="A7" s="16" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/business/forms/business/business.xlsx
+++ b/app/config/tables/business/forms/business/business.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="260" windowWidth="32220" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="4100" yWindow="260" windowWidth="32220" windowHeight="16060" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="320">
   <si>
     <t>comments</t>
   </si>
@@ -715,39 +715,6 @@
   </si>
   <si>
     <t xml:space="preserve">Thank you for your time.  </t>
-  </si>
-  <si>
-    <t>Choose the subvillage</t>
-  </si>
-  <si>
-    <t>sw:Choose the subvillage</t>
-  </si>
-  <si>
-    <t>subvillage_list</t>
-  </si>
-  <si>
-    <t>Subvillage12</t>
-  </si>
-  <si>
-    <t>Subvillage11</t>
-  </si>
-  <si>
-    <t>Subvillage31</t>
-  </si>
-  <si>
-    <t>Subvillage41</t>
-  </si>
-  <si>
-    <t>sw:Subvillage12</t>
-  </si>
-  <si>
-    <t>sw:Subvillage11</t>
-  </si>
-  <si>
-    <t>sw:Subvillage31</t>
-  </si>
-  <si>
-    <t>sw:Subvillage41</t>
   </si>
   <si>
     <t>Enter the authorization date</t>
@@ -1016,6 +983,12 @@
   </si>
   <si>
     <t>VEO authorized this business as:</t>
+  </si>
+  <si>
+    <t>Enter the subvillage</t>
+  </si>
+  <si>
+    <t>sw:Enter the subvillage</t>
   </si>
 </sst>
 </file>
@@ -1846,8 +1819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1961,16 +1934,16 @@
         <v>158</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -2050,19 +2023,17 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>232</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>230</v>
+        <v>318</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>231</v>
+        <v>319</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -2133,7 +2104,7 @@
       <c r="J11" s="30"/>
       <c r="K11" s="30"/>
       <c r="L11" s="32" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="29" customFormat="1">
@@ -2244,13 +2215,13 @@
         <v>29</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H18" s="41" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="N18" s="18"/>
       <c r="O18" s="32"/>
@@ -2352,7 +2323,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>32</v>
@@ -2658,13 +2629,13 @@
         <v>28</v>
       </c>
       <c r="E43" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="F43" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="G43" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="H43" s="22" t="s">
         <v>141</v>
@@ -2691,13 +2662,13 @@
         <v>28</v>
       </c>
       <c r="E45" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="F45" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="G45" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="H45" s="25" t="s">
         <v>142</v>
@@ -2725,10 +2696,10 @@
         <v>166</v>
       </c>
       <c r="G47" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="2:12">
@@ -2739,10 +2710,10 @@
         <v>167</v>
       </c>
       <c r="G48" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="4:8">
@@ -2753,10 +2724,10 @@
         <v>168</v>
       </c>
       <c r="G49" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="H49" s="19" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2772,10 +2743,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A35" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2915,35 +2886,35 @@
     </row>
     <row r="11" spans="1:4" ht="16" customHeight="1">
       <c r="A11" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B11" s="10">
         <v>0</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" customHeight="1">
       <c r="A12" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B12" s="10">
         <v>1</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="19" customHeight="1">
       <c r="A13" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B13">
         <v>-1</v>
@@ -2958,7 +2929,7 @@
     <row r="14" spans="1:4" ht="19" customHeight="1"/>
     <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="A15" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B15" t="s">
         <v>68</v>
@@ -2972,7 +2943,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B16" t="s">
         <v>69</v>
@@ -2986,16 +2957,16 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B17" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C17" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19" customHeight="1"/>
@@ -3091,10 +3062,10 @@
         <v>179</v>
       </c>
       <c r="C28" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D28" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3102,13 +3073,13 @@
         <v>126</v>
       </c>
       <c r="B29" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C29" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D29" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3119,10 +3090,10 @@
         <v>180</v>
       </c>
       <c r="C30" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D30" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3133,10 +3104,10 @@
         <v>181</v>
       </c>
       <c r="C31" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="D31" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3147,10 +3118,10 @@
         <v>182</v>
       </c>
       <c r="C32" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D32" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3158,13 +3129,13 @@
         <v>126</v>
       </c>
       <c r="B33" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="C33" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="D33" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3175,10 +3146,10 @@
         <v>183</v>
       </c>
       <c r="C34" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D34" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3189,10 +3160,10 @@
         <v>184</v>
       </c>
       <c r="C35" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="D35" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3200,13 +3171,13 @@
         <v>126</v>
       </c>
       <c r="B36" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C36" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="D36" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3217,10 +3188,10 @@
         <v>185</v>
       </c>
       <c r="C37" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D37" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3231,10 +3202,10 @@
         <v>186</v>
       </c>
       <c r="C38" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D38" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3242,13 +3213,13 @@
         <v>126</v>
       </c>
       <c r="B39" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C39" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D39" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3256,13 +3227,13 @@
         <v>126</v>
       </c>
       <c r="B40" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C40" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="D40" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3273,10 +3244,10 @@
         <v>161</v>
       </c>
       <c r="C41" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D41" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3287,7 +3258,7 @@
         <v>187</v>
       </c>
       <c r="C42" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="D42" t="s">
         <v>107</v>
@@ -3301,7 +3272,7 @@
         <v>188</v>
       </c>
       <c r="C43" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D43" t="s">
         <v>108</v>
@@ -3315,10 +3286,10 @@
         <v>189</v>
       </c>
       <c r="C44" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="D44" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3329,10 +3300,10 @@
         <v>190</v>
       </c>
       <c r="C45" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="D45" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3343,10 +3314,10 @@
         <v>191</v>
       </c>
       <c r="C46" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D46" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3357,7 +3328,7 @@
         <v>192</v>
       </c>
       <c r="C47" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="D47" t="s">
         <v>109</v>
@@ -3371,10 +3342,10 @@
         <v>193</v>
       </c>
       <c r="C48" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="D48" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3385,10 +3356,10 @@
         <v>194</v>
       </c>
       <c r="C49" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D49" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3399,7 +3370,7 @@
         <v>195</v>
       </c>
       <c r="C50" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D50" t="s">
         <v>110</v>
@@ -3410,13 +3381,13 @@
         <v>126</v>
       </c>
       <c r="B51" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C51" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="D51" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3424,69 +3395,13 @@
         <v>126</v>
       </c>
       <c r="B52" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="C52" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="D52" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>232</v>
-      </c>
-      <c r="B56" t="s">
-        <v>233</v>
-      </c>
-      <c r="C56" t="s">
-        <v>233</v>
-      </c>
-      <c r="D56" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>232</v>
-      </c>
-      <c r="B57" t="s">
-        <v>234</v>
-      </c>
-      <c r="C57" t="s">
-        <v>234</v>
-      </c>
-      <c r="D57" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>232</v>
-      </c>
-      <c r="B58" t="s">
-        <v>235</v>
-      </c>
-      <c r="C58" t="s">
-        <v>235</v>
-      </c>
-      <c r="D58" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>232</v>
-      </c>
-      <c r="B59" t="s">
-        <v>236</v>
-      </c>
-      <c r="C59" t="s">
-        <v>236</v>
-      </c>
-      <c r="D59" t="s">
-        <v>240</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -3561,8 +3476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3614,7 +3529,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B2" t="s">
         <v>90</v>
@@ -3638,7 +3553,7 @@
         <v>94</v>
       </c>
       <c r="K2" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3655,10 +3570,10 @@
         <v>91</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="I3" t="s">
         <v>94</v>
@@ -3713,10 +3628,10 @@
         <v>91</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="I5" t="s">
         <v>94</v>
@@ -3742,10 +3657,10 @@
         <v>91</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="I6" t="s">
         <v>94</v>
@@ -3771,10 +3686,10 @@
         <v>91</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="I7" t="s">
         <v>94</v>
@@ -3797,7 +3712,7 @@
         <v>131</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3903,8 +3818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3963,7 +3878,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
@@ -4113,7 +4028,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:16384">
@@ -4129,7 +4044,7 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:16384">
@@ -4169,7 +4084,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -20559,7 +20474,7 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/business/forms/business/business.xlsx
+++ b/app/config/tables/business/forms/business/business.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="260" windowWidth="32220" windowHeight="16060" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="15800" yWindow="7460" windowWidth="21920" windowHeight="17140" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="329">
   <si>
     <t>comments</t>
   </si>
@@ -108,9 +108,6 @@
     <t>village</t>
   </si>
   <si>
-    <t>Business</t>
-  </si>
-  <si>
     <t>select_one_integer</t>
   </si>
   <si>
@@ -408,9 +405,6 @@
     <t>crop_type_list</t>
   </si>
   <si>
-    <t>Do you specialize in a specifc crop?</t>
-  </si>
-  <si>
     <t>crop_type</t>
   </si>
   <si>
@@ -450,12 +444,6 @@
     <t>Andika namba ya utambulisho ya mhakiki/msimamizi wa biashara</t>
   </si>
   <si>
-    <t>Je mwandikishaji ndiye aliyehakiki biashara?</t>
-  </si>
-  <si>
-    <t>Je ni mtendaji ndiye aliyehakiki biashara?</t>
-  </si>
-  <si>
     <t>halotel</t>
   </si>
   <si>
@@ -558,12 +546,6 @@
     <t>financial_services</t>
   </si>
   <si>
-    <t>sw:Yes</t>
-  </si>
-  <si>
-    <t>sw:No</t>
-  </si>
-  <si>
     <t>maize</t>
   </si>
   <si>
@@ -615,36 +597,15 @@
     <t>butchered_meat</t>
   </si>
   <si>
-    <t>sw:Do you consent to participate?</t>
-  </si>
-  <si>
     <t>(data('consent') === 'yes')</t>
   </si>
   <si>
-    <t>sw:Choose the district.</t>
-  </si>
-  <si>
-    <t>sw:Choose the ward.</t>
-  </si>
-  <si>
-    <t>sw:Choose the subsector of the business</t>
-  </si>
-  <si>
-    <t>sw:Do you specialize in a specifc crop?</t>
-  </si>
-  <si>
     <t>(selected('crop_type', 'other'))</t>
   </si>
   <si>
     <t>What is the other crop?</t>
   </si>
   <si>
-    <t>sw:What is the other crop?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sw:What is the business owners name? </t>
-  </si>
-  <si>
     <t>begin screen</t>
   </si>
   <si>
@@ -657,9 +618,6 @@
     <t>Prefer not to answer.</t>
   </si>
   <si>
-    <t>sw:Prefer not to answer.</t>
-  </si>
-  <si>
     <t>end screen</t>
   </si>
   <si>
@@ -672,9 +630,6 @@
     <t>What is the size of the firm (number of paid employees, including the owner)?</t>
   </si>
   <si>
-    <t>sw:What is the size of the firm (number of paid employees, including the owner)?</t>
-  </si>
-  <si>
     <t>Enter the phone number for the business.</t>
   </si>
   <si>
@@ -684,15 +639,9 @@
     <t>Enter the network for the phone number.</t>
   </si>
   <si>
-    <t>sw:Enter the network for the phone number.</t>
-  </si>
-  <si>
     <t>Is there a secondary phone number for the business?</t>
   </si>
   <si>
-    <t>sw:Is there a secondary phone number for the business?</t>
-  </si>
-  <si>
     <t xml:space="preserve">if </t>
   </si>
   <si>
@@ -720,21 +669,12 @@
     <t>Enter the authorization date</t>
   </si>
   <si>
-    <t>sw:Enter the authorization date</t>
-  </si>
-  <si>
     <t>Enter the verification date</t>
   </si>
   <si>
-    <t>sw:Enter the verification date</t>
-  </si>
-  <si>
     <t>Enter the enrollment date</t>
   </si>
   <si>
-    <t>sw:Enter the enrollment date</t>
-  </si>
-  <si>
     <t>male_female_no</t>
   </si>
   <si>
@@ -744,9 +684,6 @@
     <t>Prefer not to answer</t>
   </si>
   <si>
-    <t>sw:Prefer not to answer</t>
-  </si>
-  <si>
     <t>region_group_by</t>
   </si>
   <si>
@@ -754,9 +691,6 @@
   </si>
   <si>
     <t>Choose the region.</t>
-  </si>
-  <si>
-    <t>sw:Choose the region.</t>
   </si>
   <si>
     <t>region=?</t>
@@ -937,9 +871,6 @@
     <t>What year did this firm begin?</t>
   </si>
   <si>
-    <t>sw:What year did this firm begin</t>
-  </si>
-  <si>
     <t>year_business_started</t>
   </si>
   <si>
@@ -988,7 +919,103 @@
     <t>Enter the subvillage</t>
   </si>
   <si>
-    <t>sw:Enter the subvillage</t>
+    <t>Chagua Kata</t>
+  </si>
+  <si>
+    <t>Jina la mmiliki wa biashara?</t>
+  </si>
+  <si>
+    <t>Ndiyo</t>
+  </si>
+  <si>
+    <t>Hapana</t>
+  </si>
+  <si>
+    <t>Chagua Wilaya</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>sw</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Swahili</t>
+  </si>
+  <si>
+    <t>display.locale.text</t>
+  </si>
+  <si>
+    <t>display.locale.text.sw</t>
+  </si>
+  <si>
+    <t>Unakubali kushiriki?</t>
+  </si>
+  <si>
+    <t>sw:Enter the id of the coordinator who verified the business.</t>
+  </si>
+  <si>
+    <t>Chagua Mkoa</t>
+  </si>
+  <si>
+    <t>Andika jina la kitongoji</t>
+  </si>
+  <si>
+    <t>Chagua sekta ndogo ya biashara</t>
+  </si>
+  <si>
+    <t>The respondent may select from 1 to 3 crop/livestock products. If there are none, select "not applicable"</t>
+  </si>
+  <si>
+    <t>Mshiriki anaweza kuchagua kati ya mazao au mifugo 1 mpaka mazao au mifugo 3. Kama hakuna, chagua "Hakuna."</t>
+  </si>
+  <si>
+    <t>Andika mazao mingine</t>
+  </si>
+  <si>
+    <t>Biashara hii ilianza mwaka gani?</t>
+  </si>
+  <si>
+    <t>Biashara hii ina ukubwa gani (idadi ya waajiriwa, pasipo kujumuisha mmiliki wa biashara)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hakutaki kujibu </t>
+  </si>
+  <si>
+    <t>Chagua mtandao</t>
+  </si>
+  <si>
+    <t>Mshiriki ana namba ya pili ya simu ya biashara?</t>
+  </si>
+  <si>
+    <t>Asante sana</t>
+  </si>
+  <si>
+    <t>Je mwandikishaji ndiye aliyehakiki biashara?</t>
+  </si>
+  <si>
+    <t>Je ni mtendaji ndiye aliyehakiki biashara?</t>
+  </si>
+  <si>
+    <t>Andika tarehe ya uhakiki wa mtendaji (VEO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andika tarehe ya kudhibitishwa </t>
+  </si>
+  <si>
+    <t>Andika tarehe ya uandikishaji</t>
+  </si>
+  <si>
+    <t>Hakutaki kujibu</t>
+  </si>
+  <si>
+    <t>Kiingereza</t>
+  </si>
+  <si>
+    <t>Kiswahili</t>
   </si>
 </sst>
 </file>
@@ -1001,6 +1028,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1059,26 +1093,19 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1122,109 +1149,113 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="95">
+  <cellStyleXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1232,31 +1263,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1265,24 +1296,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="60" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="60" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="60" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="60" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="60" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="60" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="60" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="60" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="60" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1293,14 +1315,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="60" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="60" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="60" applyFont="1" applyAlignment="1">
@@ -1314,10 +1336,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="60" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="60" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="60" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="95">
+  <cellStyles count="99">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -1365,6 +1398,8 @@
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1411,6 +1446,8 @@
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="60"/>
   </cellStyles>
@@ -1819,8 +1856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1863,7 +1900,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -1884,37 +1921,37 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="29" customFormat="1">
-      <c r="A2" s="28"/>
+    <row r="2" spans="1:14" s="26" customFormat="1">
+      <c r="A2" s="25"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>196</v>
+        <v>151</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>307</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="M2" s="32"/>
+      <c r="M2" s="29"/>
     </row>
-    <row r="3" spans="1:14" s="29" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="28"/>
+    <row r="3" spans="1:14" s="26" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="25"/>
       <c r="B3" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1924,102 +1961,102 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="M3" s="32"/>
+      <c r="M3" s="29"/>
     </row>
-    <row r="4" spans="1:14" s="29" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="28"/>
+    <row r="4" spans="1:14" s="26" customFormat="1" ht="12" customHeight="1">
+      <c r="A4" s="25"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>243</v>
+        <v>221</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>309</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="M4" s="32"/>
+      <c r="M4" s="29"/>
     </row>
-    <row r="5" spans="1:14" s="29" customFormat="1">
-      <c r="A5" s="28"/>
+    <row r="5" spans="1:14" s="26" customFormat="1">
+      <c r="A5" s="25"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>198</v>
+        <v>79</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>300</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="M5" s="32"/>
+      <c r="M5" s="29"/>
     </row>
-    <row r="6" spans="1:14" s="29" customFormat="1">
+    <row r="6" spans="1:14" s="26" customFormat="1">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>199</v>
+      <c r="H6" s="17" t="s">
+        <v>296</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:14" s="29" customFormat="1" ht="13" customHeight="1">
+    <row r="7" spans="1:14" s="26" customFormat="1" ht="13" customHeight="1">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>134</v>
+        <v>41</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>132</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="33"/>
+      <c r="L7" s="30"/>
     </row>
-    <row r="8" spans="1:14" s="29" customFormat="1" ht="13" customHeight="1">
+    <row r="8" spans="1:14" s="26" customFormat="1" ht="13" customHeight="1">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
@@ -2027,206 +2064,206 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>319</v>
+        <v>295</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>310</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="33"/>
+      <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="1:14" s="29" customFormat="1">
+    <row r="9" spans="1:14" s="26" customFormat="1">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="27" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>135</v>
+        <v>39</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>133</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:14" s="29" customFormat="1">
+    <row r="10" spans="1:14" s="26" customFormat="1">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="30" t="s">
-        <v>159</v>
+      <c r="D10" s="27" t="s">
+        <v>155</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>136</v>
+        <v>40</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>134</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:14" s="29" customFormat="1" ht="27" customHeight="1">
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="E11" s="30" t="s">
+    <row r="11" spans="1:14" s="26" customFormat="1" ht="27" customHeight="1">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="26" customFormat="1">
+      <c r="B12" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+    </row>
+    <row r="13" spans="1:14" s="26" customFormat="1">
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="F11" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="32" t="s">
-        <v>252</v>
-      </c>
+      <c r="F13" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>313</v>
+      </c>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
     </row>
-    <row r="12" spans="1:14" s="29" customFormat="1">
-      <c r="B12" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" s="36" t="s">
+    <row r="14" spans="1:14" s="26" customFormat="1">
+      <c r="B14" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+    </row>
+    <row r="15" spans="1:14" s="26" customFormat="1">
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
+      <c r="G15" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
     </row>
-    <row r="13" spans="1:14" s="29" customFormat="1">
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="F13" s="36" t="s">
+    <row r="16" spans="1:14" s="26" customFormat="1">
+      <c r="B16" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="G13" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
     </row>
-    <row r="14" spans="1:14" s="29" customFormat="1">
-      <c r="B14" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
+    <row r="17" spans="1:17" s="26" customFormat="1">
+      <c r="B17" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
     </row>
-    <row r="15" spans="1:14" s="29" customFormat="1">
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-    </row>
-    <row r="16" spans="1:14" s="29" customFormat="1">
-      <c r="B16" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-    </row>
-    <row r="17" spans="1:17" s="29" customFormat="1">
-      <c r="B17" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-    </row>
-    <row r="18" spans="1:17" s="30" customFormat="1" ht="13">
-      <c r="A18" s="39"/>
-      <c r="D18" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="G18" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="H18" s="41" t="s">
-        <v>302</v>
+    <row r="18" spans="1:17" s="27" customFormat="1" ht="13">
+      <c r="A18" s="36"/>
+      <c r="D18" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>315</v>
       </c>
       <c r="N18" s="18"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
     </row>
     <row r="19" spans="1:17">
       <c r="B19" s="3"/>
@@ -2236,28 +2273,28 @@
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>205</v>
+        <v>152</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>297</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="B20" s="30" t="s">
-        <v>206</v>
+      <c r="B20" s="27" t="s">
+        <v>193</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="34"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -2266,17 +2303,17 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H21" s="35" t="s">
-        <v>208</v>
+        <v>194</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>195</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -2286,17 +2323,17 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="H22" s="31" t="s">
-        <v>210</v>
+        <v>196</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>317</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -2304,14 +2341,14 @@
     </row>
     <row r="23" spans="1:17">
       <c r="B23" s="3" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="31"/>
+      <c r="H23" s="28"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -2323,16 +2360,16 @@
         <v>13</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="H24" s="35" t="s">
-        <v>213</v>
+        <v>198</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>199</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -2342,17 +2379,17 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="H25" s="34" t="s">
-        <v>215</v>
+        <v>32</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="H25" s="37" t="s">
+        <v>316</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -2360,55 +2397,55 @@
     </row>
     <row r="26" spans="1:17">
       <c r="B26" s="3" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="34"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="31"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37" t="s">
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37" t="s">
+      <c r="E27" s="34"/>
+      <c r="F27" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="H27" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
+      <c r="G27" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="H27" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
     </row>
     <row r="28" spans="1:17">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>219</v>
+        <v>203</v>
+      </c>
+      <c r="H28" s="39" t="s">
+        <v>318</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -2416,7 +2453,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="B29" s="3" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -2430,7 +2467,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="B30" s="3" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -2449,16 +2486,16 @@
         <v>13</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>221</v>
+        <v>204</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>319</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -2466,10 +2503,10 @@
     </row>
     <row r="32" spans="1:17">
       <c r="B32" s="3" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -2481,42 +2518,42 @@
       <c r="K32" s="3"/>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37" t="s">
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="H33" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="H33" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
     </row>
     <row r="34" spans="2:12">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H34" s="35" t="s">
-        <v>138</v>
+      <c r="H34" s="32" t="s">
+        <v>136</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -2524,35 +2561,35 @@
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="35"/>
+      <c r="H35" s="32"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="3" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="35"/>
+      <c r="H36" s="32"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="3" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2568,23 +2605,25 @@
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="H38" s="3"/>
+        <v>212</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>320</v>
+      </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
     </row>
     <row r="39" spans="2:12">
       <c r="B39" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -2601,13 +2640,13 @@
         <v>23</v>
       </c>
       <c r="F41" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" t="s">
         <v>76</v>
       </c>
-      <c r="G41" t="s">
-        <v>77</v>
-      </c>
-      <c r="H41" s="23" t="s">
-        <v>139</v>
+      <c r="H41" s="22" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="2:12">
@@ -2615,30 +2654,30 @@
         <v>23</v>
       </c>
       <c r="F42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G42" t="s">
-        <v>129</v>
-      </c>
-      <c r="H42" t="s">
-        <v>129</v>
+        <v>127</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="2:12" ht="15">
       <c r="D43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E43" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="F43" t="s">
-        <v>310</v>
-      </c>
-      <c r="G43" t="s">
-        <v>316</v>
-      </c>
-      <c r="H43" s="22" t="s">
-        <v>141</v>
+        <v>287</v>
+      </c>
+      <c r="G43" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="H43" s="43" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="44" spans="2:12" ht="15" customHeight="1">
@@ -2647,31 +2686,31 @@
       </c>
       <c r="E44" s="6"/>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>43</v>
-      </c>
-      <c r="H44" s="24" t="s">
-        <v>140</v>
+        <v>42</v>
+      </c>
+      <c r="H44" s="40" t="s">
+        <v>138</v>
       </c>
       <c r="L44" s="9"/>
     </row>
     <row r="45" spans="2:12" ht="15">
       <c r="D45" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E45" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="F45" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="G45" t="s">
-        <v>317</v>
-      </c>
-      <c r="H45" s="25" t="s">
-        <v>142</v>
+        <v>294</v>
+      </c>
+      <c r="H45" s="23" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="46" spans="2:12" ht="30">
@@ -2679,55 +2718,55 @@
         <v>23</v>
       </c>
       <c r="F46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G46" t="s">
-        <v>101</v>
-      </c>
-      <c r="H46" s="26" t="s">
-        <v>140</v>
+        <v>100</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="2:12">
       <c r="D47" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G47" t="s">
-        <v>230</v>
-      </c>
-      <c r="H47" s="19" t="s">
-        <v>231</v>
+        <v>213</v>
+      </c>
+      <c r="H47" s="39" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="48" spans="2:12">
       <c r="D48" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G48" t="s">
-        <v>232</v>
-      </c>
-      <c r="H48" s="19" t="s">
-        <v>233</v>
+        <v>214</v>
+      </c>
+      <c r="H48" s="39" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="4:8">
       <c r="D49" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G49" t="s">
-        <v>234</v>
-      </c>
-      <c r="H49" s="19" t="s">
-        <v>235</v>
+        <v>215</v>
+      </c>
+      <c r="H49" s="39" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -2745,8 +2784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView topLeftCell="A40" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2769,639 +2808,639 @@
         <v>6</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" t="s">
         <v>112</v>
-      </c>
-      <c r="D2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" customHeight="1">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" customHeight="1">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" customHeight="1">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" customHeight="1">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" t="s">
         <v>117</v>
-      </c>
-      <c r="D6" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" customHeight="1">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" t="s">
         <v>119</v>
-      </c>
-      <c r="D7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" customHeight="1">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" t="s">
         <v>121</v>
-      </c>
-      <c r="D8" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" customHeight="1">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" customHeight="1">
       <c r="A11" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="B11" s="10">
         <v>0</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>313</v>
+        <v>289</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" customHeight="1">
       <c r="A12" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="B12" s="10">
         <v>1</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="19" customHeight="1">
       <c r="A13" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="B13">
         <v>-1</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19" customHeight="1"/>
     <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="A15" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="B17" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="C17" t="s">
-        <v>238</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>239</v>
+        <v>218</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19" customHeight="1"/>
     <row r="19" spans="1:4" ht="15" customHeight="1">
-      <c r="A19" t="s">
-        <v>150</v>
-      </c>
-      <c r="B19" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>177</v>
+      <c r="A19" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" t="s">
-        <v>154</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>178</v>
+      <c r="D20" s="3" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B22" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="D22" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>65</v>
-      </c>
       <c r="D23" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>67</v>
-      </c>
       <c r="D24" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B28" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C28" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="D28" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B29" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="C29" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="D29" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B30" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C30" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="D30" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B31" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C31" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="D31" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B32" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C32" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="D32" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B33" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="C33" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="D33" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C34" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="D34" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C35" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="D35" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="C36" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="D36" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C37" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="D37" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B38" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C38" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="D38" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B39" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="C39" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="D39" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B40" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="C40" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="D40" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B41" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C41" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="D41" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B42" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C42" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="D42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B43" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C43" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B44" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C44" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D44" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B45" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C45" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="D45" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B46" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C46" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="D46" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B47" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C47" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="D47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B48" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C48" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="D48" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B49" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C49" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="D49" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B50" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C50" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="D50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B51" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="C51" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="D51" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B52" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="C52" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="D52" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3430,13 +3469,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>45</v>
-      </c>
-      <c r="C1" t="s">
-        <v>46</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -3447,19 +3486,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
         <v>48</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3494,150 +3533,150 @@
   <sheetData>
     <row r="1" spans="1:11" ht="75">
       <c r="A1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="C1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="E1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" t="s">
         <v>86</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
         <v>90</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="I2" t="s">
         <v>93</v>
       </c>
-      <c r="I2" t="s">
-        <v>94</v>
-      </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K2" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
         <v>89</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>90</v>
       </c>
-      <c r="E3" t="s">
-        <v>91</v>
-      </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" t="s">
         <v>90</v>
       </c>
-      <c r="E4" t="s">
-        <v>91</v>
-      </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G4" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="H4" s="18" t="s">
-        <v>97</v>
-      </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" t="s">
         <v>90</v>
       </c>
-      <c r="E5" t="s">
-        <v>91</v>
-      </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s">
         <v>26</v>
@@ -3645,74 +3684,74 @@
     </row>
     <row r="6" spans="1:11" ht="15">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" t="s">
         <v>90</v>
       </c>
-      <c r="E6" t="s">
-        <v>91</v>
-      </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15">
       <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
         <v>103</v>
-      </c>
-      <c r="B7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="I7" t="s">
-        <v>94</v>
-      </c>
-      <c r="J7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="85" customHeight="1">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3728,10 +3767,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3740,10 +3779,12 @@
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="28.33203125" customWidth="1"/>
     <col min="4" max="4" width="38.83203125" customWidth="1"/>
-    <col min="5" max="1022" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="1022" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.75" customHeight="1">
+    <row r="1" spans="1:6" ht="16.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -3754,24 +3795,24 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>306</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.75" customHeight="1">
+    <row r="2" spans="1:6" ht="16.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>133</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" ht="16.75" customHeight="1">
+    <row r="3" spans="1:6" ht="16.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -3779,7 +3820,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.75" customHeight="1">
+    <row r="4" spans="1:6" ht="16.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -3787,20 +3828,45 @@
         <v>20180703</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.75" customHeight="1">
+    <row r="5" spans="1:6" ht="16.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>130</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1">
+      <c r="A7" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1">
+      <c r="A8" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -3818,7 +3884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -3842,15 +3908,15 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -3858,10 +3924,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -3869,7 +3935,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -3881,7 +3947,7 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" s="6"/>
     </row>
@@ -3890,31 +3956,31 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3922,7 +3988,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3930,23 +3996,23 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3954,15 +4020,15 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:16384">
@@ -3975,10 +4041,10 @@
     </row>
     <row r="18" spans="1:16384">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:16384">
@@ -3986,7 +4052,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:16384">
@@ -3994,15 +4060,15 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:16384">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:16384">
@@ -4010,7 +4076,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G22" s="6"/>
     </row>
@@ -4019,16 +4085,16 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:16384">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:16384">
@@ -4036,15 +4102,15 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:16384">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:16384">
@@ -4052,31 +4118,31 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:16384">
       <c r="A28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B28" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:16384">
       <c r="A29" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B29" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:16384">
       <c r="A30" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B30" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:16384">
@@ -4084,7 +4150,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -20471,10 +20537,10 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -20490,10 +20556,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:B7"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -20502,20 +20568,20 @@
     <col min="2" max="2" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:2">
-      <c r="A6" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="15" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="13">
-      <c r="A7" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
+    <row r="2" spans="1:2" ht="13">
+      <c r="A2" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/business/forms/business/business.xlsx
+++ b/app/config/tables/business/forms/business/business.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15800" yWindow="7460" windowWidth="21920" windowHeight="17140" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="15800" yWindow="7460" windowWidth="34000" windowHeight="21760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -645,9 +645,6 @@
     <t xml:space="preserve">if </t>
   </si>
   <si>
-    <t>selected('has_secondary_phone_number', 'yes')</t>
-  </si>
-  <si>
     <t>Enter the secondary phone number.</t>
   </si>
   <si>
@@ -1016,6 +1013,9 @@
   </si>
   <si>
     <t>Kiswahili</t>
+  </si>
+  <si>
+    <t>data('has_secondary_phone_number') === 'yes'</t>
   </si>
 </sst>
 </file>
@@ -1856,8 +1856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1938,7 +1938,7 @@
         <v>151</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -1971,16 +1971,16 @@
         <v>154</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>221</v>
-      </c>
       <c r="H4" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -2004,7 +2004,7 @@
         <v>79</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -2027,7 +2027,7 @@
         <v>78</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -2067,10 +2067,10 @@
         <v>36</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -2135,13 +2135,13 @@
         <v>105</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
       <c r="K11" s="27"/>
       <c r="L11" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="26" customFormat="1">
@@ -2173,10 +2173,10 @@
         <v>126</v>
       </c>
       <c r="G13" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="H13" s="41" t="s">
         <v>312</v>
-      </c>
-      <c r="H13" s="41" t="s">
-        <v>313</v>
       </c>
       <c r="I13" s="33"/>
       <c r="J13" s="33"/>
@@ -2212,7 +2212,7 @@
         <v>192</v>
       </c>
       <c r="H15" s="41" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I15" s="33"/>
       <c r="J15" s="33"/>
@@ -2252,13 +2252,13 @@
         <v>28</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H18" s="42" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N18" s="18"/>
       <c r="O18" s="29"/>
@@ -2279,7 +2279,7 @@
         <v>152</v>
       </c>
       <c r="H19" s="37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -2333,7 +2333,7 @@
         <v>196</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -2360,7 +2360,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>31</v>
@@ -2389,7 +2389,7 @@
         <v>200</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -2445,7 +2445,7 @@
         <v>203</v>
       </c>
       <c r="H28" s="39" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -2495,7 +2495,7 @@
         <v>204</v>
       </c>
       <c r="H31" s="39" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -2506,7 +2506,7 @@
         <v>205</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>206</v>
+        <v>328</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -2528,10 +2528,10 @@
         <v>35</v>
       </c>
       <c r="G33" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="H33" s="35" t="s">
         <v>207</v>
-      </c>
-      <c r="H33" s="35" t="s">
-        <v>208</v>
       </c>
       <c r="I33" s="34"/>
       <c r="J33" s="34"/>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2605,17 +2605,17 @@
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>212</v>
-      </c>
       <c r="H38" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -2660,7 +2660,7 @@
         <v>127</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="2:12" ht="15">
@@ -2668,16 +2668,16 @@
         <v>27</v>
       </c>
       <c r="E43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G43" s="39" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H43" s="43" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="2:12" ht="15" customHeight="1">
@@ -2701,16 +2701,16 @@
         <v>27</v>
       </c>
       <c r="E45" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F45" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G45" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="2:12" ht="30">
@@ -2735,10 +2735,10 @@
         <v>162</v>
       </c>
       <c r="G47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H47" s="39" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="2:12">
@@ -2749,10 +2749,10 @@
         <v>163</v>
       </c>
       <c r="G48" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H48" s="39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="49" spans="4:8">
@@ -2763,10 +2763,10 @@
         <v>164</v>
       </c>
       <c r="G49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H49" s="39" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -2925,35 +2925,35 @@
     </row>
     <row r="11" spans="1:4" ht="16" customHeight="1">
       <c r="A11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B11" s="10">
         <v>0</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="D11" s="24" t="s">
         <v>289</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" customHeight="1">
       <c r="A12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B12" s="10">
         <v>1</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>291</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="19" customHeight="1">
       <c r="A13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B13">
         <v>-1</v>
@@ -2968,7 +2968,7 @@
     <row r="14" spans="1:4" ht="19" customHeight="1"/>
     <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="A15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B16" t="s">
         <v>68</v>
@@ -2996,16 +2996,16 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" t="s">
         <v>216</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>217</v>
       </c>
-      <c r="C17" t="s">
-        <v>218</v>
-      </c>
       <c r="D17" s="39" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19" customHeight="1"/>
@@ -3020,7 +3020,7 @@
         <v>148</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3034,7 +3034,7 @@
         <v>150</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3101,10 +3101,10 @@
         <v>173</v>
       </c>
       <c r="C28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D28" t="s">
         <v>231</v>
-      </c>
-      <c r="D28" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3112,13 +3112,13 @@
         <v>125</v>
       </c>
       <c r="B29" t="s">
+        <v>232</v>
+      </c>
+      <c r="C29" t="s">
         <v>233</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>234</v>
-      </c>
-      <c r="D29" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3129,10 +3129,10 @@
         <v>174</v>
       </c>
       <c r="C30" t="s">
+        <v>235</v>
+      </c>
+      <c r="D30" t="s">
         <v>236</v>
-      </c>
-      <c r="D30" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3143,10 +3143,10 @@
         <v>175</v>
       </c>
       <c r="C31" t="s">
+        <v>237</v>
+      </c>
+      <c r="D31" t="s">
         <v>238</v>
-      </c>
-      <c r="D31" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3157,10 +3157,10 @@
         <v>176</v>
       </c>
       <c r="C32" t="s">
+        <v>239</v>
+      </c>
+      <c r="D32" t="s">
         <v>240</v>
-      </c>
-      <c r="D32" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3168,13 +3168,13 @@
         <v>125</v>
       </c>
       <c r="B33" t="s">
+        <v>241</v>
+      </c>
+      <c r="C33" t="s">
         <v>242</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>243</v>
-      </c>
-      <c r="D33" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3185,10 +3185,10 @@
         <v>177</v>
       </c>
       <c r="C34" t="s">
+        <v>244</v>
+      </c>
+      <c r="D34" t="s">
         <v>245</v>
-      </c>
-      <c r="D34" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3199,10 +3199,10 @@
         <v>178</v>
       </c>
       <c r="C35" t="s">
+        <v>246</v>
+      </c>
+      <c r="D35" t="s">
         <v>247</v>
-      </c>
-      <c r="D35" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3210,13 +3210,13 @@
         <v>125</v>
       </c>
       <c r="B36" t="s">
+        <v>248</v>
+      </c>
+      <c r="C36" t="s">
         <v>249</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>250</v>
-      </c>
-      <c r="D36" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3227,10 +3227,10 @@
         <v>179</v>
       </c>
       <c r="C37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D37" t="s">
         <v>252</v>
-      </c>
-      <c r="D37" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3241,10 +3241,10 @@
         <v>180</v>
       </c>
       <c r="C38" t="s">
+        <v>253</v>
+      </c>
+      <c r="D38" t="s">
         <v>254</v>
-      </c>
-      <c r="D38" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3252,13 +3252,13 @@
         <v>125</v>
       </c>
       <c r="B39" t="s">
+        <v>255</v>
+      </c>
+      <c r="C39" t="s">
         <v>256</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>257</v>
-      </c>
-      <c r="D39" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3266,13 +3266,13 @@
         <v>125</v>
       </c>
       <c r="B40" t="s">
+        <v>258</v>
+      </c>
+      <c r="C40" t="s">
         <v>259</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>260</v>
-      </c>
-      <c r="D40" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3283,10 +3283,10 @@
         <v>157</v>
       </c>
       <c r="C41" t="s">
+        <v>280</v>
+      </c>
+      <c r="D41" t="s">
         <v>281</v>
-      </c>
-      <c r="D41" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3297,7 +3297,7 @@
         <v>181</v>
       </c>
       <c r="C42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D42" t="s">
         <v>106</v>
@@ -3311,7 +3311,7 @@
         <v>182</v>
       </c>
       <c r="C43" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D43" t="s">
         <v>107</v>
@@ -3325,10 +3325,10 @@
         <v>183</v>
       </c>
       <c r="C44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D44" t="s">
         <v>264</v>
-      </c>
-      <c r="D44" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3339,10 +3339,10 @@
         <v>184</v>
       </c>
       <c r="C45" t="s">
+        <v>265</v>
+      </c>
+      <c r="D45" t="s">
         <v>266</v>
-      </c>
-      <c r="D45" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3353,10 +3353,10 @@
         <v>185</v>
       </c>
       <c r="C46" t="s">
+        <v>267</v>
+      </c>
+      <c r="D46" t="s">
         <v>268</v>
-      </c>
-      <c r="D46" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3367,7 +3367,7 @@
         <v>186</v>
       </c>
       <c r="C47" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D47" t="s">
         <v>108</v>
@@ -3381,10 +3381,10 @@
         <v>187</v>
       </c>
       <c r="C48" t="s">
+        <v>270</v>
+      </c>
+      <c r="D48" t="s">
         <v>271</v>
-      </c>
-      <c r="D48" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3395,10 +3395,10 @@
         <v>188</v>
       </c>
       <c r="C49" t="s">
+        <v>272</v>
+      </c>
+      <c r="D49" t="s">
         <v>273</v>
-      </c>
-      <c r="D49" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3409,7 +3409,7 @@
         <v>189</v>
       </c>
       <c r="C50" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D50" t="s">
         <v>109</v>
@@ -3420,13 +3420,13 @@
         <v>125</v>
       </c>
       <c r="B51" t="s">
+        <v>275</v>
+      </c>
+      <c r="C51" t="s">
         <v>276</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>277</v>
-      </c>
-      <c r="D51" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3434,13 +3434,13 @@
         <v>125</v>
       </c>
       <c r="B52" t="s">
+        <v>282</v>
+      </c>
+      <c r="C52" t="s">
         <v>283</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>284</v>
-      </c>
-      <c r="D52" t="s">
-        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3568,7 +3568,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
         <v>89</v>
@@ -3592,7 +3592,7 @@
         <v>93</v>
       </c>
       <c r="K2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3609,10 +3609,10 @@
         <v>90</v>
       </c>
       <c r="G3" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="H3" s="18" t="s">
         <v>222</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>223</v>
       </c>
       <c r="I3" t="s">
         <v>93</v>
@@ -3667,10 +3667,10 @@
         <v>90</v>
       </c>
       <c r="G5" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="H5" s="18" t="s">
         <v>224</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>225</v>
       </c>
       <c r="I5" t="s">
         <v>93</v>
@@ -3696,10 +3696,10 @@
         <v>90</v>
       </c>
       <c r="G6" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>226</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>227</v>
       </c>
       <c r="I6" t="s">
         <v>93</v>
@@ -3725,10 +3725,10 @@
         <v>90</v>
       </c>
       <c r="G7" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>226</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>227</v>
       </c>
       <c r="I7" t="s">
         <v>93</v>
@@ -3751,7 +3751,7 @@
         <v>129</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3769,7 +3769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -3798,10 +3798,10 @@
         <v>110</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>305</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.75" customHeight="1">
@@ -3849,24 +3849,24 @@
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1">
       <c r="A7" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -4094,7 +4094,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:16384">
@@ -4110,7 +4110,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:16384">
@@ -4150,7 +4150,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -20540,7 +20540,7 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/business/forms/business/business.xlsx
+++ b/app/config/tables/business/forms/business/business.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15800" yWindow="7460" windowWidth="34000" windowHeight="21760" tabRatio="500"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="15340" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -952,9 +952,6 @@
     <t>Unakubali kushiriki?</t>
   </si>
   <si>
-    <t>sw:Enter the id of the coordinator who verified the business.</t>
-  </si>
-  <si>
     <t>Chagua Mkoa</t>
   </si>
   <si>
@@ -1016,18 +1013,28 @@
   </si>
   <si>
     <t>data('has_secondary_phone_number') === 'yes'</t>
+  </si>
+  <si>
+    <t>Andika namba ya utambulisho ya msimamizi ambaye ameithibitisha biashara hii.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1151,111 +1158,111 @@
   </borders>
   <cellStyleXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1263,31 +1270,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1296,15 +1303,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="60" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="60" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="60" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="60" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="60" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1315,38 +1319,41 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="60" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="60" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="60" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="60" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="60" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="60" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="60" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="60" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="60" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="60" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="60" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="60" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1856,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="E14" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1921,8 +1928,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="26" customFormat="1">
-      <c r="A2" s="25"/>
+    <row r="2" spans="1:14" s="25" customFormat="1">
+      <c r="A2" s="24"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
@@ -1937,16 +1944,16 @@
       <c r="G2" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="38" t="s">
         <v>306</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="M2" s="29"/>
+      <c r="M2" s="28"/>
     </row>
-    <row r="3" spans="1:14" s="26" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="25"/>
+    <row r="3" spans="1:14" s="25" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="24"/>
       <c r="B3" s="3" t="s">
         <v>123</v>
       </c>
@@ -1961,10 +1968,10 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="M3" s="29"/>
+      <c r="M3" s="28"/>
     </row>
-    <row r="4" spans="1:14" s="26" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="25"/>
+    <row r="4" spans="1:14" s="25" customFormat="1" ht="12" customHeight="1">
+      <c r="A4" s="24"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
@@ -1979,16 +1986,16 @@
       <c r="G4" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="H4" s="39" t="s">
-        <v>308</v>
+      <c r="H4" s="38" t="s">
+        <v>307</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="M4" s="29"/>
+      <c r="M4" s="28"/>
     </row>
-    <row r="5" spans="1:14" s="26" customFormat="1">
-      <c r="A5" s="25"/>
+    <row r="5" spans="1:14" s="25" customFormat="1">
+      <c r="A5" s="24"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
@@ -2009,9 +2016,9 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="M5" s="29"/>
+      <c r="M5" s="28"/>
     </row>
-    <row r="6" spans="1:14" s="26" customFormat="1">
+    <row r="6" spans="1:14" s="25" customFormat="1">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
@@ -2033,7 +2040,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:14" s="26" customFormat="1" ht="13" customHeight="1">
+    <row r="7" spans="1:14" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
@@ -2048,15 +2055,15 @@
       <c r="G7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="31" t="s">
         <v>132</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="30"/>
+      <c r="L7" s="29"/>
     </row>
-    <row r="8" spans="1:14" s="26" customFormat="1" ht="13" customHeight="1">
+    <row r="8" spans="1:14" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
@@ -2069,18 +2076,18 @@
       <c r="G8" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="H8" s="37" t="s">
-        <v>309</v>
+      <c r="H8" s="36" t="s">
+        <v>308</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="30"/>
+      <c r="L8" s="29"/>
     </row>
-    <row r="9" spans="1:14" s="26" customFormat="1">
+    <row r="9" spans="1:14" s="25" customFormat="1">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="3"/>
@@ -2090,17 +2097,17 @@
       <c r="G9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="31" t="s">
         <v>133</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:14" s="26" customFormat="1">
+    <row r="10" spans="1:14" s="25" customFormat="1">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="26" t="s">
         <v>155</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -2112,158 +2119,158 @@
       <c r="G10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="31" t="s">
         <v>134</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:14" s="26" customFormat="1" ht="27" customHeight="1">
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27" t="s">
+    <row r="11" spans="1:14" s="25" customFormat="1" ht="27" customHeight="1">
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="38" t="s">
+      <c r="H11" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="25" customFormat="1">
+      <c r="B12" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+    </row>
+    <row r="13" spans="1:14" s="25" customFormat="1">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="40" t="s">
         <v>310</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="29" t="s">
-        <v>229</v>
-      </c>
+      <c r="H13" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
     </row>
-    <row r="12" spans="1:14" s="26" customFormat="1">
-      <c r="B12" s="33" t="s">
+    <row r="14" spans="1:14" s="25" customFormat="1">
+      <c r="B14" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
+      <c r="C14" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
     </row>
-    <row r="13" spans="1:14" s="26" customFormat="1">
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="G13" s="41" t="s">
-        <v>311</v>
-      </c>
-      <c r="H13" s="41" t="s">
+    <row r="15" spans="1:14" s="25" customFormat="1">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="H15" s="40" t="s">
         <v>312</v>
       </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
     </row>
-    <row r="14" spans="1:14" s="26" customFormat="1">
-      <c r="B14" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
+    <row r="16" spans="1:14" s="25" customFormat="1">
+      <c r="B16" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
     </row>
-    <row r="15" spans="1:14" s="26" customFormat="1">
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="G15" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="H15" s="41" t="s">
+    <row r="17" spans="1:17" s="25" customFormat="1">
+      <c r="B17" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+    </row>
+    <row r="18" spans="1:17" s="26" customFormat="1" ht="13">
+      <c r="A18" s="35"/>
+      <c r="D18" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="H18" s="41" t="s">
         <v>313</v>
       </c>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-    </row>
-    <row r="16" spans="1:14" s="26" customFormat="1">
-      <c r="B16" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-    </row>
-    <row r="17" spans="1:17" s="26" customFormat="1">
-      <c r="B17" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-    </row>
-    <row r="18" spans="1:17" s="27" customFormat="1" ht="13">
-      <c r="A18" s="36"/>
-      <c r="D18" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>279</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>278</v>
-      </c>
-      <c r="H18" s="42" t="s">
-        <v>314</v>
-      </c>
       <c r="N18" s="18"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
     </row>
     <row r="19" spans="1:17">
       <c r="B19" s="3"/>
@@ -2278,7 +2285,7 @@
       <c r="G19" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="H19" s="37" t="s">
+      <c r="H19" s="36" t="s">
         <v>296</v>
       </c>
       <c r="I19" s="3"/>
@@ -2286,7 +2293,7 @@
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="26" t="s">
         <v>193</v>
       </c>
       <c r="C20" s="3"/>
@@ -2294,7 +2301,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="31"/>
+      <c r="H20" s="30"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -2312,7 +2319,7 @@
       <c r="G21" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="H21" s="32" t="s">
+      <c r="H21" s="31" t="s">
         <v>195</v>
       </c>
       <c r="I21" s="3"/>
@@ -2332,8 +2339,8 @@
       <c r="G22" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="H22" s="38" t="s">
-        <v>316</v>
+      <c r="H22" s="37" t="s">
+        <v>315</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -2348,7 +2355,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="28"/>
+      <c r="H23" s="27"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -2368,7 +2375,7 @@
       <c r="G24" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="H24" s="31" t="s">
         <v>199</v>
       </c>
       <c r="I24" s="3"/>
@@ -2385,11 +2392,11 @@
       <c r="F25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="32" t="s">
+      <c r="G25" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="H25" s="37" t="s">
-        <v>315</v>
+      <c r="H25" s="36" t="s">
+        <v>314</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -2403,31 +2410,31 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="30"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34" t="s">
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34" t="s">
+      <c r="E27" s="33"/>
+      <c r="F27" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="H27" s="35" t="s">
+      <c r="H27" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
     </row>
     <row r="28" spans="1:17">
       <c r="B28" s="3"/>
@@ -2444,8 +2451,8 @@
       <c r="G28" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="H28" s="39" t="s">
-        <v>317</v>
+      <c r="H28" s="38" t="s">
+        <v>316</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -2494,8 +2501,8 @@
       <c r="G31" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="H31" s="39" t="s">
-        <v>318</v>
+      <c r="H31" s="38" t="s">
+        <v>317</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -2506,7 +2513,7 @@
         <v>205</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -2518,24 +2525,24 @@
       <c r="K32" s="3"/>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34" t="s">
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34" t="s">
+      <c r="E33" s="33"/>
+      <c r="F33" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="G33" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="H33" s="35" t="s">
+      <c r="H33" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
     </row>
     <row r="34" spans="2:12">
       <c r="B34" s="3"/>
@@ -2552,7 +2559,7 @@
       <c r="G34" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H34" s="32" t="s">
+      <c r="H34" s="31" t="s">
         <v>136</v>
       </c>
       <c r="I34" s="3"/>
@@ -2568,7 +2575,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="32"/>
+      <c r="H35" s="31"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -2582,7 +2589,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="32"/>
+      <c r="H36" s="31"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -2615,7 +2622,7 @@
         <v>211</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -2645,7 +2652,7 @@
       <c r="G41" t="s">
         <v>76</v>
       </c>
-      <c r="H41" s="22" t="s">
+      <c r="H41" s="43" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2660,7 +2667,7 @@
         <v>127</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43" spans="2:12" ht="15">
@@ -2673,11 +2680,11 @@
       <c r="F43" t="s">
         <v>286</v>
       </c>
-      <c r="G43" s="39" t="s">
+      <c r="G43" s="38" t="s">
         <v>292</v>
       </c>
-      <c r="H43" s="43" t="s">
-        <v>320</v>
+      <c r="H43" s="42" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="2:12" ht="15" customHeight="1">
@@ -2691,7 +2698,7 @@
       <c r="G44" t="s">
         <v>42</v>
       </c>
-      <c r="H44" s="40" t="s">
+      <c r="H44" s="39" t="s">
         <v>138</v>
       </c>
       <c r="L44" s="9"/>
@@ -2709,8 +2716,8 @@
       <c r="G45" t="s">
         <v>293</v>
       </c>
-      <c r="H45" s="23" t="s">
-        <v>321</v>
+      <c r="H45" s="22" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="2:12" ht="30">
@@ -2723,7 +2730,7 @@
       <c r="G46" t="s">
         <v>100</v>
       </c>
-      <c r="H46" s="23" t="s">
+      <c r="H46" s="22" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2737,8 +2744,8 @@
       <c r="G47" t="s">
         <v>212</v>
       </c>
-      <c r="H47" s="39" t="s">
-        <v>322</v>
+      <c r="H47" s="38" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="48" spans="2:12">
@@ -2751,8 +2758,8 @@
       <c r="G48" t="s">
         <v>213</v>
       </c>
-      <c r="H48" s="39" t="s">
-        <v>323</v>
+      <c r="H48" s="38" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="4:8">
@@ -2765,8 +2772,8 @@
       <c r="G49" t="s">
         <v>214</v>
       </c>
-      <c r="H49" s="39" t="s">
-        <v>324</v>
+      <c r="H49" s="38" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -2784,7 +2791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -2933,7 +2940,7 @@
       <c r="C11" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>289</v>
       </c>
     </row>
@@ -3004,8 +3011,8 @@
       <c r="C17" t="s">
         <v>217</v>
       </c>
-      <c r="D17" s="39" t="s">
-        <v>325</v>
+      <c r="D17" s="38" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19" customHeight="1"/>
@@ -3854,8 +3861,8 @@
       <c r="E7" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="F7" s="39" t="s">
-        <v>326</v>
+      <c r="F7" s="38" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1">
@@ -3865,8 +3872,8 @@
       <c r="E8" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="F8" s="39" t="s">
-        <v>327</v>
+      <c r="F8" s="38" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -20558,7 +20565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>

--- a/app/config/tables/business/forms/business/business.xlsx
+++ b/app/config/tables/business/forms/business/business.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="15340" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="4160" yWindow="1820" windowWidth="24880" windowHeight="15340" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="335">
   <si>
     <t>comments</t>
   </si>
@@ -1016,6 +1016,24 @@
   </si>
   <si>
     <t>Andika namba ya utambulisho ya msimamizi ambaye ameithibitisha biashara hii.</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>unverifiedUserCanCreate</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>defaultAccessOnCreation</t>
+  </si>
+  <si>
+    <t>HIDDEN</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +1174,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="99">
+  <cellStyleXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1256,8 +1274,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1356,8 +1380,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="60" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="99">
+  <cellStyles count="105">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -1407,6 +1434,9 @@
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1455,6 +1485,9 @@
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="60"/>
   </cellStyles>
@@ -1863,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView topLeftCell="E14" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1975,11 +2008,9 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>218</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
         <v>219</v>
       </c>
@@ -1999,11 +2030,9 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>88</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
         <v>80</v>
       </c>
@@ -2022,11 +2051,9 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>97</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
         <v>77</v>
       </c>
@@ -2044,11 +2071,9 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>94</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
         <v>26</v>
       </c>
@@ -3463,14 +3488,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3506,6 +3535,40 @@
       </c>
       <c r="E2" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -3891,8 +3954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3920,7 +3983,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>80</v>
@@ -3931,7 +3994,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
@@ -3942,7 +4005,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -20542,6 +20605,14 @@
       <c r="XFC31" s="3"/>
       <c r="XFD31" s="3"/>
     </row>
+    <row r="32" spans="1:16384">
+      <c r="A32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>28</v>
@@ -20565,7 +20636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
